--- a/coefs_model_oil.xlsx
+++ b/coefs_model_oil.xlsx
@@ -19,7 +19,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>[0.85454655]</t>
+    <t>[0.31705876]</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B632"/>
+  <dimension ref="A1:B1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.003091928576921144</v>
+        <v>-0.0004055972560699537</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.003091928576921309</v>
+        <v>-0.000405597256069887</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.002100699379973458</v>
+        <v>-0.0004055878385872446</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.0005232147224801574</v>
+        <v>-0.0004054216920370347</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.0005206336654375118</v>
+        <v>-0.0004055603473849116</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.000524169351450719</v>
+        <v>-0.0004057186385346333</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.0005257618980459722</v>
+        <v>-0.0005449956152789822</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.0005308383700861288</v>
+        <v>-0.000603845753630155</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.0005341257880625505</v>
+        <v>-0.0006058024299695913</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -465,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.0004119236770265734</v>
+        <v>-0.0006060836269647377</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.0001163241464421616</v>
+        <v>-0.0006062454455255049</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.072951885248936E-05</v>
+        <v>-0.0006064500078426896</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -489,7 +489,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.171087826534088E-05</v>
+        <v>-0.0006067588791327895</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -497,7 +497,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.003555663552861E-05</v>
+        <v>-0.0006211308942429827</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.48599112381608E-06</v>
+        <v>-0.0006214915944907976</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -513,7 +513,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.691625009515915E-06</v>
+        <v>-0.0005847891210556131</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-5.016502093559372E-05</v>
+        <v>-0.000584621485084742</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -529,7 +529,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.001994517914504685</v>
+        <v>-0.0005844641386961112</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -537,7 +537,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.004077808681653748</v>
+        <v>-0.0005841592366152448</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -545,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.004083034921101641</v>
+        <v>-0.0005839884586525219</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -553,7 +553,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.004083132349622326</v>
+        <v>-0.0005837965222169275</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -561,7 +561,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.00408232130342734</v>
+        <v>-0.0004523026979862088</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -569,7 +569,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.004085539436321297</v>
+        <v>-0.0002082170521280059</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -577,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.004091247701587889</v>
+        <v>-0.0001660164660478167</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -585,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.005255799968769217</v>
+        <v>-0.0001655035304418459</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.005132534806035395</v>
+        <v>-0.0001650013710118087</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -601,7 +601,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.004589645312042188</v>
+        <v>-0.0001645295793486804</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -609,7 +609,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.004590119818846281</v>
+        <v>-0.0001641208786916375</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -617,7 +617,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.00458735019733331</v>
+        <v>-9.765327144682865E-05</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.004587367613722259</v>
+        <v>8.112954485457333E-05</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -633,7 +633,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.004588548263762444</v>
+        <v>0.0001691364759590643</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -641,7 +641,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.004520130809314413</v>
+        <v>0.0001694256218522272</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -649,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.003127307638004524</v>
+        <v>0.0001697295274422833</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -657,7 +657,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.001003055199699809</v>
+        <v>0.0001699912419475395</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -665,7 +665,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.001001367422102707</v>
+        <v>0.000170349414576522</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -673,7 +673,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.001004029236749722</v>
+        <v>0.0001707056734767008</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -681,7 +681,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.001004771579066849</v>
+        <v>0.0001424966179337614</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -689,7 +689,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.001001296498561115</v>
+        <v>9.771704197986074E-05</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -697,7 +697,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.0009987219998727993</v>
+        <v>8.993141168630727E-05</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -705,7 +705,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0003207119969869738</v>
+        <v>9.010321389599071E-05</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -713,7 +713,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.002876960942778397</v>
+        <v>9.034466453710509E-05</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -721,7 +721,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.003423207688294638</v>
+        <v>9.040980810457057E-05</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -729,7 +729,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.004615839217332157</v>
+        <v>9.042339687476897E-05</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -737,7 +737,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.004620097286461131</v>
+        <v>2.842161247132333E-05</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -745,7 +745,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.004624788313142376</v>
+        <v>-0.0001963022693887749</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -753,7 +753,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.004630623614868712</v>
+        <v>-0.0003299491254509539</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -761,7 +761,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.004810413148657764</v>
+        <v>-0.0003299519646420499</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -769,7 +769,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.005192815746595234</v>
+        <v>-0.0003300614564504001</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -777,7 +777,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.004542312521816552</v>
+        <v>-0.0003303795274241409</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -785,7 +785,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.004549094800525546</v>
+        <v>-0.0003305370577593245</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -793,7 +793,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.004555597265421481</v>
+        <v>-0.0003304787907495269</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -801,7 +801,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.004556356700698795</v>
+        <v>-0.0003933431155908043</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -809,7 +809,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.004560961577623408</v>
+        <v>-0.0004160001895982014</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -817,7 +817,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.00456342994460639</v>
+        <v>-0.0004152100945142093</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -825,7 +825,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.003280318990633746</v>
+        <v>-0.0004153247222121173</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -833,7 +833,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.0005024911259783989</v>
+        <v>-0.0004153363768748707</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -841,7 +841,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0002011744755700579</v>
+        <v>-0.0004152560426355368</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -849,7 +849,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0001983671515361969</v>
+        <v>-0.0004154320179655756</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -857,7 +857,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0001952799159628184</v>
+        <v>-0.0003727796229462321</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -865,7 +865,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.000198841998853053</v>
+        <v>-0.000194756409488224</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -873,7 +873,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0001964393295570258</v>
+        <v>-4.274303955098129E-05</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -881,7 +881,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.000552586015587518</v>
+        <v>-4.24977576081542E-05</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -889,7 +889,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.002224925063813734</v>
+        <v>-4.254092180838254E-05</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -897,7 +897,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.003121934250748408</v>
+        <v>-4.258461303734849E-05</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -905,7 +905,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.003120106675551517</v>
+        <v>-4.256677210873835E-05</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -913,7 +913,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.003122504815931283</v>
+        <v>-4.263357709634446E-05</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -921,7 +921,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.003122620048507027</v>
+        <v>0.0001754766753423797</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -929,7 +929,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.003122086984076074</v>
+        <v>0.0003204097593493267</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -937,7 +937,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.003120944436775425</v>
+        <v>0.0003305067731003149</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -945,7 +945,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.004014173708936266</v>
+        <v>0.0003307438166430325</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -953,7 +953,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.004395409846419442</v>
+        <v>0.0003308761192023164</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -961,7 +961,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.004264762861982328</v>
+        <v>0.0003310746470658543</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -969,7 +969,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.004269358109414822</v>
+        <v>0.0003313547707628603</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -977,7 +977,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.004268721672998806</v>
+        <v>0.0003085918424418645</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -985,7 +985,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.004263511758555763</v>
+        <v>0.0002470017048208451</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -993,7 +993,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.004265676428543619</v>
+        <v>0.0002114734886368012</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1001,7 +1001,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.004741326833295458</v>
+        <v>0.0002117596670043904</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1009,7 +1009,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.005746204429615769</v>
+        <v>0.0002120253197507269</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1017,7 +1017,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.005484652305904994</v>
+        <v>0.0002123998240128629</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1025,7 +1025,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.00548808858070032</v>
+        <v>0.0002127235098809986</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1033,7 +1033,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.005485963622099008</v>
+        <v>0.000213122492316636</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.005482498380047905</v>
+        <v>8.807522378722851E-05</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.005490034194153406</v>
+        <v>-0.0001160950671672531</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.005490003086571283</v>
+        <v>-0.0001402856943304392</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.006835591571626618</v>
+        <v>-0.0001400364070703734</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.007210938745142142</v>
+        <v>-0.000139634189607434</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.007115033674443823</v>
+        <v>-0.0001393624454885458</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.007116130883976911</v>
+        <v>-0.0001390764366748337</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1097,7 +1097,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.007114697695811977</v>
+        <v>-0.0002291591981392519</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1105,7 +1105,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.007114784240898179</v>
+        <v>-0.0004504936902629024</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1113,7 +1113,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.007113268472255329</v>
+        <v>-0.0005057414972262649</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1121,7 +1121,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.007203966493311656</v>
+        <v>-0.0005058868942019174</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1129,7 +1129,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.006246563691120511</v>
+        <v>-0.0005059039262193098</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1137,7 +1137,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.004870332660327027</v>
+        <v>-0.0005061286766027072</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1145,7 +1145,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.004871905253656859</v>
+        <v>-0.000506326085551781</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1153,7 +1153,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.004873164359436966</v>
+        <v>-0.0005064933517473191</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1161,7 +1161,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.004872085808413858</v>
+        <v>-0.0004646243226592718</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1169,7 +1169,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.004871411234725961</v>
+        <v>-0.0003939041807236826</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1177,7 +1177,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.004869083540982295</v>
+        <v>-0.0003876661639691551</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1185,7 +1185,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.003015539068107968</v>
+        <v>-0.0003877877324719137</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1193,7 +1193,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0005696665719601097</v>
+        <v>-0.0003879365352609315</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1201,7 +1201,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0002179046816603863</v>
+        <v>-0.0003880453367175404</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1209,7 +1209,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.0002180362461061677</v>
+        <v>-0.0003881882167635588</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1217,7 +1217,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0002196738253861598</v>
+        <v>-0.0003577235230501429</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1225,7 +1225,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0002176407595962392</v>
+        <v>-0.0002484382163208443</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1233,7 +1233,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.0002192301956801367</v>
+        <v>-0.0001645712115656832</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1241,7 +1241,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.0001266707305397149</v>
+        <v>-0.0001643076739858243</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1249,7 +1249,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.001319015974060947</v>
+        <v>-0.0001641949041052559</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1257,7 +1257,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.0021102253017311</v>
+        <v>-0.0001641190968805294</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1265,7 +1265,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.002107815351193377</v>
+        <v>-0.0001639644654186769</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1273,7 +1273,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.002107215212510576</v>
+        <v>-0.0001636496006004453</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1281,7 +1281,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.002107818559368623</v>
+        <v>2.968010223491991E-05</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1289,7 +1289,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.002108396146187512</v>
+        <v>0.0002353863176660661</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1297,7 +1297,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.002107740655506924</v>
+        <v>0.0002461409866605945</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1305,7 +1305,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.001411674284366362</v>
+        <v>0.0002461015985816562</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1313,7 +1313,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0002631377064624534</v>
+        <v>0.0002462529959192904</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1321,7 +1321,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0004459477666827898</v>
+        <v>0.0002461274817801254</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1329,7 +1329,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.000446797703347482</v>
+        <v>0.0002461434793259005</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1337,7 +1337,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.0004489750737367538</v>
+        <v>0.0003161084790221571</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1345,7 +1345,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.0004587058863769766</v>
+        <v>0.0004453720441214937</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1353,7 +1353,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.0004553801349643471</v>
+        <v>0.000490929196734142</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1361,7 +1361,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.001247024740540611</v>
+        <v>0.0004904709550828453</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1369,7 +1369,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.00292146658892904</v>
+        <v>0.0004901978163853193</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1377,7 +1377,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.00336521685890003</v>
+        <v>0.0004899353258736239</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1385,7 +1385,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.003366980351875853</v>
+        <v>0.0004896126453389993</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1393,7 +1393,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.003369872877283248</v>
+        <v>0.0004891524177922153</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1401,7 +1401,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.003375958849232213</v>
+        <v>0.0005203473105838758</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1409,7 +1409,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.003373151001523765</v>
+        <v>0.0004908421233788759</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1417,7 +1417,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.003370765512619955</v>
+        <v>0.0004867975058192851</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1425,7 +1425,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.003748537624659806</v>
+        <v>0.0004867136207106645</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1433,7 +1433,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.003017339125871707</v>
+        <v>0.0004867809913475967</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1441,7 +1441,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.002936556304240953</v>
+        <v>0.000486779710824453</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1449,7 +1449,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.002935955878057481</v>
+        <v>0.0004866069205702887</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1457,7 +1457,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.002933410668548823</v>
+        <v>0.0004018027676504398</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1465,7 +1465,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.002937889995028208</v>
+        <v>0.0001113737218462183</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1473,7 +1473,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.002938155476556367</v>
+        <v>-3.430776599296444E-05</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1481,7 +1481,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.002693356479713541</v>
+        <v>-3.42804105793524E-05</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1489,7 +1489,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.001334174996991566</v>
+        <v>-3.436897677498237E-05</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1497,7 +1497,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.0004603835811407518</v>
+        <v>-3.461748088653927E-05</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1505,7 +1505,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.0004584173485308941</v>
+        <v>-3.475998504159053E-05</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1513,7 +1513,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.003331308192753606</v>
+        <v>-3.474661185824966E-05</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1521,7 +1521,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.003331914677319088</v>
+        <v>-0.0001599333238196883</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1529,7 +1529,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.003330358770285558</v>
+        <v>-0.000248604038940034</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1537,7 +1537,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.003354803219499256</v>
+        <v>-0.000250686925849853</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1545,7 +1545,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.00541393849214788</v>
+        <v>-0.0002507708727388426</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1553,7 +1553,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.007117524402802945</v>
+        <v>-0.0002507991723071794</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1561,7 +1561,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.007120198123213825</v>
+        <v>-0.0002507428164901384</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1569,7 +1569,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.007118305372076515</v>
+        <v>-0.0002507503166968589</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1577,7 +1577,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.007117947237936377</v>
+        <v>-0.0002146636537895759</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1585,7 +1585,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.007117810294836625</v>
+        <v>-0.0001099433742013629</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1593,7 +1593,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.007115390181125069</v>
+        <v>-4.241893395201482E-05</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1601,7 +1601,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.007683835751111498</v>
+        <v>-4.262509436022498E-05</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1609,7 +1609,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.006977491221636504</v>
+        <v>-4.243851568643806E-05</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1617,7 +1617,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.006013536881624483</v>
+        <v>-4.233712730980556E-05</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1625,7 +1625,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.006012004138644625</v>
+        <v>-4.233930923364307E-05</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1633,7 +1633,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.006011733554482021</v>
+        <v>-4.230445822559012E-05</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1641,7 +1641,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.006013712274202102</v>
+        <v>0.0002248220204920809</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1649,7 +1649,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.006011618467848054</v>
+        <v>0.000485041704964911</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1657,7 +1657,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.00599032098356811</v>
+        <v>0.0004870502182433133</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1665,7 +1665,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0.00475707782607313</v>
+        <v>0.0004866162461471102</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1673,7 +1673,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.00254941825677914</v>
+        <v>0.0004862593152141629</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1681,7 +1681,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0.002557497482304421</v>
+        <v>0.000485930424985525</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1689,7 +1689,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.002557971274148105</v>
+        <v>0.0004854291807656085</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1697,7 +1697,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.002562713187744094</v>
+        <v>0.0004830409415647473</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1705,7 +1705,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.00257260998911321</v>
+        <v>0.0004112291195479627</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1713,7 +1713,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.002574158514044079</v>
+        <v>0.0003646069781337475</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1721,7 +1721,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.002267789863237653</v>
+        <v>0.0003647308767601654</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1729,7 +1729,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.001524250114396407</v>
+        <v>0.000364892599407356</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1737,7 +1737,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.001231143957869254</v>
+        <v>0.0003649795480994843</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1745,7 +1745,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.001236554908560649</v>
+        <v>0.0003652133313027667</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1753,7 +1753,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.00124424765522711</v>
+        <v>0.0003650318821723405</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1761,7 +1761,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.00124873081184166</v>
+        <v>0.0002329422082322094</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1769,7 +1769,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.001251240630691061</v>
+        <v>4.697275651787246E-05</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1777,7 +1777,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.001314123727786743</v>
+        <v>4.718730038748175E-05</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1785,7 +1785,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.001850215993253238</v>
+        <v>4.749601959885651E-05</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.002180086012152204</v>
+        <v>4.79280184716023E-05</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.002182890560331011</v>
+        <v>4.823238140817186E-05</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.002182786345941175</v>
+        <v>4.858510075874468E-05</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.002180995017506178</v>
+        <v>1.969842443692624E-05</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1825,7 +1825,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.002181102474505569</v>
+        <v>-5.277312371989449E-05</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1833,7 +1833,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.002181722467168007</v>
+        <v>-7.555127249088566E-05</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1841,7 +1841,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.006089735135287328</v>
+        <v>-7.558489199377539E-05</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1849,7 +1849,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-0.002581670924288727</v>
+        <v>-7.559981903770276E-05</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1857,7 +1857,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.001257803086579444</v>
+        <v>-7.559528765743587E-05</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1865,7 +1865,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.001257580095577992</v>
+        <v>-7.562287024485311E-05</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1873,7 +1873,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.001255687742280438</v>
+        <v>-7.160467192788618E-05</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1881,7 +1881,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.001257471616589866</v>
+        <v>0.0001064911391859289</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1889,7 +1889,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.001258770219203634</v>
+        <v>0.0002197277004015854</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1897,7 +1897,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.0001077670229665592</v>
+        <v>0.0002201616528828038</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1905,7 +1905,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.00519785951862185</v>
+        <v>0.0002205833006495897</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1913,7 +1913,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.00589462415867634</v>
+        <v>0.0002211417644997264</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1921,7 +1921,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.005895323350565228</v>
+        <v>0.0002214844565431443</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1929,7 +1929,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.005896289453366014</v>
+        <v>0.0002217635128980765</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1937,7 +1937,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.00589652740724877</v>
+        <v>0.0003332246059624368</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1945,7 +1945,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.005897368517549764</v>
+        <v>0.0005131562154499739</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1953,7 +1953,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.005898185638601918</v>
+        <v>0.00056838523427252</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1961,7 +1961,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.005310706320474791</v>
+        <v>0.0005680227935367432</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1969,7 +1969,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.004243469381902021</v>
+        <v>0.0005676251386670424</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1977,7 +1977,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.004030775038641486</v>
+        <v>0.0005674421388470596</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1985,7 +1985,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.004032046585666638</v>
+        <v>0.0005671553696275671</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1993,7 +1993,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.004031778436549324</v>
+        <v>0.0005707074114053162</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2001,7 +2001,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.004031943117550384</v>
+        <v>0.0006302613898038979</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2009,7 +2009,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.00403337478821872</v>
+        <v>0.0006087873505198492</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2017,7 +2017,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.003701202951288512</v>
+        <v>0.0006083549874544664</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2025,7 +2025,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.002264060944213549</v>
+        <v>0.0006079293696168844</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2033,7 +2033,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.0008978972583177105</v>
+        <v>0.0006075975570104732</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2041,7 +2041,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.005249949005831799</v>
+        <v>0.0006072279247473192</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2049,7 +2049,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.005248116444027375</v>
+        <v>0.0006067824445909962</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2057,7 +2057,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.005247735245033977</v>
+        <v>0.0005765878293111314</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2065,7 +2065,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.00524845415780519</v>
+        <v>0.0005003382923348409</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2073,7 +2073,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.005251490507917921</v>
+        <v>0.0004605861318406393</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2081,7 +2081,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.005598596246551453</v>
+        <v>0.0004602621285464158</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2089,7 +2089,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.004913271451252397</v>
+        <v>0.0004599106647945664</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2097,7 +2097,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.004820890680305829</v>
+        <v>0.0004595636812536524</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2105,7 +2105,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.004821234503331532</v>
+        <v>0.0004592612261508967</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2113,7 +2113,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.004821384183549804</v>
+        <v>0.0004590734687036965</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2121,7 +2121,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.004822114400977918</v>
+        <v>0.0004482784464950558</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2129,7 +2129,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.00482257762003751</v>
+        <v>0.000408644109779346</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2137,7 +2137,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.004056076084641902</v>
+        <v>0.0004085224601101752</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2145,7 +2145,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.001862944633686701</v>
+        <v>0.0004083279343708084</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2153,7 +2153,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.001377916505043692</v>
+        <v>0.0004080622993153439</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2161,7 +2161,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-0.0013785828965039</v>
+        <v>0.0004078103895100707</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2169,7 +2169,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.001376611889124786</v>
+        <v>0.0004076001926507021</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2177,7 +2177,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>-0.001373797598893564</v>
+        <v>0.0004552490333472561</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2185,7 +2185,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.001376602407904045</v>
+        <v>0.0004705954581983732</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2193,7 +2193,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.00137669053221026</v>
+        <v>0.0004049466935776443</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2201,7 +2201,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.001376706018006571</v>
+        <v>0.0004050131636076425</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2209,7 +2209,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.004342514321443843</v>
+        <v>0.0004051516280544647</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2217,7 +2217,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.004367619722629179</v>
+        <v>0.0004051338263352642</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2225,7 +2225,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.004366678979324946</v>
+        <v>0.0004051686932592969</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2233,7 +2233,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.004366755834895528</v>
+        <v>0.0003960649633490556</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2241,7 +2241,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.00437009870756941</v>
+        <v>0.0001859713816028841</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2249,7 +2249,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.004364659042784094</v>
+        <v>6.060333632813611E-05</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2257,7 +2257,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.005077421412080641</v>
+        <v>6.057528108256479E-05</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2265,7 +2265,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.004716849061401819</v>
+        <v>6.059923968337888E-05</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2273,7 +2273,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.004191218110679166</v>
+        <v>6.06063265384072E-05</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2281,7 +2281,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.004189135338460354</v>
+        <v>6.048158670989346E-05</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2289,7 +2289,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.004189395041747943</v>
+        <v>6.048426787829559E-05</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2297,7 +2297,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.004189679693884127</v>
+        <v>3.820463029757325E-05</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2305,7 +2305,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.004191047077195756</v>
+        <v>5.409833497867735E-06</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2313,7 +2313,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.004145011115134788</v>
+        <v>-5.764864129669798E-06</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2321,7 +2321,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.002529009120998748</v>
+        <v>-5.534284455216423E-06</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2329,7 +2329,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.0007199477157942057</v>
+        <v>-5.299557000152069E-06</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2337,7 +2337,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.0007201412434496718</v>
+        <v>-5.117318997672294E-06</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2345,7 +2345,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.0007175337760676288</v>
+        <v>-4.913522491302193E-06</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2353,7 +2353,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.0007201017084412406</v>
+        <v>-4.926812372024282E-06</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2361,7 +2361,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.0007214283020094556</v>
+        <v>-7.566080009496687E-06</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2369,7 +2369,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.0007186348436424001</v>
+        <v>-9.838728934439329E-06</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2377,7 +2377,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-0.0004511200591165818</v>
+        <v>-9.471557155674405E-06</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2385,7 +2385,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.004086990219149559</v>
+        <v>-9.112320972977967E-06</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2393,7 +2393,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.005651616851826502</v>
+        <v>-8.796920840307914E-06</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2401,7 +2401,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.005643930227385924</v>
+        <v>-8.370834092333719E-06</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2409,7 +2409,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.005645754509994435</v>
+        <v>-7.940935100679433E-06</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2417,7 +2417,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-0.005650940056478873</v>
+        <v>1.410470918556301E-05</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2425,7 +2425,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.005649427683507109</v>
+        <v>6.152559869449065E-05</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2433,7 +2433,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-0.005741076273518875</v>
+        <v>7.843262392156593E-05</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2441,7 +2441,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.006062108510420298</v>
+        <v>7.829923436655705E-05</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2449,7 +2449,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.004952062240146404</v>
+        <v>7.837798463556698E-05</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2457,7 +2457,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-0.004949520831449783</v>
+        <v>7.840907771915983E-05</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2465,7 +2465,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.004951332819468408</v>
+        <v>7.839149345565073E-05</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2473,7 +2473,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-0.004950929734728804</v>
+        <v>8.882002554277199E-05</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2481,7 +2481,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.004950989000858694</v>
+        <v>0.0001874992171383254</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2489,7 +2489,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.003968507765551518</v>
+        <v>0.0002398366257194185</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2497,7 +2497,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.004907560688884953</v>
+        <v>0.0002396305582879399</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2505,7 +2505,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.005219024296853941</v>
+        <v>0.0002393853866312272</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2513,7 +2513,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.00489899677420208</v>
+        <v>0.0002391870902674036</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2521,7 +2521,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.004904260250819924</v>
+        <v>0.0002390168776967567</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2529,7 +2529,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.004909077341420617</v>
+        <v>0.0002387146564285321</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2537,7 +2537,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.004905534392128767</v>
+        <v>0.000269962467115062</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2545,7 +2545,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.004901965108165341</v>
+        <v>0.0002925201178262572</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2553,7 +2553,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.004985531323447892</v>
+        <v>0.0002910577306014787</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2561,7 +2561,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.003944053990296757</v>
+        <v>0.0002908271305181456</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2569,7 +2569,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.002458174755035294</v>
+        <v>0.0002906014744116727</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2577,7 +2577,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.002458219786201137</v>
+        <v>0.0002903052319528716</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2585,7 +2585,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.002456154998758388</v>
+        <v>0.0002900373971460849</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2593,7 +2593,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.00245812769507374</v>
+        <v>0.0002947738498189647</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2601,7 +2601,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.002459746672405814</v>
+        <v>0.0003262867643031997</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2609,7 +2609,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.002457715707498941</v>
+        <v>0.0003325295016593326</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2617,7 +2617,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.002395619304289427</v>
+        <v>0.0003323915785160921</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2625,7 +2625,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.001896770651106191</v>
+        <v>0.0003323766180589362</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2633,7 +2633,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.001685082644672146</v>
+        <v>0.0003324086009997571</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2641,7 +2641,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.001683443087127454</v>
+        <v>0.000332274523175464</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2649,7 +2649,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.001677649511817571</v>
+        <v>0.000332256558760086</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2657,7 +2657,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.001672872168447869</v>
+        <v>0.0003767560969520118</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2665,7 +2665,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.001666796368826311</v>
+        <v>0.0004187014923427854</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2673,7 +2673,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.001787326732210915</v>
+        <v>0.0004181078475323202</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2681,7 +2681,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.002028739551546269</v>
+        <v>0.0004179607092986523</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2689,7 +2689,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.001519317546683144</v>
+        <v>0.0004178451135832442</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2697,7 +2697,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.001513266186055023</v>
+        <v>0.0004177581780404022</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2705,7 +2705,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.001511570160080747</v>
+        <v>0.0004177847456049107</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2713,7 +2713,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.001512665840099875</v>
+        <v>0.0004280429958805852</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2721,7 +2721,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.001510602684591319</v>
+        <v>0.0004620599624894047</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2729,7 +2729,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.001507716596696502</v>
+        <v>0.000436228966842543</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2737,7 +2737,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.001326265230243746</v>
+        <v>0.00043576566411698</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2745,7 +2745,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>-0.001969515384229053</v>
+        <v>0.000435320123447095</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2753,7 +2753,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>-0.002139774984094471</v>
+        <v>0.000434892783868458</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2761,7 +2761,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>-0.002141416065896502</v>
+        <v>0.0004344382025785252</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2769,7 +2769,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>-0.002142322605847465</v>
+        <v>0.0004339410141621671</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2777,7 +2777,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>-0.002136678207917908</v>
+        <v>0.0004309446702697311</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2785,7 +2785,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>-0.002141125815385528</v>
+        <v>0.0003919479619869908</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2793,7 +2793,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>-0.002619608127606211</v>
+        <v>0.0003717954997517119</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2801,7 +2801,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>-0.004214052624838724</v>
+        <v>0.0003714135796673144</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2809,7 +2809,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>-0.005088667596611763</v>
+        <v>0.0003709910982548019</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2817,7 +2817,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>-0.005085613330050021</v>
+        <v>0.000370663339768575</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2825,7 +2825,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>-0.005083420669860887</v>
+        <v>0.0003701874751395772</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2833,7 +2833,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.005081190873248026</v>
+        <v>0.000370521154275916</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2841,7 +2841,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-0.001736131691857529</v>
+        <v>0.0003587665743764315</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2849,7 +2849,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>-0.001737829871224997</v>
+        <v>0.0003145446457055247</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2857,7 +2857,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7.655077404129339E-05</v>
+        <v>0.0003141793369789055</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2865,7 +2865,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.0028797492484671</v>
+        <v>0.0003138688641366998</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2873,7 +2873,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.003112477868614178</v>
+        <v>0.0003136879012498659</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2881,7 +2881,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.00311454186590975</v>
+        <v>0.0003133282585421662</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2889,7 +2889,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.003116819909623266</v>
+        <v>0.0003129752483521177</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2897,7 +2897,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.003116761042078438</v>
+        <v>0.0003182547881994346</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2905,7 +2905,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.003117995082358369</v>
+        <v>0.0002491395527244722</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2913,7 +2913,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.003306253271998677</v>
+        <v>0.0002081065295554235</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2921,7 +2921,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.002870317178366397</v>
+        <v>0.0002081217671059115</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2929,7 +2929,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.002326525949407885</v>
+        <v>0.0002081632651319789</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2937,7 +2937,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.00232649524568052</v>
+        <v>0.0002084296382658773</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2945,7 +2945,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.002325079206813221</v>
+        <v>0.0002085259515834039</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2953,7 +2953,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.002322475890028477</v>
+        <v>0.0002078437538464096</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2961,7 +2961,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.002325943210078452</v>
+        <v>0.0001805198278811074</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2969,7 +2969,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.002328633990126885</v>
+        <v>0.0001412156879717853</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2977,7 +2977,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.0008386757375406291</v>
+        <v>0.000141058027324971</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2985,7 +2985,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>-0.001482194041823012</v>
+        <v>0.0001409849632044181</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2993,7 +2993,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>-0.001653885807414658</v>
+        <v>0.0001409728970036473</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3001,7 +3001,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>-0.001657427355954636</v>
+        <v>0.0001411111617173866</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3009,7 +3009,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>-0.001654981693452129</v>
+        <v>0.0001409450302365008</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3017,7 +3017,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>-0.001654957599905394</v>
+        <v>0.0001544699395507562</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3025,7 +3025,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>-0.001658595413717253</v>
+        <v>0.0001555668722931214</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3033,7 +3033,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>-0.002769056917808298</v>
+        <v>0.0001511013027909795</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3041,7 +3041,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>-0.004267826002138995</v>
+        <v>0.0001510029708674304</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3049,7 +3049,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-0.003989211273127909</v>
+        <v>0.0001507565693185123</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3057,7 +3057,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>-0.003995296879968756</v>
+        <v>0.0001505192696144089</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3065,7 +3065,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>-0.003995324246657856</v>
+        <v>0.000150364791620808</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3073,7 +3073,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>-0.003993728637959709</v>
+        <v>0.00015335940858729</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3081,7 +3081,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>-0.003993968698168713</v>
+        <v>0.0001513814055213843</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3089,7 +3089,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>-0.003989951332966056</v>
+        <v>0.0001311628359697521</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3097,7 +3097,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>-0.00339920845232825</v>
+        <v>0.0001311381607042111</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3105,7 +3105,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>-0.002388432919923502</v>
+        <v>0.0001311226947803634</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3113,7 +3113,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.00104461437913553</v>
+        <v>0.0001311682834743536</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3121,7 +3121,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.001042878580343061</v>
+        <v>0.0001312341375380359</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3129,7 +3129,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.001043000117899702</v>
+        <v>0.0001309240613128254</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3137,7 +3137,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.001043831127223279</v>
+        <v>0.0001432312253913108</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3145,7 +3145,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.001046817151709279</v>
+        <v>0.0001452888113684474</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3153,7 +3153,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.001380641404201488</v>
+        <v>0.0001432176333717832</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3161,7 +3161,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.001861805007088993</v>
+        <v>0.0001432866394107893</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3169,7 +3169,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.001904972448245431</v>
+        <v>0.0001431230116882224</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3177,7 +3177,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.000123030015570628</v>
+        <v>0.0001430378319407083</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3185,7 +3185,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.0001270911458628177</v>
+        <v>0.0001430373465841414</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3193,7 +3193,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.0001284128091716723</v>
+        <v>0.0001515512060131258</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3201,7 +3201,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.0001246916955294301</v>
+        <v>0.0001817326026503652</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3209,7 +3209,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>2.247114261049179E-05</v>
+        <v>0.0001911287020852723</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3217,7 +3217,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>-0.001157746613082726</v>
+        <v>0.0001908568569067653</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3225,7 +3225,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.001492088351773123</v>
+        <v>0.0001905807833380875</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3233,7 +3233,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>-0.001491802159465251</v>
+        <v>0.0001902532990825816</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3241,7 +3241,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>-0.001489305218508883</v>
+        <v>0.000190099778946708</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3249,7 +3249,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>-0.00148915273303792</v>
+        <v>0.0001898536111895639</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3257,7 +3257,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>-0.001488575635558061</v>
+        <v>0.0001930886498138551</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3265,7 +3265,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>-0.001490918721573404</v>
+        <v>0.0001807883380533365</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3273,7 +3273,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>-0.001774566716321292</v>
+        <v>0.0001738329635701776</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3281,7 +3281,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>-0.001870938186807019</v>
+        <v>0.0001734439918160469</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3289,7 +3289,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>-0.001787767129711018</v>
+        <v>0.0001731917460701747</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3297,7 +3297,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>-0.001787500873630088</v>
+        <v>0.0001731262995810366</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3305,7 +3305,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>-0.001783384701157428</v>
+        <v>0.0001728896606456263</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3313,7 +3313,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-0.001785863733050293</v>
+        <v>0.0001613684784858423</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3321,7 +3321,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>-0.001784369312049062</v>
+        <v>9.006105798239141E-05</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3329,7 +3329,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-0.001892164498028163</v>
+        <v>1.164505988201781E-05</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3337,7 +3337,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>-0.002137698196253209</v>
+        <v>1.171224902485107E-05</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3345,7 +3345,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-0.00160552958832045</v>
+        <v>1.17952685588786E-05</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3353,7 +3353,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>-0.001605387735001588</v>
+        <v>1.165810540473317E-05</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3361,7 +3361,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>-0.001609146872781438</v>
+        <v>1.172870418527446E-05</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3369,7 +3369,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>-0.001609434678552629</v>
+        <v>1.177623183884145E-05</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3377,7 +3377,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>-0.001610783564657317</v>
+        <v>-5.834280413517867E-05</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3385,7 +3385,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>-0.001611367701580424</v>
+        <v>-0.0001609038903855854</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3393,7 +3393,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-0.002317089965529913</v>
+        <v>-0.0001774169933421051</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3401,7 +3401,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.0005904905324655407</v>
+        <v>-0.0001773837478378978</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3409,7 +3409,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.001103835239945036</v>
+        <v>-0.0001769278243280857</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3417,7 +3417,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.001103738565147432</v>
+        <v>-0.0001768378563010631</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3425,7 +3425,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.001104675678336083</v>
+        <v>-0.000176741035377306</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3433,7 +3433,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.001108228973807207</v>
+        <v>-0.0001618020990267508</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3441,7 +3441,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.001106983106509766</v>
+        <v>-7.03730267420708E-05</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3449,7 +3449,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.001653030732503469</v>
+        <v>-5.490378138684776E-06</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3457,7 +3457,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.002306251788944321</v>
+        <v>-5.610025088983426E-06</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3465,7 +3465,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.002117242469664065</v>
+        <v>-5.332406253362074E-06</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3473,7 +3473,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.002113685749176926</v>
+        <v>-5.158165839785197E-06</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3481,7 +3481,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.002111991423022879</v>
+        <v>-4.977983988293688E-06</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3489,7 +3489,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.002106955280890718</v>
+        <v>-4.906591133099212E-06</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3497,7 +3497,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.002103669330214578</v>
+        <v>0.0001149661825258626</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3505,7 +3505,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.00210231556244479</v>
+        <v>0.0002417773838037099</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3513,7 +3513,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.001310083782792515</v>
+        <v>0.0002620630095070567</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3521,7 +3521,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.0005473441578552304</v>
+        <v>0.0002619355260827026</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3529,7 +3529,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>-0.001035983437509831</v>
+        <v>0.0002616806127810754</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3537,7 +3537,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>-0.001036008215033718</v>
+        <v>0.0002615996913184291</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3545,7 +3545,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>-0.001036568808616981</v>
+        <v>0.0002616517968077848</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3553,7 +3553,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>-0.001037107398550113</v>
+        <v>0.0002864152942788399</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3561,7 +3561,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.0010372453439966</v>
+        <v>0.0003565702060302496</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3569,7 +3569,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>-0.0009684206535898598</v>
+        <v>0.0003714062691907356</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3577,7 +3577,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>-0.0007578771156525813</v>
+        <v>0.0003715069436048162</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3585,7 +3585,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>-0.000628081038591557</v>
+        <v>0.0003716178104650652</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3593,7 +3593,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>-0.0006298439474105844</v>
+        <v>0.0003714140941445717</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3601,7 +3601,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>-0.0006305310009176596</v>
+        <v>0.0003714194002311416</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3609,7 +3609,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-0.0006318043918492231</v>
+        <v>0.0003716249728848067</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3617,7 +3617,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>-0.000633687080521315</v>
+        <v>0.0003548986453272285</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3625,7 +3625,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>-0.0006346953039735775</v>
+        <v>0.0002691735927892051</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3633,7 +3633,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>-0.0007023598658658312</v>
+        <v>0.0002452573602393242</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3641,7 +3641,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>-0.0007340966703145039</v>
+        <v>0.000245275029806165</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3649,7 +3649,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>-0.0007327974358236958</v>
+        <v>0.0002452480003467577</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3657,7 +3657,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>-0.0007295119996597487</v>
+        <v>0.000245465564810445</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3665,7 +3665,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>-0.0007266543245520167</v>
+        <v>0.0002455322678960258</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3673,7 +3673,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>-0.0007243763211493614</v>
+        <v>0.0002291676086155371</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3681,7 +3681,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>-0.0007213501704167253</v>
+        <v>0.0001423223724623961</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3689,7 +3689,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>-0.0008494120822529834</v>
+        <v>7.279634397266899E-05</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3697,7 +3697,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>-0.001175001638151918</v>
+        <v>7.29401507026253E-05</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3705,7 +3705,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>-0.001346728850542432</v>
+        <v>7.29028061717025E-05</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3713,7 +3713,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>-0.001344010041386148</v>
+        <v>7.31996189934772E-05</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3721,7 +3721,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>-0.001341095523102714</v>
+        <v>7.317318191107821E-05</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3729,7 +3729,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>-0.001338128391705583</v>
+        <v>7.317049199124121E-05</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3737,7 +3737,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>-0.001335215458824392</v>
+        <v>6.462964292000278E-05</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3745,7 +3745,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>-0.001332608529326471</v>
+        <v>4.52364533442105E-05</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3753,7 +3753,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>-0.001663126997698185</v>
+        <v>4.133954501651373E-05</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3761,7 +3761,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>-0.001914729274557872</v>
+        <v>4.152466935871381E-05</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3769,7 +3769,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>-0.001936096906605</v>
+        <v>4.173621728038973E-05</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3777,7 +3777,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>-0.001940288656731603</v>
+        <v>4.207648065296661E-05</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3785,7 +3785,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>-0.001944521433425798</v>
+        <v>4.242607157217261E-05</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3793,7 +3793,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>-0.001948247998723822</v>
+        <v>4.341601336284513E-05</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3801,7 +3801,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>-0.00195247675351983</v>
+        <v>4.0849967668532E-05</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3809,7 +3809,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>-0.001976515546256476</v>
+        <v>3.409249224348691E-05</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3817,7 +3817,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>-0.001997420315274019</v>
+        <v>3.407014246254815E-05</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3825,7 +3825,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>-0.001989954093563677</v>
+        <v>3.424316735485102E-05</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3833,7 +3833,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>-0.001996948033544668</v>
+        <v>3.420069931059854E-05</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3841,7 +3841,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>-0.002002902810199363</v>
+        <v>3.424475888333075E-05</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3849,7 +3849,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>-0.002009284897119099</v>
+        <v>3.443503458406771E-05</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3857,7 +3857,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>-0.002016069460652955</v>
+        <v>3.913845860275296E-06</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3865,7 +3865,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>-0.0002522020112103496</v>
+        <v>-3.374500441004456E-05</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3873,7 +3873,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>6.102058751557722E-05</v>
+        <v>-3.926556877196835E-05</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3881,7 +3881,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.000279219112626477</v>
+        <v>-3.963132849053388E-05</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3889,7 +3889,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.000281891294629106</v>
+        <v>-4.034891297278957E-05</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3897,7 +3897,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.0002826919359055618</v>
+        <v>-4.079039945164477E-05</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3905,7 +3905,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.000282716503797434</v>
+        <v>-4.099184055507426E-05</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3913,7 +3913,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.0002831033874208163</v>
+        <v>-4.1286273530704E-05</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3921,7 +3921,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.0002845019309006831</v>
+        <v>-3.745432044867627E-05</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3929,7 +3929,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.0001228109093538168</v>
+        <v>-3.263490732848552E-05</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3937,7 +3937,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>-0.0001251032088023145</v>
+        <v>-3.303073465545071E-05</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3945,7 +3945,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>-0.0002160691469787583</v>
+        <v>-3.335578627416318E-05</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3953,7 +3953,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>-0.0002170993002103884</v>
+        <v>-3.375791064067396E-05</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3961,7 +3961,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>-0.0002179664279254134</v>
+        <v>-3.430653538932228E-05</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3969,7 +3969,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>-0.000218923193948754</v>
+        <v>-3.478415473667022E-05</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3977,7 +3977,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>-0.0002197133305179988</v>
+        <v>3.711868364541564E-05</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3985,7 +3985,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>-0.0002288119766548605</v>
+        <v>0.0001330070070296106</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3993,7 +3993,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>-0.0005332809876318389</v>
+        <v>0.0001473884892188115</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4001,7 +4001,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>-0.0008498255167802564</v>
+        <v>0.0001471847962297517</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4009,7 +4009,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>-0.0008511899332812816</v>
+        <v>0.000147047905279308</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4017,7 +4017,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>-0.0008524145151785323</v>
+        <v>0.000146752872401123</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4025,7 +4025,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>-0.000853252859119869</v>
+        <v>0.000146491817142893</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4033,7 +4033,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>-0.0008548127999795984</v>
+        <v>0.0001852717461133261</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4041,7 +4041,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>-0.0008559399609856491</v>
+        <v>0.0003042598262638697</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4049,7 +4049,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>-0.001011495984132331</v>
+        <v>0.000343755339728083</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4057,7 +4057,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>-0.001309403065819737</v>
+        <v>0.0003438182130372878</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4065,7 +4065,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.0005291772831721513</v>
+        <v>0.000343685063894999</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4073,7 +4073,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.000529032828622521</v>
+        <v>0.0003437590702906611</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4081,7 +4081,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.0005294007280800105</v>
+        <v>0.000343845602306158</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4089,7 +4089,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.0003766235363805016</v>
+        <v>0.0003439143210745402</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4097,7 +4097,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.0003757701415890022</v>
+        <v>0.0002457083086053885</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4105,7 +4105,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.0003092234040211975</v>
+        <v>9.829039998051077E-05</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4113,7 +4113,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>-0.0001732875470160726</v>
+        <v>8.036067214209809E-05</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4121,7 +4121,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>-0.0006346845222357659</v>
+        <v>8.029594922909291E-05</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4129,7 +4129,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>-0.0006347189855513236</v>
+        <v>8.052320787637626E-05</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4137,7 +4137,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>-0.0006344691822130489</v>
+        <v>8.069152005649791E-05</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4145,7 +4145,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>-0.0006344348821119754</v>
+        <v>8.060160866843088E-05</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4153,7 +4153,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>-0.0006345830102542231</v>
+        <v>2.60605817160223E-05</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4161,7 +4161,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>-0.000634554169930761</v>
+        <v>-0.0001321645190686665</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4169,7 +4169,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>-0.0009253547267488597</v>
+        <v>-0.0002223750653660311</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4177,7 +4177,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>-0.00136800265622081</v>
+        <v>-0.0002222692090127464</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4185,7 +4185,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>-0.001451923610317953</v>
+        <v>-0.000222355096442651</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4193,7 +4193,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>-0.001451349312409919</v>
+        <v>-0.0002225383323040519</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4201,7 +4201,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>-0.001450621503395355</v>
+        <v>-0.0002224598906321375</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4209,7 +4209,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>-0.001450752334351506</v>
+        <v>-0.000222528333136227</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4217,7 +4217,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>-0.001451063538242014</v>
+        <v>-0.0002559833158954954</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4225,7 +4225,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>-0.001403661576067279</v>
+        <v>-0.0002466230272551618</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>-0.0009314685728803513</v>
+        <v>-0.0002395188778808632</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>-0.0004722810442230167</v>
+        <v>-0.00023930580341737</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>-0.0004712288357574961</v>
+        <v>-0.0002395467996936892</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>-0.0004692519471895596</v>
+        <v>-0.0002397192343701841</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>-0.000467969224987015</v>
+        <v>-0.0002394780461156871</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>-0.0004663478810567766</v>
+        <v>-0.0001462437876335052</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>-0.0004638734075368283</v>
+        <v>0.0001332304258363051</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>-6.958209083638938E-05</v>
+        <v>0.0002469792614081607</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.0004813372795578089</v>
+        <v>0.0002467154475683894</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.0006084735886797184</v>
+        <v>0.0002466645568114795</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.0006071976508784038</v>
+        <v>0.0002465965882072187</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.000605484815814275</v>
+        <v>0.0002464232012853752</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.0006033801966397866</v>
+        <v>0.0002463433622767364</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.0006016344666034275</v>
+        <v>0.0003682188415465388</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.0006796869610490038</v>
+        <v>0.0004584926415113408</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.0009488126735920279</v>
+        <v>0.0004644195746776395</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.001062035303920562</v>
+        <v>0.0004643096500398878</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0.001056997726562424</v>
+        <v>0.0004641753834318556</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.001051225305297094</v>
+        <v>0.0004640668133152047</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0.001046867807727606</v>
+        <v>0.000464206847317888</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.001043109904134392</v>
+        <v>0.0004594666372922429</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4401,7 +4401,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.001038347041160726</v>
+        <v>0.0003661859997415233</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4409,7 +4409,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.001195214639991548</v>
+        <v>0.0002461999422250186</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4417,7 +4417,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.001359154420450045</v>
+        <v>0.0002461476398112288</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4425,7 +4425,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.001383079460601356</v>
+        <v>0.0002461075523116021</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4433,7 +4433,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.001382447277545294</v>
+        <v>0.000246205373937643</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4441,7 +4441,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>0.001380847468558759</v>
+        <v>0.0002462315120134962</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4449,7 +4449,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.001379161033567429</v>
+        <v>0.0002462372055770585</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4457,7 +4457,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>0.001378353248491297</v>
+        <v>2.996452909562149E-05</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4465,7 +4465,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.001463176330767473</v>
+        <v>-0.0001974393135965002</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4473,7 +4473,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.001647677831310277</v>
+        <v>-0.0002127134496664919</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4481,7 +4481,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>0.001626511289875859</v>
+        <v>-0.0002127477137015259</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4489,7 +4489,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>0.001626346847465717</v>
+        <v>-0.0002129510587826154</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4497,7 +4497,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0.001626796446784619</v>
+        <v>-0.0002130807807733382</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4505,7 +4505,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.001627294639565932</v>
+        <v>-0.0002131634950110802</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4513,7 +4513,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>0.001626606948575913</v>
+        <v>-0.0002243088957617696</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4521,7 +4521,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>0.001626647611647471</v>
+        <v>-0.0002212457517331442</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4529,7 +4529,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>-0.0002274797056820082</v>
+        <v>-0.0001971855310764327</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4537,7 +4537,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>-0.000805874956946877</v>
+        <v>-0.0001972320045833454</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4545,7 +4545,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>-0.0008795613920856227</v>
+        <v>-0.0001971675979486875</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4553,7 +4553,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>-0.0008780788444976094</v>
+        <v>-0.00019712626171889</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4561,7 +4561,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>-0.0008773322666415088</v>
+        <v>-0.0001971837239673462</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4569,7 +4569,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>-0.0008774059809471174</v>
+        <v>-0.0001972274997426218</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4577,7 +4577,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>-0.0008769428483721338</v>
+        <v>-2.020525011611042E-05</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4585,7 +4585,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>-0.0009259640430753159</v>
+        <v>0.0001479128989622771</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4593,7 +4593,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>-0.0008910145727228789</v>
+        <v>0.0001561296707646643</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4601,7 +4601,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>-0.0006912328065119985</v>
+        <v>0.00015582864720962</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4609,7 +4609,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>-0.0006883701465951205</v>
+        <v>0.0001555353715158279</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4617,7 +4617,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>-0.0006868107083681605</v>
+        <v>0.0001553275055735956</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4625,7 +4625,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>-0.0006854138080730808</v>
+        <v>0.0001550458226341301</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4633,7 +4633,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>0.001050866585186604</v>
+        <v>0.0001696373822203321</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>0.001050859903691777</v>
+        <v>0.0001880617559694325</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>0.001089798404913417</v>
+        <v>0.000188040045863663</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>0.001060174790787188</v>
+        <v>0.000187487623366864</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>0.001055667839090947</v>
+        <v>0.000186966157734322</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>0.001050905027096761</v>
+        <v>0.0001863214938436334</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>0.00104551959598131</v>
+        <v>0.0001856626824402363</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>0.001040294503821734</v>
+        <v>0.0001850473486181141</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>0.001035873409595197</v>
+        <v>3.320954174704446E-05</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>0.000996854561888885</v>
+        <v>-0.0001992208365231317</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>0.0008953020412929621</v>
+        <v>-0.0002114446257626666</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>0.0008331812881135054</v>
+        <v>-0.000211389042763663</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>0.0008355156518859903</v>
+        <v>-0.000211582347760421</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>0.0008379640355496369</v>
+        <v>-0.0002119315753331059</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>0.0008400813622240971</v>
+        <v>-0.0002117444427097085</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>0.000842690336775098</v>
+        <v>-0.0003222626402214524</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4761,7 +4761,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>0.0008507971873705733</v>
+        <v>-0.0004852532218074829</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>0.0008556419244315945</v>
+        <v>-0.0004969541702170904</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>0.0006755549552432615</v>
+        <v>-0.0004969759351892766</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>0.0006842794995452496</v>
+        <v>-0.000497398826644751</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>0.0006945592173416331</v>
+        <v>-0.0004975378986898559</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4801,7 +4801,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>0.0007019169489957811</v>
+        <v>-0.0004975266434566045</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4809,7 +4809,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>0.000710214860059706</v>
+        <v>-0.0004978380054448996</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4817,7 +4817,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>0.0007177588680553641</v>
+        <v>-0.0004182905781311195</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>0.001145190923704638</v>
+        <v>-0.000281620000995673</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>0.0008419828569134788</v>
+        <v>-0.000276508080428878</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>0.0007110257337629079</v>
+        <v>-0.0002765733047931654</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>0.0007075187711864412</v>
+        <v>-0.000276706843983086</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>0.0007083852567285598</v>
+        <v>-0.0002770022677126515</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>0.0007105883718140884</v>
+        <v>-0.0002770982405226643</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>0.0007097157600670602</v>
+        <v>-0.0001928839190594499</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>0.0008352837836276722</v>
+        <v>9.047348252831095E-05</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4889,7 +4889,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>0.001303959423278932</v>
+        <v>0.0002587095397753904</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>0.001415739902907934</v>
+        <v>0.0002590815916416924</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>0.001413051433997301</v>
+        <v>0.0002595279242047783</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4913,7 +4913,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>0.001410773391352438</v>
+        <v>0.0002601048814215825</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>0.00140909057742854</v>
+        <v>0.0002608051080185621</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>0.001410231801472465</v>
+        <v>0.0002611946305365788</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4937,7 +4937,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>0.001408273623987857</v>
+        <v>0.0004903948764978415</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>0.002332529375379351</v>
+        <v>0.0005450716608797698</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4953,7 +4953,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>0.003197403785179168</v>
+        <v>0.0005443379757599857</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4961,7 +4961,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>0.003304824280583942</v>
+        <v>0.0005440682464258451</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4969,7 +4969,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>0.003309415103979982</v>
+        <v>0.0005439002113883239</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4977,7 +4977,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>0.003313942032856596</v>
+        <v>0.0005437305307275188</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4985,7 +4985,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>0.003315066874005985</v>
+        <v>0.0005434530004167601</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4993,7 +4993,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>0.003319126128647751</v>
+        <v>0.0005262528041814974</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5001,7 +5001,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>0.003547760754095855</v>
+        <v>0.0003975171565152468</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5009,7 +5009,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>0.003647297106787807</v>
+        <v>0.0003161616497667898</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>-0.0001189294821803343</v>
+        <v>0.0003173981043935144</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5025,7 +5025,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>-0.0001186118979390223</v>
+        <v>0.0003188276151851169</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>-0.0001179950578363139</v>
+        <v>0.0003203808973119457</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>-0.0001225744136585296</v>
+        <v>0.0003218593774715555</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>-0.0001258255419921865</v>
+        <v>0.0003232345722266706</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>-0.00012244437670064</v>
+        <v>0.0001114499123041924</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>0.0001599353381495891</v>
+        <v>-7.240636103292847E-05</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>0.0003750395489669201</v>
+        <v>-6.961912501455411E-05</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>0.0003804237397002734</v>
+        <v>-6.670388705976005E-05</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>0.0003737003421181465</v>
+        <v>-6.378458041983014E-05</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>0.0003671066203857927</v>
+        <v>-6.073497259107871E-05</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>0.0003598858152200033</v>
+        <v>-5.7673713601406E-05</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>0.0003517895018964754</v>
+        <v>-0.0001714371359500091</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>0.0004295483701861023</v>
+        <v>-0.0003237488175111504</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>0.0005155066777502171</v>
+        <v>-0.0003703063225268424</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>0.0005224106849927154</v>
+        <v>-0.0003707779705449839</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>0.0005066203102907353</v>
+        <v>-0.0003713004687623318</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5153,7 +5153,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>0.0004890236094062825</v>
+        <v>-0.0003718866575059389</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5161,7 +5161,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>0.0004710733654797902</v>
+        <v>-0.000372377808765595</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5169,7 +5169,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>0.000454151961866642</v>
+        <v>-0.0003753306091992151</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5177,7 +5177,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>0.0004374210809082735</v>
+        <v>-0.0004802283906147174</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5185,7 +5185,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>0.00080795422323139</v>
+        <v>-0.000539937132845939</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5193,7 +5193,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>0.001156079090526877</v>
+        <v>-0.0005425049644801478</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5201,7 +5201,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>0.001175917648479033</v>
+        <v>-0.0005450264315506693</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5209,7 +5209,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>0.001172082408687514</v>
+        <v>-0.0005476131630022046</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5217,7 +5217,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>0.001170256741299798</v>
+        <v>-0.0005500797557210575</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5225,7 +5225,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>0.001167035689153</v>
+        <v>-0.0005524702836063604</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5233,7 +5233,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>0.00116268978209854</v>
+        <v>-0.0005613438049900344</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5241,7 +5241,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>0.001404722854217233</v>
+        <v>-0.0005677025386101705</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5249,7 +5249,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>0.001964095761918598</v>
+        <v>-0.0005695455275062307</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5257,7 +5257,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>0.002249931644944837</v>
+        <v>-0.0005717678301595756</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5265,7 +5265,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>0.002264635013446562</v>
+        <v>-0.0005739763705531427</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5273,7 +5273,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>0.002278368690503537</v>
+        <v>-0.0005761255444539717</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5281,7 +5281,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>0.002294636585307648</v>
+        <v>-0.0005783138994978538</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5289,7 +5289,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>0.002309740472888526</v>
+        <v>-0.0005784301526233836</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5297,7 +5297,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>0.0009702654591212898</v>
+        <v>-0.0005211962581957119</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5305,7 +5305,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>0.0005276982107531138</v>
+        <v>-0.0004639956683104091</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5313,7 +5313,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>6.765829456051508E-05</v>
+        <v>-0.0004628444712879358</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5321,7 +5321,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>5.031014189881587E-05</v>
+        <v>-0.0004616510679437601</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5329,7 +5329,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>3.326303576436959E-05</v>
+        <v>-0.0004604236920240481</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5337,7 +5337,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>1.724582070663289E-05</v>
+        <v>-0.0004592616672776226</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5345,7 +5345,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>-4.523599209385264E-09</v>
+        <v>-0.0004580185841682798</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5353,7 +5353,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>-1.819523022558922E-05</v>
+        <v>-0.0004105840327137242</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5361,7 +5361,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>-0.0002124802506591149</v>
+        <v>-0.0003185946859230356</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5369,7 +5369,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>-0.000568762413891288</v>
+        <v>-0.000272385656226291</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5377,7 +5377,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>-0.0007270053683173052</v>
+        <v>-0.0002675714407500161</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5385,7 +5385,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>-0.0007394068315623549</v>
+        <v>-0.0002627479303713823</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5393,7 +5393,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>-0.0007497277443490226</v>
+        <v>-0.000257923077921464</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5401,7 +5401,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>-0.0007622336123764273</v>
+        <v>-0.0002530264568169065</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5409,7 +5409,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>-0.0007747089951483549</v>
+        <v>-0.0002462588968430111</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5417,7 +5417,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>-0.0008026935854516059</v>
+        <v>-0.0002038973917690384</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5425,14 +5425,3046 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>-0.001025364409226528</v>
+        <v>-0.0001557774438813561</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="1">
         <v>630</v>
       </c>
-      <c r="B632" t="s">
+      <c r="B632">
+        <v>-0.0001525981052207734</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="1">
+        <v>631</v>
+      </c>
+      <c r="B633">
+        <v>-0.0001493035075176062</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="1">
+        <v>632</v>
+      </c>
+      <c r="B634">
+        <v>-0.0001460719907596685</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="1">
+        <v>633</v>
+      </c>
+      <c r="B635">
+        <v>-0.0001427805438346243</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="1">
+        <v>634</v>
+      </c>
+      <c r="B636">
+        <v>-0.00013949142392443</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="1">
+        <v>635</v>
+      </c>
+      <c r="B637">
+        <v>-0.000167978782327044</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="1">
+        <v>636</v>
+      </c>
+      <c r="B638">
+        <v>-0.0002334222917166986</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="1">
+        <v>637</v>
+      </c>
+      <c r="B639">
+        <v>-0.0002664650790895644</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="1">
+        <v>638</v>
+      </c>
+      <c r="B640">
+        <v>-0.0002671925199154698</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="1">
+        <v>639</v>
+      </c>
+      <c r="B641">
+        <v>-0.0002680676001671413</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="1">
+        <v>640</v>
+      </c>
+      <c r="B642">
+        <v>-0.0002689688687736187</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="1">
+        <v>641</v>
+      </c>
+      <c r="B643">
+        <v>-0.0002696687675136792</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="1">
+        <v>642</v>
+      </c>
+      <c r="B644">
+        <v>-0.0002775160277186431</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="1">
+        <v>643</v>
+      </c>
+      <c r="B645">
+        <v>-0.000383588023220024</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="1">
+        <v>644</v>
+      </c>
+      <c r="B646">
+        <v>-0.0004860668526249948</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="1">
+        <v>645</v>
+      </c>
+      <c r="B647">
+        <v>-0.0004874209530168862</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="1">
+        <v>646</v>
+      </c>
+      <c r="B648">
+        <v>-0.0004887594876464714</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="1">
+        <v>647</v>
+      </c>
+      <c r="B649">
+        <v>-0.0004899989216111771</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="1">
+        <v>648</v>
+      </c>
+      <c r="B650">
+        <v>-0.000491311709155162</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="1">
+        <v>649</v>
+      </c>
+      <c r="B651">
+        <v>-0.0004925474446765205</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="1">
+        <v>650</v>
+      </c>
+      <c r="B652">
+        <v>-0.0005034618400356717</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="1">
+        <v>651</v>
+      </c>
+      <c r="B653">
+        <v>-0.0005128409464257267</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="1">
+        <v>652</v>
+      </c>
+      <c r="B654">
+        <v>-0.000511271799643107</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="1">
+        <v>653</v>
+      </c>
+      <c r="B655">
+        <v>-0.0005117784303118985</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="1">
+        <v>654</v>
+      </c>
+      <c r="B656">
+        <v>-0.000512496565354392</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="1">
+        <v>655</v>
+      </c>
+      <c r="B657">
+        <v>-0.0005131916724786335</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="1">
+        <v>656</v>
+      </c>
+      <c r="B658">
+        <v>-0.0005138861632320985</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="1">
+        <v>657</v>
+      </c>
+      <c r="B659">
+        <v>-0.0005046651589431487</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="1">
+        <v>658</v>
+      </c>
+      <c r="B660">
+        <v>-0.0003531836379569922</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="1">
+        <v>659</v>
+      </c>
+      <c r="B661">
+        <v>-0.0001628712397228069</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="1">
+        <v>660</v>
+      </c>
+      <c r="B662">
+        <v>-0.000162028566885843</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="1">
+        <v>661</v>
+      </c>
+      <c r="B663">
+        <v>-0.0001612666663382003</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="1">
+        <v>662</v>
+      </c>
+      <c r="B664">
+        <v>-0.0001602894472040905</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="1">
+        <v>663</v>
+      </c>
+      <c r="B665">
+        <v>-0.0001594825248586916</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="1">
+        <v>664</v>
+      </c>
+      <c r="B666">
+        <v>-0.0001584423517826968</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="1">
+        <v>665</v>
+      </c>
+      <c r="B667">
+        <v>-9.13939985006016E-05</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="1">
+        <v>666</v>
+      </c>
+      <c r="B668">
+        <v>3.405548786071152E-05</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="1">
+        <v>667</v>
+      </c>
+      <c r="B669">
+        <v>8.775453742599849E-05</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="1">
+        <v>668</v>
+      </c>
+      <c r="B670">
+        <v>8.864648612641506E-05</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="1">
+        <v>669</v>
+      </c>
+      <c r="B671">
+        <v>8.95755460223478E-05</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="1">
+        <v>670</v>
+      </c>
+      <c r="B672">
+        <v>9.062113147880556E-05</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="1">
+        <v>671</v>
+      </c>
+      <c r="B673">
+        <v>9.157454107078605E-05</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="1">
+        <v>672</v>
+      </c>
+      <c r="B674">
+        <v>8.71702439969605E-05</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="1">
+        <v>673</v>
+      </c>
+      <c r="B675">
+        <v>2.020382607136577E-05</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="1">
+        <v>674</v>
+      </c>
+      <c r="B676">
+        <v>-6.562714787110784E-05</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="1">
+        <v>675</v>
+      </c>
+      <c r="B677">
+        <v>-6.452949594683081E-05</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="1">
+        <v>676</v>
+      </c>
+      <c r="B678">
+        <v>-6.352316972641964E-05</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="1">
+        <v>677</v>
+      </c>
+      <c r="B679">
+        <v>-6.228594946681442E-05</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="1">
+        <v>678</v>
+      </c>
+      <c r="B680">
+        <v>-6.111990870050352E-05</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="1">
+        <v>679</v>
+      </c>
+      <c r="B681">
+        <v>-5.973570217379655E-05</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="1">
+        <v>680</v>
+      </c>
+      <c r="B682">
+        <v>-0.0001768957830753717</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="1">
+        <v>681</v>
+      </c>
+      <c r="B683">
+        <v>-0.0003544439609352145</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="1">
+        <v>682</v>
+      </c>
+      <c r="B684">
+        <v>-0.000401501462657957</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="1">
+        <v>683</v>
+      </c>
+      <c r="B685">
+        <v>-0.0004017486141918462</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="1">
+        <v>684</v>
+      </c>
+      <c r="B686">
+        <v>-0.0004019348013355457</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="1">
+        <v>685</v>
+      </c>
+      <c r="B687">
+        <v>-0.0004024069347322618</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="1">
+        <v>686</v>
+      </c>
+      <c r="B688">
+        <v>-0.0004026637633791433</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="1">
+        <v>687</v>
+      </c>
+      <c r="B689">
+        <v>-0.0004051230087164347</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="1">
+        <v>688</v>
+      </c>
+      <c r="B690">
+        <v>-0.0004086171723482822</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="1">
+        <v>689</v>
+      </c>
+      <c r="B691">
+        <v>-0.0003820130304698857</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="1">
+        <v>690</v>
+      </c>
+      <c r="B692">
+        <v>-0.0003820832689668422</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="1">
+        <v>691</v>
+      </c>
+      <c r="B693">
+        <v>-0.0003818037585861509</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="1">
+        <v>692</v>
+      </c>
+      <c r="B694">
+        <v>-0.0003818868801631503</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="1">
+        <v>693</v>
+      </c>
+      <c r="B695">
+        <v>-0.0003821836191789317</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="1">
+        <v>694</v>
+      </c>
+      <c r="B696">
+        <v>-0.0003822629091381015</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="1">
+        <v>695</v>
+      </c>
+      <c r="B697">
+        <v>-0.0002640665924151584</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="1">
+        <v>696</v>
+      </c>
+      <c r="B698">
+        <v>9.017247391100314E-05</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="1">
+        <v>697</v>
+      </c>
+      <c r="B699">
+        <v>0.0002436462433251156</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="1">
+        <v>698</v>
+      </c>
+      <c r="B700">
+        <v>0.0002436336984378731</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="1">
+        <v>699</v>
+      </c>
+      <c r="B701">
+        <v>0.0002438523404960338</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="1">
+        <v>700</v>
+      </c>
+      <c r="B702">
+        <v>0.0002444888194998082</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="1">
+        <v>701</v>
+      </c>
+      <c r="B703">
+        <v>0.000244714460069335</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="1">
+        <v>702</v>
+      </c>
+      <c r="B704">
+        <v>0.0002963810465188381</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="1">
+        <v>703</v>
+      </c>
+      <c r="B705">
+        <v>0.0005868810214964676</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="1">
+        <v>704</v>
+      </c>
+      <c r="B706">
+        <v>0.0006346933899591689</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="1">
+        <v>705</v>
+      </c>
+      <c r="B707">
+        <v>0.0006342688623706602</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="1">
+        <v>706</v>
+      </c>
+      <c r="B708">
+        <v>0.0006339045480130812</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="1">
+        <v>707</v>
+      </c>
+      <c r="B709">
+        <v>0.0006338215711513546</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="1">
+        <v>708</v>
+      </c>
+      <c r="B710">
+        <v>0.0006334791065404216</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="1">
+        <v>709</v>
+      </c>
+      <c r="B711">
+        <v>0.0006330579026368072</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="1">
+        <v>710</v>
+      </c>
+      <c r="B712">
+        <v>0.0005772258813703842</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="1">
+        <v>711</v>
+      </c>
+      <c r="B713">
+        <v>0.0004322515116508615</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="1">
+        <v>712</v>
+      </c>
+      <c r="B714">
+        <v>0.000374536991434433</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="1">
+        <v>713</v>
+      </c>
+      <c r="B715">
+        <v>0.0003745266662219176</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="1">
+        <v>714</v>
+      </c>
+      <c r="B716">
+        <v>0.0003742111094966671</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="1">
+        <v>715</v>
+      </c>
+      <c r="B717">
+        <v>0.0003739085992559521</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="1">
+        <v>716</v>
+      </c>
+      <c r="B718">
+        <v>0.0003736067392036354</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="1">
+        <v>717</v>
+      </c>
+      <c r="B719">
+        <v>0.0003452955748818612</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="1">
+        <v>718</v>
+      </c>
+      <c r="B720">
+        <v>7.991694194883421E-05</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="1">
+        <v>719</v>
+      </c>
+      <c r="B721">
+        <v>-0.0002257577936018082</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="1">
+        <v>720</v>
+      </c>
+      <c r="B722">
+        <v>-0.0002260775048440157</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="1">
+        <v>721</v>
+      </c>
+      <c r="B723">
+        <v>-0.0002258398973599927</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="1">
+        <v>722</v>
+      </c>
+      <c r="B724">
+        <v>-0.0002263726911138611</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="1">
+        <v>723</v>
+      </c>
+      <c r="B725">
+        <v>-0.0002265966590918024</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="1">
+        <v>724</v>
+      </c>
+      <c r="B726">
+        <v>-0.0002264922279301201</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="1">
+        <v>725</v>
+      </c>
+      <c r="B727">
+        <v>-0.0003793348879473537</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="1">
+        <v>726</v>
+      </c>
+      <c r="B728">
+        <v>-0.0004744941100038924</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="1">
+        <v>727</v>
+      </c>
+      <c r="B729">
+        <v>-0.0004694783027315426</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="1">
+        <v>728</v>
+      </c>
+      <c r="B730">
+        <v>-0.0004697172226092968</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="1">
+        <v>729</v>
+      </c>
+      <c r="B731">
+        <v>-0.0004696257677274784</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="1">
+        <v>730</v>
+      </c>
+      <c r="B732">
+        <v>-0.0004695164896107446</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="1">
+        <v>731</v>
+      </c>
+      <c r="B733">
+        <v>-0.0004696501196847657</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="1">
+        <v>732</v>
+      </c>
+      <c r="B734">
+        <v>-0.0004491634854016333</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="1">
+        <v>733</v>
+      </c>
+      <c r="B735">
+        <v>-0.0002788424257287015</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="1">
+        <v>734</v>
+      </c>
+      <c r="B736">
+        <v>-0.0001381567037736663</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="1">
+        <v>735</v>
+      </c>
+      <c r="B737">
+        <v>-0.000137824001370184</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="1">
+        <v>736</v>
+      </c>
+      <c r="B738">
+        <v>-0.0001372238784830285</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="1">
+        <v>737</v>
+      </c>
+      <c r="B739">
+        <v>-0.0001368460486117999</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="1">
+        <v>738</v>
+      </c>
+      <c r="B740">
+        <v>-0.000136658477894614</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="1">
+        <v>739</v>
+      </c>
+      <c r="B741">
+        <v>-0.0001357844922753186</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="1">
+        <v>740</v>
+      </c>
+      <c r="B742">
+        <v>-6.105206883505117E-06</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="1">
+        <v>741</v>
+      </c>
+      <c r="B743">
+        <v>0.0001672029174828407</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="1">
+        <v>742</v>
+      </c>
+      <c r="B744">
+        <v>0.0002096707862680114</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="1">
+        <v>743</v>
+      </c>
+      <c r="B745">
+        <v>0.0002104922702968284</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="1">
+        <v>744</v>
+      </c>
+      <c r="B746">
+        <v>0.000211318393439676</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="1">
+        <v>745</v>
+      </c>
+      <c r="B747">
+        <v>0.0002119026330311344</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="1">
+        <v>746</v>
+      </c>
+      <c r="B748">
+        <v>0.0002125587714363066</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="1">
+        <v>747</v>
+      </c>
+      <c r="B749">
+        <v>0.0002379024451613809</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="1">
+        <v>748</v>
+      </c>
+      <c r="B750">
+        <v>0.0003643880729020775</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="1">
+        <v>749</v>
+      </c>
+      <c r="B751">
+        <v>0.0004432533178869164</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="1">
+        <v>750</v>
+      </c>
+      <c r="B752">
+        <v>0.0004428729355529715</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="1">
+        <v>751</v>
+      </c>
+      <c r="B753">
+        <v>0.0004426015901759054</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="1">
+        <v>752</v>
+      </c>
+      <c r="B754">
+        <v>0.0004422025527353117</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="1">
+        <v>753</v>
+      </c>
+      <c r="B755">
+        <v>0.0004416294845386453</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="1">
+        <v>754</v>
+      </c>
+      <c r="B756">
+        <v>0.0004414194571056933</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="1">
+        <v>755</v>
+      </c>
+      <c r="B757">
+        <v>0.0005303910853423868</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="1">
+        <v>756</v>
+      </c>
+      <c r="B758">
+        <v>0.0005977218505176215</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="1">
+        <v>757</v>
+      </c>
+      <c r="B759">
+        <v>0.0005853131229606795</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="1">
+        <v>758</v>
+      </c>
+      <c r="B760">
+        <v>0.0005851547198137305</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="1">
+        <v>759</v>
+      </c>
+      <c r="B761">
+        <v>0.0005849919744876269</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="1">
+        <v>760</v>
+      </c>
+      <c r="B762">
+        <v>0.0005846174812417449</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="1">
+        <v>761</v>
+      </c>
+      <c r="B763">
+        <v>0.0005842506661146302</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="1">
+        <v>762</v>
+      </c>
+      <c r="B764">
+        <v>0.0005903808596131802</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="1">
+        <v>763</v>
+      </c>
+      <c r="B765">
+        <v>0.0005392640515788832</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="1">
+        <v>764</v>
+      </c>
+      <c r="B766">
+        <v>0.0004155919611627024</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="1">
+        <v>765</v>
+      </c>
+      <c r="B767">
+        <v>0.0004153225258399604</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="1">
+        <v>766</v>
+      </c>
+      <c r="B768">
+        <v>0.0004152293046015187</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="1">
+        <v>767</v>
+      </c>
+      <c r="B769">
+        <v>0.0004153837134584709</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="1">
+        <v>768</v>
+      </c>
+      <c r="B770">
+        <v>0.0004149293019091254</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="1">
+        <v>769</v>
+      </c>
+      <c r="B771">
+        <v>0.0004147211436313062</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="1">
+        <v>770</v>
+      </c>
+      <c r="B772">
+        <v>0.0003745733768669791</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="1">
+        <v>771</v>
+      </c>
+      <c r="B773">
+        <v>0.0002397517544396372</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="1">
+        <v>772</v>
+      </c>
+      <c r="B774">
+        <v>0.0001903407014594608</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="1">
+        <v>773</v>
+      </c>
+      <c r="B775">
+        <v>0.000190376178872725</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="1">
+        <v>774</v>
+      </c>
+      <c r="B776">
+        <v>0.0001900354225793585</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="1">
+        <v>775</v>
+      </c>
+      <c r="B777">
+        <v>0.0001898657558487867</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="1">
+        <v>776</v>
+      </c>
+      <c r="B778">
+        <v>0.0001895704355271349</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="1">
+        <v>777</v>
+      </c>
+      <c r="B779">
+        <v>0.0001659173494532709</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="1">
+        <v>778</v>
+      </c>
+      <c r="B780">
+        <v>6.625638361319069E-06</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="1">
+        <v>779</v>
+      </c>
+      <c r="B781">
+        <v>-0.0001039450841243164</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="1">
+        <v>780</v>
+      </c>
+      <c r="B782">
+        <v>-0.0001037426242036428</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="1">
+        <v>781</v>
+      </c>
+      <c r="B783">
+        <v>-0.0001044826045722032</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="1">
+        <v>782</v>
+      </c>
+      <c r="B784">
+        <v>-0.0001045921472100027</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="1">
+        <v>783</v>
+      </c>
+      <c r="B785">
+        <v>-0.0001042563614172951</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="1">
+        <v>784</v>
+      </c>
+      <c r="B786">
+        <v>-0.0001042088965564399</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="1">
+        <v>785</v>
+      </c>
+      <c r="B787">
+        <v>-0.0001303007395852566</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="1">
+        <v>786</v>
+      </c>
+      <c r="B788">
+        <v>-0.000140249203195917</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="1">
+        <v>787</v>
+      </c>
+      <c r="B789">
+        <v>-0.0001395680049236302</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="1">
+        <v>788</v>
+      </c>
+      <c r="B790">
+        <v>-0.0001397503779451548</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="1">
+        <v>789</v>
+      </c>
+      <c r="B791">
+        <v>-0.0001394769040942114</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="1">
+        <v>790</v>
+      </c>
+      <c r="B792">
+        <v>-0.0001392844618988718</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="1">
+        <v>791</v>
+      </c>
+      <c r="B793">
+        <v>-0.0001394135164452675</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="1">
+        <v>792</v>
+      </c>
+      <c r="B794">
+        <v>-0.0001287320256835129</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="1">
+        <v>793</v>
+      </c>
+      <c r="B795">
+        <v>-6.868320671934414E-05</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="1">
+        <v>794</v>
+      </c>
+      <c r="B796">
+        <v>-1.796629813791261E-05</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="1">
+        <v>795</v>
+      </c>
+      <c r="B797">
+        <v>-1.811564913314516E-05</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="1">
+        <v>796</v>
+      </c>
+      <c r="B798">
+        <v>-1.771419533686472E-05</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="1">
+        <v>797</v>
+      </c>
+      <c r="B799">
+        <v>-1.740550518924845E-05</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="1">
+        <v>798</v>
+      </c>
+      <c r="B800">
+        <v>-1.693790999941667E-05</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="1">
+        <v>799</v>
+      </c>
+      <c r="B801">
+        <v>-1.669827859934732E-05</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="1">
+        <v>800</v>
+      </c>
+      <c r="B802">
+        <v>2.198712064721469E-05</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="1">
+        <v>801</v>
+      </c>
+      <c r="B803">
+        <v>7.106555815586643E-05</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="1">
+        <v>802</v>
+      </c>
+      <c r="B804">
+        <v>8.027458007151645E-05</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="1">
+        <v>803</v>
+      </c>
+      <c r="B805">
+        <v>8.078860497718117E-05</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="1">
+        <v>804</v>
+      </c>
+      <c r="B806">
+        <v>8.155301479568689E-05</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="1">
+        <v>805</v>
+      </c>
+      <c r="B807">
+        <v>8.150537142939892E-05</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="1">
+        <v>806</v>
+      </c>
+      <c r="B808">
+        <v>8.150925814519902E-05</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="1">
+        <v>807</v>
+      </c>
+      <c r="B809">
+        <v>8.30107788423792E-05</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="1">
+        <v>808</v>
+      </c>
+      <c r="B810">
+        <v>7.954533510497999E-05</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="1">
+        <v>809</v>
+      </c>
+      <c r="B811">
+        <v>6.88822895186984E-05</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="1">
+        <v>810</v>
+      </c>
+      <c r="B812">
+        <v>6.890703317591165E-05</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="1">
+        <v>811</v>
+      </c>
+      <c r="B813">
+        <v>6.854370835222212E-05</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="1">
+        <v>812</v>
+      </c>
+      <c r="B814">
+        <v>6.862719763693035E-05</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="1">
+        <v>813</v>
+      </c>
+      <c r="B815">
+        <v>6.863783685015589E-05</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="1">
+        <v>814</v>
+      </c>
+      <c r="B816">
+        <v>6.85736658295598E-05</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="1">
+        <v>815</v>
+      </c>
+      <c r="B817">
+        <v>9.166243951783543E-05</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="1">
+        <v>816</v>
+      </c>
+      <c r="B818">
+        <v>0.0001020648297608483</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="1">
+        <v>817</v>
+      </c>
+      <c r="B819">
+        <v>0.0001008142579797252</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="1">
+        <v>818</v>
+      </c>
+      <c r="B820">
+        <v>0.0001005508780876857</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="1">
+        <v>819</v>
+      </c>
+      <c r="B821">
+        <v>0.00010053852214363</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="1">
+        <v>820</v>
+      </c>
+      <c r="B822">
+        <v>0.0001000047233633384</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="1">
+        <v>821</v>
+      </c>
+      <c r="B823">
+        <v>9.90514878490917E-05</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="1">
+        <v>822</v>
+      </c>
+      <c r="B824">
+        <v>0.0001315891950491978</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="1">
+        <v>823</v>
+      </c>
+      <c r="B825">
+        <v>0.000231412304583809</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="1">
+        <v>824</v>
+      </c>
+      <c r="B826">
+        <v>0.0002805064273713087</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="1">
+        <v>825</v>
+      </c>
+      <c r="B827">
+        <v>0.0002798195716758247</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="1">
+        <v>826</v>
+      </c>
+      <c r="B828">
+        <v>0.0002792409904881487</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="1">
+        <v>827</v>
+      </c>
+      <c r="B829">
+        <v>0.0002790221854642705</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="1">
+        <v>828</v>
+      </c>
+      <c r="B830">
+        <v>0.0002784177183410747</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="1">
+        <v>829</v>
+      </c>
+      <c r="B831">
+        <v>0.0002775106190203553</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="1">
+        <v>830</v>
+      </c>
+      <c r="B832">
+        <v>0.0003753327264632517</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="1">
+        <v>831</v>
+      </c>
+      <c r="B833">
+        <v>0.0004761093495044396</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="1">
+        <v>832</v>
+      </c>
+      <c r="B834">
+        <v>0.0004897653864556592</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="1">
+        <v>833</v>
+      </c>
+      <c r="B835">
+        <v>0.0004897665786542847</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="1">
+        <v>834</v>
+      </c>
+      <c r="B836">
+        <v>0.0004900106633201305</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="1">
+        <v>835</v>
+      </c>
+      <c r="B837">
+        <v>0.0004900890460985267</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="1">
+        <v>836</v>
+      </c>
+      <c r="B838">
+        <v>0.0004899533704518669</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="1">
+        <v>837</v>
+      </c>
+      <c r="B839">
+        <v>0.000487397164150525</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="1">
+        <v>838</v>
+      </c>
+      <c r="B840">
+        <v>0.0004293819271049041</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="1">
+        <v>839</v>
+      </c>
+      <c r="B841">
+        <v>0.0003615484239551105</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="1">
+        <v>840</v>
+      </c>
+      <c r="B842">
+        <v>0.0003635336122947619</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="1">
+        <v>841</v>
+      </c>
+      <c r="B843">
+        <v>0.0003657925206806783</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="1">
+        <v>842</v>
+      </c>
+      <c r="B844">
+        <v>0.000367953317729077</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="1">
+        <v>843</v>
+      </c>
+      <c r="B845">
+        <v>0.000369956671152343</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="1">
+        <v>844</v>
+      </c>
+      <c r="B846">
+        <v>0.0003721606473159076</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="1">
+        <v>845</v>
+      </c>
+      <c r="B847">
+        <v>0.0002936820603628478</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="1">
+        <v>846</v>
+      </c>
+      <c r="B848">
+        <v>0.0001797075533559184</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="1">
+        <v>847</v>
+      </c>
+      <c r="B849">
+        <v>0.0001596506295960472</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="1">
+        <v>848</v>
+      </c>
+      <c r="B850">
+        <v>0.0001615206968471902</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="1">
+        <v>849</v>
+      </c>
+      <c r="B851">
+        <v>0.0001634087145227268</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="1">
+        <v>850</v>
+      </c>
+      <c r="B852">
+        <v>0.0001654066765702198</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="1">
+        <v>851</v>
+      </c>
+      <c r="B853">
+        <v>0.0001674391626952</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="1">
+        <v>852</v>
+      </c>
+      <c r="B854">
+        <v>0.0001665028947494872</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="1">
+        <v>853</v>
+      </c>
+      <c r="B855">
+        <v>0.0001444295859487375</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="1">
+        <v>854</v>
+      </c>
+      <c r="B856">
+        <v>0.0001159829555667653</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="1">
+        <v>855</v>
+      </c>
+      <c r="B857">
+        <v>0.0001163963118376718</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="1">
+        <v>856</v>
+      </c>
+      <c r="B858">
+        <v>0.0001169482346007903</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="1">
+        <v>857</v>
+      </c>
+      <c r="B859">
+        <v>0.0001177977139698214</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="1">
+        <v>858</v>
+      </c>
+      <c r="B860">
+        <v>0.0001186751907394532</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="1">
+        <v>859</v>
+      </c>
+      <c r="B861">
+        <v>0.0001191970336921363</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="1">
+        <v>860</v>
+      </c>
+      <c r="B862">
+        <v>0.0001730931212029215</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="1">
+        <v>861</v>
+      </c>
+      <c r="B863">
+        <v>0.00021902194857846</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="1">
+        <v>862</v>
+      </c>
+      <c r="B864">
+        <v>0.0002229197554490542</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="1">
+        <v>863</v>
+      </c>
+      <c r="B865">
+        <v>0.0002218697967690388</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="1">
+        <v>864</v>
+      </c>
+      <c r="B866">
+        <v>0.000220903857432958</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="1">
+        <v>865</v>
+      </c>
+      <c r="B867">
+        <v>0.0002198310422251583</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="1">
+        <v>866</v>
+      </c>
+      <c r="B868">
+        <v>0.0002186185910532804</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="1">
+        <v>867</v>
+      </c>
+      <c r="B869">
+        <v>0.0002329933053771422</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="1">
+        <v>868</v>
+      </c>
+      <c r="B870">
+        <v>0.0002708374764517434</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="1">
+        <v>869</v>
+      </c>
+      <c r="B871">
+        <v>0.0002822034987671284</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="1">
+        <v>870</v>
+      </c>
+      <c r="B872">
+        <v>0.0002811595766906141</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="1">
+        <v>871</v>
+      </c>
+      <c r="B873">
+        <v>0.0002798116595196096</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="1">
+        <v>872</v>
+      </c>
+      <c r="B874">
+        <v>0.0002785272161339768</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="1">
+        <v>873</v>
+      </c>
+      <c r="B875">
+        <v>0.0002775592727168611</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="1">
+        <v>874</v>
+      </c>
+      <c r="B876">
+        <v>0.0002764312886214482</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="1">
+        <v>875</v>
+      </c>
+      <c r="B877">
+        <v>0.0002207174026036308</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="1">
+        <v>876</v>
+      </c>
+      <c r="B878">
+        <v>0.0001254032665138422</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="1">
+        <v>877</v>
+      </c>
+      <c r="B879">
+        <v>0.000113220309224422</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="1">
+        <v>878</v>
+      </c>
+      <c r="B880">
+        <v>0.0001152590047786763</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="1">
+        <v>879</v>
+      </c>
+      <c r="B881">
+        <v>0.00011733620726102</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="1">
+        <v>880</v>
+      </c>
+      <c r="B882">
+        <v>0.0001192815000001491</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="1">
+        <v>881</v>
+      </c>
+      <c r="B883">
+        <v>0.0001210721724193327</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="1">
+        <v>882</v>
+      </c>
+      <c r="B884">
+        <v>0.0001092626363137268</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="1">
+        <v>883</v>
+      </c>
+      <c r="B885">
+        <v>6.83412440598434E-05</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="1">
+        <v>884</v>
+      </c>
+      <c r="B886">
+        <v>4.195213293469923E-05</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="1">
+        <v>885</v>
+      </c>
+      <c r="B887">
+        <v>4.399417908808797E-05</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" s="1">
+        <v>886</v>
+      </c>
+      <c r="B888">
+        <v>4.574753518088763E-05</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" s="1">
+        <v>887</v>
+      </c>
+      <c r="B889">
+        <v>4.767732269915602E-05</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="A890" s="1">
+        <v>888</v>
+      </c>
+      <c r="B890">
+        <v>4.979640220864907E-05</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" s="1">
+        <v>889</v>
+      </c>
+      <c r="B891">
+        <v>5.164564129000137E-05</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" s="1">
+        <v>890</v>
+      </c>
+      <c r="B892">
+        <v>0.0001203740709728717</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" s="1">
+        <v>891</v>
+      </c>
+      <c r="B893">
+        <v>0.0002235889451340289</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2">
+      <c r="A894" s="1">
+        <v>892</v>
+      </c>
+      <c r="B894">
+        <v>0.0002382723363999906</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="A895" s="1">
+        <v>893</v>
+      </c>
+      <c r="B895">
+        <v>0.0002397318246474986</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" s="1">
+        <v>894</v>
+      </c>
+      <c r="B896">
+        <v>0.0002409517269668313</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="A897" s="1">
+        <v>895</v>
+      </c>
+      <c r="B897">
+        <v>0.0002425868924940885</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="A898" s="1">
+        <v>896</v>
+      </c>
+      <c r="B898">
+        <v>0.0002440315280964168</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" s="1">
+        <v>897</v>
+      </c>
+      <c r="B899">
+        <v>0.0003121999727582022</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" s="1">
+        <v>898</v>
+      </c>
+      <c r="B900">
+        <v>0.0004493434869943112</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" s="1">
+        <v>899</v>
+      </c>
+      <c r="B901">
+        <v>0.0004626247197392602</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" s="1">
+        <v>900</v>
+      </c>
+      <c r="B902">
+        <v>0.0004623131246039592</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" s="1">
+        <v>901</v>
+      </c>
+      <c r="B903">
+        <v>0.0004617202533572734</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" s="1">
+        <v>902</v>
+      </c>
+      <c r="B904">
+        <v>0.0004611407136969397</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" s="1">
+        <v>903</v>
+      </c>
+      <c r="B905">
+        <v>0.0004608501496345553</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" s="1">
+        <v>904</v>
+      </c>
+      <c r="B906">
+        <v>0.0004601369985065812</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" s="1">
+        <v>905</v>
+      </c>
+      <c r="B907">
+        <v>0.0004399521681649963</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" s="1">
+        <v>906</v>
+      </c>
+      <c r="B908">
+        <v>0.0003690769693116525</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" s="1">
+        <v>907</v>
+      </c>
+      <c r="B909">
+        <v>0.0003592047100095612</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" s="1">
+        <v>908</v>
+      </c>
+      <c r="B910">
+        <v>0.0003586342552693049</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" s="1">
+        <v>909</v>
+      </c>
+      <c r="B911">
+        <v>0.0003580965697958685</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" s="1">
+        <v>910</v>
+      </c>
+      <c r="B912">
+        <v>0.0003576597034292452</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" s="1">
+        <v>911</v>
+      </c>
+      <c r="B913">
+        <v>0.0003570664614049446</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" s="1">
+        <v>912</v>
+      </c>
+      <c r="B914">
+        <v>0.0003304559361829089</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" s="1">
+        <v>913</v>
+      </c>
+      <c r="B915">
+        <v>0.0001962763545845464</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="A916" s="1">
+        <v>914</v>
+      </c>
+      <c r="B916">
+        <v>0.0001029033352990184</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" s="1">
+        <v>915</v>
+      </c>
+      <c r="B917">
+        <v>0.0001035534617097473</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" s="1">
+        <v>916</v>
+      </c>
+      <c r="B918">
+        <v>0.0001039924943093997</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" s="1">
+        <v>917</v>
+      </c>
+      <c r="B919">
+        <v>0.0001045551490449189</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" s="1">
+        <v>918</v>
+      </c>
+      <c r="B920">
+        <v>0.000105042050978927</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" s="1">
+        <v>919</v>
+      </c>
+      <c r="B921">
+        <v>0.000105572895891616</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" s="1">
+        <v>920</v>
+      </c>
+      <c r="B922">
+        <v>6.371448516096002E-05</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" s="1">
+        <v>921</v>
+      </c>
+      <c r="B923">
+        <v>1.101222013087014E-05</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="A924" s="1">
+        <v>922</v>
+      </c>
+      <c r="B924">
+        <v>6.297740267981767E-06</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925" s="1">
+        <v>923</v>
+      </c>
+      <c r="B925">
+        <v>6.367661902215833E-06</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" s="1">
+        <v>924</v>
+      </c>
+      <c r="B926">
+        <v>6.361404839329894E-06</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="A927" s="1">
+        <v>925</v>
+      </c>
+      <c r="B927">
+        <v>6.133933493681779E-06</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="A928" s="1">
+        <v>926</v>
+      </c>
+      <c r="B928">
+        <v>6.198480970430646E-06</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="A929" s="1">
+        <v>927</v>
+      </c>
+      <c r="B929">
+        <v>1.532550357396048E-05</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="A930" s="1">
+        <v>928</v>
+      </c>
+      <c r="B930">
+        <v>4.109910838928065E-05</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" s="1">
+        <v>929</v>
+      </c>
+      <c r="B931">
+        <v>5.21116898152522E-05</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" s="1">
+        <v>930</v>
+      </c>
+      <c r="B932">
+        <v>5.139765198806886E-05</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" s="1">
+        <v>931</v>
+      </c>
+      <c r="B933">
+        <v>5.089769991463085E-05</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="1">
+        <v>932</v>
+      </c>
+      <c r="B934">
+        <v>5.018170148272632E-05</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="1">
+        <v>933</v>
+      </c>
+      <c r="B935">
+        <v>4.971448784424369E-05</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" s="1">
+        <v>934</v>
+      </c>
+      <c r="B936">
+        <v>4.944573308357834E-05</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="A937" s="1">
+        <v>935</v>
+      </c>
+      <c r="B937">
+        <v>4.992086795942729E-05</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" s="1">
+        <v>936</v>
+      </c>
+      <c r="B938">
+        <v>3.713267546867552E-05</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" s="1">
+        <v>937</v>
+      </c>
+      <c r="B939">
+        <v>3.630105961764262E-05</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="1">
+        <v>938</v>
+      </c>
+      <c r="B940">
+        <v>-0.0001590581034652522</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="1">
+        <v>939</v>
+      </c>
+      <c r="B941">
+        <v>-0.0001579263109761401</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="1">
+        <v>940</v>
+      </c>
+      <c r="B942">
+        <v>-0.0001568137088328881</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" s="1">
+        <v>941</v>
+      </c>
+      <c r="B943">
+        <v>-0.0001554231679249991</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" s="1">
+        <v>942</v>
+      </c>
+      <c r="B944">
+        <v>-0.0001947366797358137</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="1">
+        <v>943</v>
+      </c>
+      <c r="B945">
+        <v>-0.0002704076615692836</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" s="1">
+        <v>944</v>
+      </c>
+      <c r="B946">
+        <v>-0.0002952295217184438</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="1">
+        <v>945</v>
+      </c>
+      <c r="B947">
+        <v>-0.0002948578177491457</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="1">
+        <v>946</v>
+      </c>
+      <c r="B948">
+        <v>-0.0002946312025732963</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="1">
+        <v>947</v>
+      </c>
+      <c r="B949">
+        <v>-0.0002947142751247959</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" s="1">
+        <v>948</v>
+      </c>
+      <c r="B950">
+        <v>-0.0002944364754994822</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="1">
+        <v>949</v>
+      </c>
+      <c r="B951">
+        <v>-0.0002940056439457765</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="1">
+        <v>950</v>
+      </c>
+      <c r="B952">
+        <v>-0.0004073601937479518</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" s="1">
+        <v>951</v>
+      </c>
+      <c r="B953">
+        <v>-0.0004121796442070103</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="A954" s="1">
+        <v>952</v>
+      </c>
+      <c r="B954">
+        <v>-0.0004126677792314004</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" s="1">
+        <v>953</v>
+      </c>
+      <c r="B955">
+        <v>-0.0004145522233448299</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="A956" s="1">
+        <v>954</v>
+      </c>
+      <c r="B956">
+        <v>-0.0004163312199215612</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="A957" s="1">
+        <v>955</v>
+      </c>
+      <c r="B957">
+        <v>-0.0004181296933395742</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" s="1">
+        <v>956</v>
+      </c>
+      <c r="B958">
+        <v>-0.0004198686407918272</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="A959" s="1">
+        <v>957</v>
+      </c>
+      <c r="B959">
+        <v>-0.000418266062468644</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" s="1">
+        <v>958</v>
+      </c>
+      <c r="B960">
+        <v>-0.0003874077228364382</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" s="1">
+        <v>959</v>
+      </c>
+      <c r="B961">
+        <v>-0.0003681664154038642</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2">
+      <c r="A962" s="1">
+        <v>960</v>
+      </c>
+      <c r="B962">
+        <v>-0.0003705792706425628</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="A963" s="1">
+        <v>961</v>
+      </c>
+      <c r="B963">
+        <v>-0.000372974187121838</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="A964" s="1">
+        <v>962</v>
+      </c>
+      <c r="B964">
+        <v>-0.0003752951733299227</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="A965" s="1">
+        <v>963</v>
+      </c>
+      <c r="B965">
+        <v>-0.0003777492970773597</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="A966" s="1">
+        <v>964</v>
+      </c>
+      <c r="B966">
+        <v>-0.0003800691831402166</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="A967" s="1">
+        <v>965</v>
+      </c>
+      <c r="B967">
+        <v>-0.0003562646930155275</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" s="1">
+        <v>966</v>
+      </c>
+      <c r="B968">
+        <v>-0.0003166670635303475</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="A969" s="1">
+        <v>967</v>
+      </c>
+      <c r="B969">
+        <v>-0.0003161391288193094</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" s="1">
+        <v>968</v>
+      </c>
+      <c r="B970">
+        <v>-0.0003166634363921998</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" s="1">
+        <v>969</v>
+      </c>
+      <c r="B971">
+        <v>-0.0003171529574554779</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="A972" s="1">
+        <v>970</v>
+      </c>
+      <c r="B972">
+        <v>-0.0003175827964419832</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2">
+      <c r="A973" s="1">
+        <v>971</v>
+      </c>
+      <c r="B973">
+        <v>-0.0003180138692816559</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="A974" s="1">
+        <v>972</v>
+      </c>
+      <c r="B974">
+        <v>-0.0002886418799224984</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="A975" s="1">
+        <v>973</v>
+      </c>
+      <c r="B975">
+        <v>-0.0002055169622181563</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="A976" s="1">
+        <v>974</v>
+      </c>
+      <c r="B976">
+        <v>-0.0001533863620894775</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="A977" s="1">
+        <v>975</v>
+      </c>
+      <c r="B977">
+        <v>-0.0001507091827783137</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" s="1">
+        <v>976</v>
+      </c>
+      <c r="B978">
+        <v>-0.0001481682548501812</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" s="1">
+        <v>977</v>
+      </c>
+      <c r="B979">
+        <v>-0.0001454945128366641</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="A980" s="1">
+        <v>978</v>
+      </c>
+      <c r="B980">
+        <v>-0.0001428948556720224</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" s="1">
+        <v>979</v>
+      </c>
+      <c r="B981">
+        <v>-0.0001404337521455172</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="A982" s="1">
+        <v>980</v>
+      </c>
+      <c r="B982">
+        <v>-7.483940106435716E-05</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="A983" s="1">
+        <v>981</v>
+      </c>
+      <c r="B983">
+        <v>-4.712439272165049E-06</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="A984" s="1">
+        <v>982</v>
+      </c>
+      <c r="B984">
+        <v>-1.906260684238016E-06</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="A985" s="1">
+        <v>983</v>
+      </c>
+      <c r="B985">
+        <v>6.731455893274938E-07</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" s="1">
+        <v>984</v>
+      </c>
+      <c r="B986">
+        <v>3.301661273789068E-06</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" s="1">
+        <v>985</v>
+      </c>
+      <c r="B987">
+        <v>5.879837722776435E-06</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="A988" s="1">
+        <v>986</v>
+      </c>
+      <c r="B988">
+        <v>8.460878326280792E-06</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2">
+      <c r="A989" s="1">
+        <v>987</v>
+      </c>
+      <c r="B989">
+        <v>-7.259128065199928E-06</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2">
+      <c r="A990" s="1">
+        <v>988</v>
+      </c>
+      <c r="B990">
+        <v>-4.551561060525143E-05</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2">
+      <c r="A991" s="1">
+        <v>989</v>
+      </c>
+      <c r="B991">
+        <v>-6.433989155048504E-05</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="A992" s="1">
+        <v>990</v>
+      </c>
+      <c r="B992">
+        <v>-6.293530605483246E-05</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="A993" s="1">
+        <v>991</v>
+      </c>
+      <c r="B993">
+        <v>-6.160989672756792E-05</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" s="1">
+        <v>992</v>
+      </c>
+      <c r="B994">
+        <v>-6.013148777393101E-05</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" s="1">
+        <v>993</v>
+      </c>
+      <c r="B995">
+        <v>-5.872963699996904E-05</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" s="1">
+        <v>994</v>
+      </c>
+      <c r="B996">
+        <v>-5.911864598411944E-05</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" s="1">
+        <v>995</v>
+      </c>
+      <c r="B997">
+        <v>-0.0001862932059024855</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="A998" s="1">
+        <v>996</v>
+      </c>
+      <c r="B998">
+        <v>-0.0002889540490734279</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="A999" s="1">
+        <v>997</v>
+      </c>
+      <c r="B999">
+        <v>-0.0002907579464123556</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="A1000" s="1">
+        <v>998</v>
+      </c>
+      <c r="B1000">
+        <v>-0.000292479288161013</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="A1001" s="1">
+        <v>999</v>
+      </c>
+      <c r="B1001">
+        <v>-0.0002943135870315871</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2">
+      <c r="A1002" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B1002">
+        <v>-0.0002960022835675317</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2">
+      <c r="A1003" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B1003">
+        <v>-0.0002977638876274594</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="A1004" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B1004">
+        <v>-0.0003412785351854736</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2">
+      <c r="A1005" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B1005">
+        <v>-0.000413569135706644</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2">
+      <c r="A1006" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B1006">
+        <v>-0.0004424836822329166</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="A1007" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B1007">
+        <v>-0.0004434880799372261</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2">
+      <c r="A1008" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B1008">
+        <v>-0.0004443854526606621</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2">
+      <c r="A1009" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B1009">
+        <v>-0.0004449999850952678</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2">
+      <c r="A1010" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B1010">
+        <v>-0.0004449999850952755</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="s">
         <v>1</v>
       </c>
     </row>

--- a/coefs_model_oil.xlsx
+++ b/coefs_model_oil.xlsx
@@ -19,7 +19,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>[0.31705876]</t>
+    <t>[0.66121315]</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1011"/>
+  <dimension ref="A1:B842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.0004055972560699537</v>
+        <v>-0.002573443433733562</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.000405597256069887</v>
+        <v>-0.002573443433733268</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.0004055878385872446</v>
+        <v>-0.001552814910958723</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.0004054216920370347</v>
+        <v>-0.0002246730711260944</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.0004055603473849116</v>
+        <v>-0.0002229905493928626</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.0004057186385346333</v>
+        <v>-0.0002261082439594036</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.0005449956152789822</v>
+        <v>-0.0002277367001827376</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.000603845753630155</v>
+        <v>-0.0002315204590333579</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.0006058024299695913</v>
+        <v>-0.0002348541973467282</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -465,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.0006060836269647377</v>
+        <v>0.0001606082635887589</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.0006062454455255049</v>
+        <v>0.0009707006494463459</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.0006064500078426896</v>
+        <v>0.001288392202829958</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -489,7 +489,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.0006067588791327895</v>
+        <v>0.001285983191016415</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -497,7 +497,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.0006211308942429827</v>
+        <v>0.001279836287213251</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.0006214915944907976</v>
+        <v>0.001275587475581878</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -513,7 +513,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.0005847891210556131</v>
+        <v>0.001272878979435909</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.000584621485084742</v>
+        <v>0.001256072779648342</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -529,7 +529,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.0005844641386961112</v>
+        <v>0.0006868693372763488</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -537,7 +537,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.0005841592366152448</v>
+        <v>-0.0005502687172616615</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -545,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.0005839884586525219</v>
+        <v>-0.0005526139828937429</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -553,7 +553,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.0005837965222169275</v>
+        <v>-0.0005540525038219077</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -561,7 +561,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.0004523026979862088</v>
+        <v>-0.000557921040567795</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -569,7 +569,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.0002082170521280059</v>
+        <v>-0.0005593040028402251</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -577,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.0001660164660478167</v>
+        <v>-0.0005622935015960371</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -585,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.0001655035304418459</v>
+        <v>-0.00158989335516685</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.0001650013710118087</v>
+        <v>-0.002538852029387344</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -601,7 +601,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.0001645295793486804</v>
+        <v>-0.002554537366110589</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -609,7 +609,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.0001641208786916375</v>
+        <v>-0.002553184797505055</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -617,7 +617,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-9.765327144682865E-05</v>
+        <v>-0.002552992640507418</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8.112954485457333E-05</v>
+        <v>-0.002551482959509049</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -633,7 +633,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0001691364759590643</v>
+        <v>-0.002550687689764651</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -641,7 +641,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0001694256218522272</v>
+        <v>-0.002526403171128163</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -649,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0001697295274422833</v>
+        <v>-0.00194389246344217</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -657,7 +657,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0001699912419475395</v>
+        <v>-0.001082135532423917</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -665,7 +665,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.000170349414576522</v>
+        <v>-0.001080735056356423</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -673,7 +673,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0001707056734767008</v>
+        <v>-0.001079901646453113</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -681,7 +681,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.0001424966179337614</v>
+        <v>-0.001081135467381501</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -689,7 +689,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9.771704197986074E-05</v>
+        <v>-0.001080862726646332</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -697,7 +697,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>8.993141168630727E-05</v>
+        <v>-0.001080333091181997</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -705,7 +705,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>9.010321389599071E-05</v>
+        <v>-0.0003670994015612615</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -713,7 +713,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>9.034466453710509E-05</v>
+        <v>0.0009676420453098475</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -721,7 +721,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>9.040980810457057E-05</v>
+        <v>0.001356354035732958</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -729,7 +729,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>9.042339687476897E-05</v>
+        <v>0.001353297125783853</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -737,7 +737,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.842161247132333E-05</v>
+        <v>0.001350311819609073</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -745,7 +745,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.0001963022693887749</v>
+        <v>0.001345775822706011</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -753,7 +753,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.0003299491254509539</v>
+        <v>0.00134201571981577</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -761,7 +761,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.0003299519646420499</v>
+        <v>0.001351003815948614</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -769,7 +769,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.0003300614564504001</v>
+        <v>0.001347089524744946</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -777,7 +777,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.0003303795274241409</v>
+        <v>0.001154629136102072</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -785,7 +785,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.0003305370577593245</v>
+        <v>0.001146514721349198</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -793,7 +793,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.0003304787907495269</v>
+        <v>0.001140403761709921</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -801,7 +801,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.0003933431155908043</v>
+        <v>0.001136121643559878</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -809,7 +809,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.0004160001895982014</v>
+        <v>0.001128660951214357</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -817,7 +817,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.0004152100945142093</v>
+        <v>0.001122721712844591</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -825,7 +825,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.0004153247222121173</v>
+        <v>0.0005267753035512214</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -833,7 +833,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.0004153363768748707</v>
+        <v>-0.0006808802479593036</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -841,7 +841,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.0004152560426355368</v>
+        <v>-0.001006267516418664</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -849,7 +849,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.0004154320179655756</v>
+        <v>-0.001011542461917262</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -857,7 +857,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.0003727796229462321</v>
+        <v>-0.001016710392863654</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -865,7 +865,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.000194756409488224</v>
+        <v>-0.001020720400233008</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -873,7 +873,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-4.274303955098129E-05</v>
+        <v>-0.001025586774886294</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -881,7 +881,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-4.24977576081542E-05</v>
+        <v>-0.001031139854128605</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -889,7 +889,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-4.254092180838254E-05</v>
+        <v>-0.0008850138106702634</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -897,7 +897,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-4.258461303734849E-05</v>
+        <v>-0.0006445751015118832</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -905,7 +905,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-4.256677210873835E-05</v>
+        <v>-0.0006473812315435685</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -913,7 +913,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-4.263357709634446E-05</v>
+        <v>-0.0006488988768039711</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -921,7 +921,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.0001754766753423797</v>
+        <v>-0.0006518361531550652</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -929,7 +929,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0003204097593493267</v>
+        <v>-0.000654610453866561</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -937,7 +937,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0003305067731003149</v>
+        <v>-0.0006567828656802785</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -945,7 +945,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0003307438166430325</v>
+        <v>0.0001002505268356346</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -953,7 +953,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0003308761192023164</v>
+        <v>0.001103798111676982</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -961,7 +961,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0003310746470658543</v>
+        <v>0.001302063048842259</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -969,7 +969,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0003313547707628603</v>
+        <v>0.001300339224652526</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -977,7 +977,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0003085918424418645</v>
+        <v>0.001299164812566849</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -985,7 +985,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0002470017048208451</v>
+        <v>0.001298615418363589</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -993,7 +993,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0002114734886368012</v>
+        <v>0.001296729505103504</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1001,7 +1001,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0002117596670043904</v>
+        <v>0.001405992984090209</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1009,7 +1009,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0002120253197507269</v>
+        <v>0.001775737650749047</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1017,7 +1017,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0002123998240128629</v>
+        <v>0.001843175799118471</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1025,7 +1025,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.0002127235098809986</v>
+        <v>0.001842352210316771</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1033,7 +1033,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.000213122492316636</v>
+        <v>0.001841619890235546</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8.807522378722851E-05</v>
+        <v>0.001840320740529513</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.0001160950671672531</v>
+        <v>0.001839956819836115</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.0001402856943304392</v>
+        <v>0.001838985900984009</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.0001400364070703734</v>
+        <v>0.00193713627173851</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.000139634189607434</v>
+        <v>0.001661383188211175</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.0001393624454885458</v>
+        <v>0.001514650907935457</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.0001390764366748337</v>
+        <v>0.00151531481923323</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1097,7 +1097,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.0002291591981392519</v>
+        <v>0.001513083445860959</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1105,7 +1105,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.0004504936902629024</v>
+        <v>0.00151131037538515</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1113,7 +1113,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.0005057414972262649</v>
+        <v>0.001511728130480236</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1121,7 +1121,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.0005058868942019174</v>
+        <v>0.001687377089508266</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1129,7 +1129,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.0005059039262193098</v>
+        <v>0.002091321426891458</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1137,7 +1137,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.0005061286766027072</v>
+        <v>0.002020407526239873</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1145,7 +1145,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.000506326085551781</v>
+        <v>0.002021699943819116</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1153,7 +1153,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.0005064933517473191</v>
+        <v>0.002021604522405184</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1161,7 +1161,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.0004646243226592718</v>
+        <v>0.002021123655629662</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1169,7 +1169,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.0003939041807236826</v>
+        <v>0.002024018320603054</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1177,7 +1177,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.0003876661639691551</v>
+        <v>0.00202366080101923</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1185,7 +1185,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.0003877877324719137</v>
+        <v>0.0028801919746914</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1193,7 +1193,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.0003879365352609315</v>
+        <v>0.003443145253514321</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1201,7 +1201,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.0003880453367175404</v>
+        <v>0.003472071801614713</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1209,7 +1209,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.0003881882167635588</v>
+        <v>0.003473195587049669</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1217,7 +1217,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.0003577235230501429</v>
+        <v>0.00347460080661831</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1225,7 +1225,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.0002484382163208443</v>
+        <v>0.003476147181426574</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1233,7 +1233,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.0001645712115656832</v>
+        <v>0.003476935878408552</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1241,7 +1241,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.0001643076739858243</v>
+        <v>0.003611622059582088</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1249,7 +1249,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.0001641949041052559</v>
+        <v>0.003466932317438061</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1257,7 +1257,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.0001641190968805294</v>
+        <v>0.002927206621185971</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1265,7 +1265,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.0001639644654186769</v>
+        <v>0.002927870769710776</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1273,7 +1273,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.0001636496006004453</v>
+        <v>0.002927957651030641</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1281,7 +1281,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>2.968010223491991E-05</v>
+        <v>0.002927635478912775</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1289,7 +1289,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0002353863176660661</v>
+        <v>0.002927397054717804</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1297,7 +1297,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0002461409866605945</v>
+        <v>0.002928249966742432</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1305,7 +1305,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.0002461015985816562</v>
+        <v>0.001937172216525659</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1313,7 +1313,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0002462529959192904</v>
+        <v>0.0005588484388038098</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1321,7 +1321,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0002461274817801254</v>
+        <v>0.000357973460812564</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1329,7 +1329,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0002461434793259005</v>
+        <v>0.0003576665653058962</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1337,7 +1337,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.0003161084790221571</v>
+        <v>0.0003578553988645657</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1345,7 +1345,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.0004453720441214937</v>
+        <v>0.0003580479724283764</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1353,7 +1353,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.000490929196734142</v>
+        <v>0.0003590768973789893</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1361,7 +1361,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.0004904709550828453</v>
+        <v>0.0001476010932539984</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1369,7 +1369,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0004901978163853193</v>
+        <v>-0.0005957099162486215</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1377,7 +1377,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0004899353258736239</v>
+        <v>-0.001102107073503636</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1385,7 +1385,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.0004896126453389993</v>
+        <v>-0.001102546357800657</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1393,7 +1393,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0004891524177922153</v>
+        <v>-0.001101832955287009</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1401,7 +1401,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.0005203473105838758</v>
+        <v>-0.001100754319981143</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1409,7 +1409,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.0004908421233788759</v>
+        <v>-0.001100340301258535</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1417,7 +1417,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.0004867975058192851</v>
+        <v>-0.001099847392521994</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1425,7 +1425,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.0004867136207106645</v>
+        <v>-0.0005621314291606332</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1433,7 +1433,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.0004867809913475967</v>
+        <v>0.0004830627337293869</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1441,7 +1441,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.000486779710824453</v>
+        <v>0.0005849062514428846</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1449,7 +1449,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.0004866069205702887</v>
+        <v>0.0005869249025852823</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1457,7 +1457,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.0004018027676504398</v>
+        <v>0.0005894540286947591</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1465,7 +1465,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.0001113737218462183</v>
+        <v>0.0005936052552668993</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1473,7 +1473,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-3.430776599296444E-05</v>
+        <v>0.000592478086553011</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1481,7 +1481,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-3.42804105793524E-05</v>
+        <v>0.001195445238801773</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1489,7 +1489,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-3.436897677498237E-05</v>
+        <v>0.002405729292525734</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1497,7 +1497,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-3.461748088653927E-05</v>
+        <v>0.002680189284581281</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1505,7 +1505,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-3.475998504159053E-05</v>
+        <v>0.00268124644880203</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1513,7 +1513,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-3.474661185824966E-05</v>
+        <v>0.002683567269926372</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1521,7 +1521,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.0001599333238196883</v>
+        <v>0.002684616075104572</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1529,7 +1529,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.000248604038940034</v>
+        <v>0.002683429055051017</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1537,7 +1537,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.000250686925849853</v>
+        <v>0.002683839093903913</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1545,7 +1545,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.0002507708727388426</v>
+        <v>0.002893981695701775</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1553,7 +1553,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.0002507991723071794</v>
+        <v>0.002248868764785284</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1561,7 +1561,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.0002507428164901384</v>
+        <v>0.002183633363604288</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1569,7 +1569,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.0002507503166968589</v>
+        <v>0.002183809862925078</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1577,7 +1577,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.0002146636537895759</v>
+        <v>0.002182111620008073</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1585,7 +1585,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.0001099433742013629</v>
+        <v>0.002183610136764534</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1593,7 +1593,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-4.241893395201482E-05</v>
+        <v>0.002184100359376336</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1601,7 +1601,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-4.262509436022498E-05</v>
+        <v>0.001840791389405671</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1609,7 +1609,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-4.243851568643806E-05</v>
+        <v>0.0004509301687706757</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1617,7 +1617,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-4.233712730980556E-05</v>
+        <v>-0.0003351940078808914</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1625,7 +1625,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-4.233930923364307E-05</v>
+        <v>-0.0003360762131474957</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1633,7 +1633,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-4.230445822559012E-05</v>
+        <v>-0.0003379132380224433</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1641,7 +1641,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.0002248220204920809</v>
+        <v>-0.0003369757609376993</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1649,7 +1649,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.000485041704964911</v>
+        <v>-0.0003354643808344591</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1657,7 +1657,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.0004870502182433133</v>
+        <v>-0.0003366254969769016</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1665,7 +1665,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.0004866162461471102</v>
+        <v>-0.001453226844937799</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1673,7 +1673,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.0004862593152141629</v>
+        <v>-0.001814998312363925</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1681,7 +1681,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.000485930424985525</v>
+        <v>-0.001817791046622964</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1689,7 +1689,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.0004854291807656085</v>
+        <v>-0.001816842143586699</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1697,7 +1697,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.0004830409415647473</v>
+        <v>-0.001815205012975291</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1705,7 +1705,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.0004112291195479627</v>
+        <v>-0.001814993558686804</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1713,7 +1713,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.0003646069781337475</v>
+        <v>-0.001814584077880631</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1721,7 +1721,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.0003647308767601654</v>
+        <v>-0.002001980575001284</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1729,7 +1729,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.000364892599407356</v>
+        <v>-0.002188054757291733</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1737,7 +1737,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.0003649795480994843</v>
+        <v>-0.002200509639545337</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1745,7 +1745,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.0003652133313027667</v>
+        <v>-0.00219986314638636</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1753,7 +1753,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.0003650318821723405</v>
+        <v>-0.002200082862556563</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1761,7 +1761,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.0002329422082322094</v>
+        <v>-0.002200232202264782</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1769,7 +1769,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>4.697275651787246E-05</v>
+        <v>-0.002199755299081707</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1777,7 +1777,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>4.718730038748175E-05</v>
+        <v>-0.00220987403662407</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1785,7 +1785,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>4.749601959885651E-05</v>
+        <v>-0.002997411376773991</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>4.79280184716023E-05</v>
+        <v>-0.00341499011565713</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>4.823238140817186E-05</v>
+        <v>-0.003414786576366566</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>4.858510075874468E-05</v>
+        <v>-0.003415156610294338</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.969842443692624E-05</v>
+        <v>-0.003415324203235543</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1825,7 +1825,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-5.277312371989449E-05</v>
+        <v>-0.003414422752205281</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1833,7 +1833,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-7.555127249088566E-05</v>
+        <v>-0.003413373945097467</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1841,7 +1841,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-7.558489199377539E-05</v>
+        <v>-0.003596105131795363</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1849,7 +1849,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-7.559981903770276E-05</v>
+        <v>-0.003166721140664304</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1857,7 +1857,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-7.559528765743587E-05</v>
+        <v>-0.002730735179860925</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1865,7 +1865,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-7.562287024485311E-05</v>
+        <v>-0.002729455620183266</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1873,7 +1873,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-7.160467192788618E-05</v>
+        <v>-0.002727610825190277</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1881,7 +1881,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.0001064911391859289</v>
+        <v>-0.00272666597327097</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1889,7 +1889,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.0002197277004015854</v>
+        <v>-0.002725291664751099</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1897,7 +1897,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.0002201616528828038</v>
+        <v>-0.002719856568413591</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1905,7 +1905,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.0002205833006495897</v>
+        <v>-0.002328781267486663</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1913,7 +1913,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.0002211417644997264</v>
+        <v>-0.001426071577995581</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1921,7 +1921,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.0002214844565431443</v>
+        <v>-0.00143093883966063</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1929,7 +1929,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0002217635128980765</v>
+        <v>-0.001434508772230518</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1937,7 +1937,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.0003332246059624368</v>
+        <v>-0.001440675154199461</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1945,7 +1945,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.0005131562154499739</v>
+        <v>-0.001446971737121696</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1953,7 +1953,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.00056838523427252</v>
+        <v>-0.001449038925158834</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1961,7 +1961,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.0005680227935367432</v>
+        <v>0.001403340230880211</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1969,7 +1969,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.0005676251386670424</v>
+        <v>0.0004370206414003727</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1977,7 +1977,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.0005674421388470596</v>
+        <v>0.0001945382931150154</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1985,7 +1985,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.0005671553696275671</v>
+        <v>0.0001971062885959601</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1993,7 +1993,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.0005707074114053162</v>
+        <v>0.0001995544037684313</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2001,7 +2001,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.0006302613898038979</v>
+        <v>0.0002002746590662351</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2009,7 +2009,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.0006087873505198492</v>
+        <v>0.0002020768373543281</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2017,7 +2017,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.0006083549874544664</v>
+        <v>-0.0001992540382625339</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2025,7 +2025,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.0006079293696168844</v>
+        <v>-0.001491553897018793</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2033,7 +2033,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.0006075975570104732</v>
+        <v>-0.001917534703025144</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2041,7 +2041,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.0006072279247473192</v>
+        <v>-0.001913918564985057</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2049,7 +2049,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.0006067824445909962</v>
+        <v>-0.001909925213103881</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2057,7 +2057,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.0005765878293111314</v>
+        <v>-0.001905871439960696</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2065,7 +2065,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.0005003382923348409</v>
+        <v>-0.001902212876780457</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2073,7 +2073,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.0004605861318406393</v>
+        <v>-0.001898946262101736</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2081,7 +2081,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.0004602621285464158</v>
+        <v>-0.002465899781145838</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2089,7 +2089,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.0004599106647945664</v>
+        <v>-0.002985881871583501</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2097,7 +2097,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.0004595636812536524</v>
+        <v>-0.003087353078645663</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2105,7 +2105,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.0004592612261508967</v>
+        <v>-0.003086457275366153</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2113,7 +2113,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.0004590734687036965</v>
+        <v>-0.003085326434742331</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2121,7 +2121,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.0004482784464950558</v>
+        <v>-0.00308431527192811</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2129,7 +2129,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.000408644109779346</v>
+        <v>-0.003083352273511744</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2137,7 +2137,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.0004085224601101752</v>
+        <v>-0.003158767555948839</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2145,7 +2145,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.0004083279343708084</v>
+        <v>-0.00346235068739488</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2153,7 +2153,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.0004080622993153439</v>
+        <v>-0.003639764077200531</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2161,7 +2161,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.0004078103895100707</v>
+        <v>-0.003639681770558439</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2169,7 +2169,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.0004076001926507021</v>
+        <v>-0.003639823963865911</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2177,7 +2177,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.0004552490333472561</v>
+        <v>-0.003640009285370145</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2185,7 +2185,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.0004705954581983732</v>
+        <v>-0.003640015592217881</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2193,7 +2193,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.0004049466935776443</v>
+        <v>-0.003640017534163601</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2201,7 +2201,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.0004050131636076425</v>
+        <v>-0.003594764283111298</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2209,7 +2209,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.0004051516280544647</v>
+        <v>-0.002786929950815465</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2217,7 +2217,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.0004051338263352642</v>
+        <v>-0.002267660101173763</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2225,7 +2225,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.0004051686932592969</v>
+        <v>-0.002267629308954716</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2233,7 +2233,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.0003960649633490556</v>
+        <v>-0.002267937845182729</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2241,7 +2241,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.0001859713816028841</v>
+        <v>-0.002268697761281941</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2249,7 +2249,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6.060333632813611E-05</v>
+        <v>-0.002269213409237224</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2257,7 +2257,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6.057528108256479E-05</v>
+        <v>-0.001719100618882405</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2265,7 +2265,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6.059923968337888E-05</v>
+        <v>0.001366035008718665</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2273,7 +2273,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6.06063265384072E-05</v>
+        <v>0.002500493028148957</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2281,7 +2281,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6.048158670989346E-05</v>
+        <v>0.002502578229134506</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2289,7 +2289,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6.048426787829559E-05</v>
+        <v>0.002504662671540453</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2297,7 +2297,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>3.820463029757325E-05</v>
+        <v>0.002506645480689992</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2305,7 +2305,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>5.409833497867735E-06</v>
+        <v>0.002508095926093483</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2313,7 +2313,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-5.764864129669798E-06</v>
+        <v>0.002509715977284971</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2321,7 +2321,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-5.534284455216423E-06</v>
+        <v>0.002601620769703021</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2329,7 +2329,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-5.299557000152069E-06</v>
+        <v>0.002442688168821699</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2337,7 +2337,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-5.117318997672294E-06</v>
+        <v>0.002395857898956208</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2345,7 +2345,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-4.913522491302193E-06</v>
+        <v>0.002397109150595514</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2353,7 +2353,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-4.926812372024282E-06</v>
+        <v>0.002398384339596885</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2361,7 +2361,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>-7.566080009496687E-06</v>
+        <v>0.002400071874495475</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2369,7 +2369,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-9.838728934439329E-06</v>
+        <v>0.00240159057510791</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2377,7 +2377,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-9.471557155674405E-06</v>
+        <v>0.002285898951038624</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2385,7 +2385,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-9.112320972977967E-06</v>
+        <v>0.001760089928485372</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2393,7 +2393,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-8.796920840307914E-06</v>
+        <v>0.001243643915686027</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2401,7 +2401,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-8.370834092333719E-06</v>
+        <v>0.001244223877244813</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2409,7 +2409,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-7.940935100679433E-06</v>
+        <v>0.00353529973194547</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2417,7 +2417,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>1.410470918556301E-05</v>
+        <v>0.003534765534038694</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2425,7 +2425,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6.152559869449065E-05</v>
+        <v>0.003535218064436792</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2433,7 +2433,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7.843262392156593E-05</v>
+        <v>0.003535271559156655</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2441,7 +2441,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7.829923436655705E-05</v>
+        <v>0.003985915464376001</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2449,7 +2449,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7.837798463556698E-05</v>
+        <v>0.00363343799684418</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2457,7 +2457,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7.840907771915983E-05</v>
+        <v>0.003578174968591566</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2465,7 +2465,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7.839149345565073E-05</v>
+        <v>0.003578144506976512</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2473,7 +2473,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>8.882002554277199E-05</v>
+        <v>0.003577982681973848</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2481,7 +2481,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.0001874992171383254</v>
+        <v>0.003578148600310711</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2489,7 +2489,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.0002398366257194185</v>
+        <v>0.00357788723518752</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2497,7 +2497,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.0002396305582879399</v>
+        <v>0.003242306963197492</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2505,7 +2505,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.0002393853866312272</v>
+        <v>0.002240082720297086</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2513,7 +2513,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.0002391870902674036</v>
+        <v>0.001613352100736149</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2521,7 +2521,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.0002390168776967567</v>
+        <v>-0.0005580985904343419</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2529,7 +2529,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.0002387146564285321</v>
+        <v>-0.0005572687081714811</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2537,7 +2537,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.000269962467115062</v>
+        <v>-0.0005557204695174794</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2545,7 +2545,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.0002925201178262572</v>
+        <v>-0.0005575319939871414</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2553,7 +2553,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.0002910577306014787</v>
+        <v>-0.0005570604575079947</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2561,7 +2561,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.0002908271305181456</v>
+        <v>0.0006042918931231443</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2569,7 +2569,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.0002906014744116727</v>
+        <v>0.001839975733225123</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2577,7 +2577,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.0002903052319528716</v>
+        <v>0.00185057039791704</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2585,7 +2585,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.0002900373971460849</v>
+        <v>0.001849294246637692</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2593,7 +2593,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.0002947738498189647</v>
+        <v>0.001849533182130161</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2601,7 +2601,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.0003262867643031997</v>
+        <v>0.001849402230131319</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2609,7 +2609,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.0003325295016593326</v>
+        <v>0.001847037258520356</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2617,7 +2617,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.0003323915785160921</v>
+        <v>0.002225652972244244</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2625,7 +2625,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.0003323766180589362</v>
+        <v>0.002168031827453278</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2633,7 +2633,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.0003324086009997571</v>
+        <v>-0.001759173538825555</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2641,7 +2641,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.000332274523175464</v>
+        <v>-0.001755361360717153</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2649,7 +2649,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.000332256558760086</v>
+        <v>-0.001758035533576279</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2657,7 +2657,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.0003767560969520118</v>
+        <v>-0.001758453650602704</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2665,7 +2665,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.0004187014923427854</v>
+        <v>-0.001757063586023838</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2673,7 +2673,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.0004181078475323202</v>
+        <v>-0.001757709487330719</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2681,7 +2681,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.0004179607092986523</v>
+        <v>-0.001436619393724598</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2689,7 +2689,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.0004178451135832442</v>
+        <v>-0.0008967001178940513</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2697,7 +2697,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.0004177581780404022</v>
+        <v>-0.0008945872249834817</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2705,7 +2705,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.0004177847456049107</v>
+        <v>-0.0008962233937483323</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2713,7 +2713,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.0004280429958805852</v>
+        <v>0.00226658549102257</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2721,7 +2721,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.0004620599624894047</v>
+        <v>0.002267378139725373</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2729,7 +2729,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.000436228966842543</v>
+        <v>0.002268565954110506</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2737,7 +2737,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.00043576566411698</v>
+        <v>0.002511872244566274</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2745,7 +2745,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.000435320123447095</v>
+        <v>0.002268585180253323</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2753,7 +2753,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.000434892783868458</v>
+        <v>0.002004829097111512</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2761,7 +2761,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.0004344382025785252</v>
+        <v>0.00200441726752589</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2769,7 +2769,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.0004339410141621671</v>
+        <v>0.002006389764900964</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2777,7 +2777,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.0004309446702697311</v>
+        <v>0.002007068804765032</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2785,7 +2785,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.0003919479619869908</v>
+        <v>0.002004929871477751</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2793,7 +2793,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.0003717954997517119</v>
+        <v>0.002014535360984866</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2801,7 +2801,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.0003714135796673144</v>
+        <v>0.001444939032417326</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2809,7 +2809,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.0003709910982548019</v>
+        <v>0.000801749819376087</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2817,7 +2817,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.000370663339768575</v>
+        <v>0.0008024432914845132</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2825,7 +2825,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.0003701874751395772</v>
+        <v>0.0008013610402637141</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2833,7 +2833,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.000370521154275916</v>
+        <v>0.0008021897484179302</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2841,7 +2841,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.0003587665743764315</v>
+        <v>0.0008026573340783951</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2849,7 +2849,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.0003145446457055247</v>
+        <v>0.0008014290890056443</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2857,7 +2857,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.0003141793369789055</v>
+        <v>0.0008141859161264554</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2865,7 +2865,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.0003138688641366998</v>
+        <v>0.0007075090170646138</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2873,7 +2873,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.0003136879012498659</v>
+        <v>0.0006501701691817249</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2881,7 +2881,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.0003133282585421662</v>
+        <v>0.0006476758199391147</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2889,7 +2889,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.0003129752483521177</v>
+        <v>0.0006428508881269797</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2897,7 +2897,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.0003182547881994346</v>
+        <v>0.0006391235623129016</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2905,7 +2905,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.0002491395527244722</v>
+        <v>0.0006369350861412735</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2913,7 +2913,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.0002081065295554235</v>
+        <v>0.0007306650098640014</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2921,7 +2921,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.0002081217671059115</v>
+        <v>0.001100246902098288</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2929,7 +2929,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.0002081632651319789</v>
+        <v>0.0009921418731091193</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2937,7 +2937,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.0002084296382658773</v>
+        <v>0.0009906182961268854</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2945,7 +2945,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.0002085259515834039</v>
+        <v>0.0009892689806728699</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2953,7 +2953,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.0002078437538464096</v>
+        <v>0.0009867107641364967</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2961,7 +2961,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.0001805198278811074</v>
+        <v>0.0009845920112132949</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2969,7 +2969,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.0001412156879717853</v>
+        <v>0.0009844049168475364</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2977,7 +2977,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.000141058027324971</v>
+        <v>0.00107723506935577</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2985,7 +2985,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.0001409849632044181</v>
+        <v>0.001016749889000998</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2993,7 +2993,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.0001409728970036473</v>
+        <v>0.000988183192645163</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3001,7 +3001,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.0001411111617173866</v>
+        <v>0.0009874368598857177</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3009,7 +3009,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.0001409450302365008</v>
+        <v>0.0009856460076445852</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3017,7 +3017,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.0001544699395507562</v>
+        <v>0.0009871106882976715</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3025,7 +3025,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.0001555668722931214</v>
+        <v>0.0009857630398013206</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3033,7 +3033,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.0001511013027909795</v>
+        <v>0.0009770427098415365</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3041,7 +3041,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.0001510029708674304</v>
+        <v>0.0008820483959807394</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3049,7 +3049,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.0001507565693185123</v>
+        <v>0.0006990550317856476</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3057,7 +3057,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.0001505192696144089</v>
+        <v>0.0006940924072040767</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3065,7 +3065,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.000150364791620808</v>
+        <v>0.0006894880839134731</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3073,7 +3073,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.00015335940858729</v>
+        <v>0.000684452796219343</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3081,7 +3081,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.0001513814055213843</v>
+        <v>0.000682633720041499</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3089,7 +3089,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.0001311628359697521</v>
+        <v>0.000677480311265363</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3097,7 +3097,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.0001311381607042111</v>
+        <v>-0.0001750265978545308</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3105,7 +3105,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.0001311226947803634</v>
+        <v>-0.001507518660522265</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3113,7 +3113,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.0001311682834743536</v>
+        <v>-0.001696119383219082</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3121,7 +3121,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.0001312341375380359</v>
+        <v>-0.001696227331012642</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3129,7 +3129,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.0001309240613128254</v>
+        <v>-0.001696197552169999</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3137,7 +3137,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.0001432312253913108</v>
+        <v>-0.001693796411840398</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3145,7 +3145,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.0001452888113684474</v>
+        <v>-0.001694368412128518</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3153,7 +3153,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.0001432176333717832</v>
+        <v>-0.002113526428182313</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3161,7 +3161,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.0001432866394107893</v>
+        <v>-0.003274999131994165</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3169,7 +3169,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.0001431230116882224</v>
+        <v>-0.003679471211061651</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3177,7 +3177,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.0001430378319407083</v>
+        <v>-0.003676616854844143</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3185,7 +3185,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.0001430373465841414</v>
+        <v>-0.003674893310619323</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3193,7 +3193,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.0001515512060131258</v>
+        <v>-0.003672708959054163</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3201,7 +3201,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.0001817326026503652</v>
+        <v>-0.003670214685980763</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3209,7 +3209,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.0001911287020852723</v>
+        <v>-0.003668470451956433</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3217,7 +3217,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.0001908568569067653</v>
+        <v>-0.003803134664859623</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3225,7 +3225,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.0001905807833380875</v>
+        <v>-0.002991218413505141</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3233,7 +3233,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.0001902532990825816</v>
+        <v>-0.002800645779588943</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3241,7 +3241,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.000190099778946708</v>
+        <v>-0.002798822274871767</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3249,7 +3249,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.0001898536111895639</v>
+        <v>-0.002796047565733871</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3257,7 +3257,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.0001930886498138551</v>
+        <v>-0.00279482958715538</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3265,7 +3265,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.0001807883380533365</v>
+        <v>-0.002794585257774141</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3273,7 +3273,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.0001738329635701776</v>
+        <v>-0.002381786699556554</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3281,7 +3281,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.0001734439918160469</v>
+        <v>-0.0006805650009231832</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3289,7 +3289,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.0001731917460701747</v>
+        <v>0.0004777576000550111</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3297,7 +3297,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.0001731262995810366</v>
+        <v>0.0004774776027877329</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3305,7 +3305,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.0001728896606456263</v>
+        <v>0.0004796462994205199</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3313,7 +3313,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.0001613684784858423</v>
+        <v>0.0004805607364254401</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3321,7 +3321,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>9.006105798239141E-05</v>
+        <v>0.0004804778477651303</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3329,7 +3329,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>1.164505988201781E-05</v>
+        <v>0.0004817334590711966</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3337,7 +3337,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>1.171224902485107E-05</v>
+        <v>0.001979191125062821</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3345,7 +3345,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>1.17952685588786E-05</v>
+        <v>0.003298615486490349</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3353,7 +3353,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>1.165810540473317E-05</v>
+        <v>0.003350933825484935</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3361,7 +3361,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>1.172870418527446E-05</v>
+        <v>0.003349964363154998</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3369,7 +3369,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>1.177623183884145E-05</v>
+        <v>0.003348469991640906</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3377,7 +3377,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>-5.834280413517867E-05</v>
+        <v>0.003348766529265821</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3385,7 +3385,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>-0.0001609038903855854</v>
+        <v>0.003349445331935018</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3393,7 +3393,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-0.0001774169933421051</v>
+        <v>0.003347994291094327</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3401,7 +3401,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>-0.0001773837478378978</v>
+        <v>0.002583075362262475</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3409,7 +3409,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>-0.0001769278243280857</v>
+        <v>0.001907644734270369</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3417,7 +3417,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-0.0001768378563010631</v>
+        <v>0.001907077543966157</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3425,7 +3425,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>-0.000176741035377306</v>
+        <v>0.00190579996524327</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3433,7 +3433,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>-0.0001618020990267508</v>
+        <v>0.001904079444827885</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3441,7 +3441,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>-7.03730267420708E-05</v>
+        <v>0.001904442820065496</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3449,7 +3449,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-5.490378138684776E-06</v>
+        <v>0.001904864071748395</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3457,7 +3457,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>-5.610025088983426E-06</v>
+        <v>0.001020982653974346</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3465,7 +3465,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>-5.332406253362074E-06</v>
+        <v>-0.0005847998660458008</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3473,7 +3473,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>-5.158165839785197E-06</v>
+        <v>-0.0007146758299222469</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3481,7 +3481,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>-4.977983988293688E-06</v>
+        <v>-0.0007161135238121444</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3489,7 +3489,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>-4.906591133099212E-06</v>
+        <v>-0.0007144247664778966</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3497,7 +3497,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.0001149661825258626</v>
+        <v>-0.0007150516524628476</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3505,7 +3505,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.0002417773838037099</v>
+        <v>-0.0007164712592992391</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3513,7 +3513,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.0002620630095070567</v>
+        <v>-0.00122417748140849</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3521,7 +3521,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.0002619355260827026</v>
+        <v>-0.0018665704415632</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3529,7 +3529,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.0002616806127810754</v>
+        <v>-0.001750168064754145</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3537,7 +3537,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.0002615996913184291</v>
+        <v>-0.001752109668814119</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3545,7 +3545,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.0002616517968077848</v>
+        <v>-0.001750871263295813</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3553,7 +3553,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.0002864152942788399</v>
+        <v>-0.001751030319439787</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3561,7 +3561,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.0003565702060302496</v>
+        <v>-0.00175227490026512</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3569,7 +3569,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.0003714062691907356</v>
+        <v>-0.001750626680145495</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3577,7 +3577,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.0003715069436048162</v>
+        <v>-0.001458833711513058</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3585,7 +3585,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.0003716178104650652</v>
+        <v>-0.001003202290698375</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3593,7 +3593,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.0003714140941445717</v>
+        <v>-0.000986663405482505</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3601,7 +3601,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.0003714194002311416</v>
+        <v>-0.0009855867551326954</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3609,7 +3609,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.0003716249728848067</v>
+        <v>-0.0009851829278062464</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3617,7 +3617,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.0003548986453272285</v>
+        <v>-0.0009847781966177411</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3625,7 +3625,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.0002691735927892051</v>
+        <v>-0.0009853896007413856</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3633,7 +3633,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.0002452573602393242</v>
+        <v>-0.00103288291562783</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3641,7 +3641,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.000245275029806165</v>
+        <v>-0.0009472836088692722</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3649,7 +3649,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.0002452480003467577</v>
+        <v>-0.0007203325715495195</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3657,7 +3657,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.000245465564810445</v>
+        <v>-0.0007196924562578125</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3665,7 +3665,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.0002455322678960258</v>
+        <v>-0.0007219512091837516</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3673,7 +3673,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.0002291676086155371</v>
+        <v>-0.0007219809667882114</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3681,7 +3681,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.0001423223724623961</v>
+        <v>-0.0007206862349903486</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3689,7 +3689,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7.279634397266899E-05</v>
+        <v>-0.0007221530505899441</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3697,7 +3697,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7.29401507026253E-05</v>
+        <v>-0.0004534442507593526</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3705,7 +3705,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>7.29028061717025E-05</v>
+        <v>-0.0001133352376040139</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3713,7 +3713,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>7.31996189934772E-05</v>
+        <v>-0.0001135503189444418</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3721,7 +3721,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>7.317318191107821E-05</v>
+        <v>0.001262950900548232</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3729,7 +3729,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7.317049199124121E-05</v>
+        <v>0.001262834505734596</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3737,7 +3737,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>6.462964292000278E-05</v>
+        <v>0.001261993461355451</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3745,7 +3745,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>4.52364533442105E-05</v>
+        <v>0.001262330739754998</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3753,7 +3753,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>4.133954501651373E-05</v>
+        <v>-0.001104513173273934</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3761,7 +3761,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>4.152466935871381E-05</v>
+        <v>-0.00103857833761858</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3769,7 +3769,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>4.173621728038973E-05</v>
+        <v>-0.0009470214299451735</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3777,7 +3777,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>4.207648065296661E-05</v>
+        <v>-0.0009469184760032055</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3785,7 +3785,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>4.242607157217261E-05</v>
+        <v>-0.0009452552531323797</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3793,7 +3793,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>4.341601336284513E-05</v>
+        <v>-0.0009455675788292299</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3801,7 +3801,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>4.0849967668532E-05</v>
+        <v>-0.0009456879612025397</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3809,7 +3809,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>3.409249224348691E-05</v>
+        <v>-0.0009895180951427413</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3817,7 +3817,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>3.407014246254815E-05</v>
+        <v>-0.00101775272004307</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3825,7 +3825,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>3.424316735485102E-05</v>
+        <v>-0.0007199330515716488</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3833,7 +3833,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>3.420069931059854E-05</v>
+        <v>-0.0007208890130806576</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3841,7 +3841,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>3.424475888333075E-05</v>
+        <v>-0.0007212869953801727</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3849,7 +3849,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>3.443503458406771E-05</v>
+        <v>-0.0007226856440050899</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3857,7 +3857,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>3.913845860275296E-06</v>
+        <v>-0.0007244658140567787</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3865,7 +3865,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>-3.374500441004456E-05</v>
+        <v>-0.0007246527565213397</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3873,7 +3873,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>-3.926556877196835E-05</v>
+        <v>-0.001257825104804036</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3881,7 +3881,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>-3.963132849053388E-05</v>
+        <v>-0.001799409343149086</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3889,7 +3889,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>-4.034891297278957E-05</v>
+        <v>-0.001845340593196497</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3897,7 +3897,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>-4.079039945164477E-05</v>
+        <v>-0.001845544077178208</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3905,7 +3905,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>-4.099184055507426E-05</v>
+        <v>-0.001844982772636345</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3913,7 +3913,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>-4.1286273530704E-05</v>
+        <v>-0.001844219364234881</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3921,7 +3921,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>-3.745432044867627E-05</v>
+        <v>-0.001845206072090201</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3929,7 +3929,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>-3.263490732848552E-05</v>
+        <v>-0.00204458022443907</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3937,7 +3937,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>-3.303073465545071E-05</v>
+        <v>-0.002570279790503913</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3945,7 +3945,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>-3.335578627416318E-05</v>
+        <v>-0.002073059407667774</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3953,7 +3953,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>-3.375791064067396E-05</v>
+        <v>-0.002070886732092552</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3961,7 +3961,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>-3.430653538932228E-05</v>
+        <v>-0.00206936622176064</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3969,7 +3969,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>-3.478415473667022E-05</v>
+        <v>-0.002067992925106546</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3977,7 +3977,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>3.711868364541564E-05</v>
+        <v>-0.002066316486681683</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3985,7 +3985,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.0001330070070296106</v>
+        <v>-0.002065387785478703</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3993,7 +3993,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.0001473884892188115</v>
+        <v>-0.001583172903761811</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4001,7 +4001,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.0001471847962297517</v>
+        <v>-0.0002145809346426236</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4009,7 +4009,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.000147047905279308</v>
+        <v>0.0001546819781850134</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4017,7 +4017,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.000146752872401123</v>
+        <v>0.0001560348046366844</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4025,7 +4025,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.000146491817142893</v>
+        <v>0.0001568984119771229</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4033,7 +4033,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.0001852717461133261</v>
+        <v>0.000157929413701613</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4041,7 +4041,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.0003042598262638697</v>
+        <v>0.0001590579462399033</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4049,7 +4049,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.000343755339728083</v>
+        <v>0.0006334883560236065</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4057,7 +4057,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.0003438182130372878</v>
+        <v>0.001826957651937068</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4065,7 +4065,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.000343685063894999</v>
+        <v>0.001888336669611649</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4073,7 +4073,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.0003437590702906611</v>
+        <v>0.001885051724546629</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4081,7 +4081,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.000343845602306158</v>
+        <v>0.001882732927139395</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4089,7 +4089,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.0003439143210745402</v>
+        <v>0.001879347411980378</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4097,7 +4097,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.0002457083086053885</v>
+        <v>0.001876612253048921</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4105,7 +4105,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>9.829039998051077E-05</v>
+        <v>0.001874215721267598</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4113,7 +4113,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>8.036067214209809E-05</v>
+        <v>0.001830478458514823</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4121,7 +4121,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>8.029594922909291E-05</v>
+        <v>0.001715388706317171</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4129,7 +4129,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>8.052320787637626E-05</v>
+        <v>0.001683436001927013</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4137,7 +4137,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>8.069152005649791E-05</v>
+        <v>0.001683896892951099</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4145,7 +4145,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>8.060160866843088E-05</v>
+        <v>0.001684112674059578</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4153,7 +4153,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>2.60605817160223E-05</v>
+        <v>0.001685045164543048</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4161,7 +4161,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>-0.0001321645190686665</v>
+        <v>0.001685442440258964</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4169,7 +4169,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>-0.0002223750653660311</v>
+        <v>0.001711435454385149</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4177,7 +4177,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>-0.0002222692090127464</v>
+        <v>0.0016046865630836</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4185,7 +4185,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>-0.000222355096442651</v>
+        <v>0.001208886813502524</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4193,7 +4193,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>-0.0002225383323040519</v>
+        <v>0.00121386118497324</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4201,7 +4201,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>-0.0002224598906321375</v>
+        <v>0.001219219665680219</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4209,7 +4209,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>-0.000222528333136227</v>
+        <v>0.001223785832772326</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4217,7 +4217,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>-0.0002559833158954954</v>
+        <v>0.001228662558971403</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4225,7 +4225,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>-0.0002466230272551618</v>
+        <v>0.001234059162756685</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>-0.0002395188778808632</v>
+        <v>0.0007914613107879478</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>-0.00023930580341737</v>
+        <v>0.0003883226181178388</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>-0.0002395467996936892</v>
+        <v>0.0003315120255243748</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>-0.0002397192343701841</v>
+        <v>0.0003314490864436038</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>-0.0002394780461156871</v>
+        <v>0.0003307026500086994</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>-0.0001462437876335052</v>
+        <v>0.000329923238762942</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.0001332304258363051</v>
+        <v>0.0003294942178411319</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>0.0002469792614081607</v>
+        <v>0.0003365300908237261</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.0002467154475683894</v>
+        <v>0.0003423730515057155</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.0002466645568114795</v>
+        <v>0.0003283317309087412</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.0002465965882072187</v>
+        <v>0.0003251357282824861</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.0002464232012853752</v>
+        <v>0.0003228662506912939</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.0002463433622767364</v>
+        <v>0.0003200589350985967</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.0003682188415465388</v>
+        <v>0.0003165551389925329</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.0004584926415113408</v>
+        <v>0.0003140690337064006</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.0004644195746776395</v>
+        <v>0.0003157274096633569</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.0004643096500398878</v>
+        <v>0.0002310312996188778</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0.0004641753834318556</v>
+        <v>0.0002214410724469917</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.0004640668133152047</v>
+        <v>0.0002291522239931158</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0.000464206847317888</v>
+        <v>0.0002366385426284149</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.0004594666372922429</v>
+        <v>0.0002440149518642179</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4401,7 +4401,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.0003661859997415233</v>
+        <v>0.0002514786248798461</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4409,7 +4409,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.0002461999422250186</v>
+        <v>0.0001730805700960396</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4417,7 +4417,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.0002461476398112288</v>
+        <v>-6.99703703950573E-05</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4425,7 +4425,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.0002461075523116021</v>
+        <v>-0.0001870939864121608</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4433,7 +4433,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.000246205373937643</v>
+        <v>-0.0001808631818011479</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4441,7 +4441,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>0.0002462315120134962</v>
+        <v>-0.0001743459419741645</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4449,7 +4449,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.0002462372055770585</v>
+        <v>-0.0001676521171799376</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4457,7 +4457,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>2.996452909562149E-05</v>
+        <v>-0.0001608828078703034</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4465,7 +4465,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>-0.0001974393135965002</v>
+        <v>-0.0001543499270631884</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4473,7 +4473,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>-0.0002127134496664919</v>
+        <v>-0.0004360483983925337</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4481,7 +4481,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>-0.0002127477137015259</v>
+        <v>-0.0006020609050259778</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4489,7 +4489,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>-0.0002129510587826154</v>
+        <v>-0.0006178974579380304</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4497,7 +4497,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>-0.0002130807807733382</v>
+        <v>-0.0006246538633216805</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4505,7 +4505,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>-0.0002131634950110802</v>
+        <v>-0.0006311935284272985</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4513,7 +4513,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>-0.0002243088957617696</v>
+        <v>-0.0006372968667751277</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4521,7 +4521,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>-0.0002212457517331442</v>
+        <v>-0.000644252474505827</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4529,7 +4529,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>-0.0001971855310764327</v>
+        <v>-0.0006788953995666006</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4537,7 +4537,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>-0.0001972320045833454</v>
+        <v>-0.0007337280546506206</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4545,7 +4545,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>-0.0001971675979486875</v>
+        <v>-0.0007587113292319255</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4553,7 +4553,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>-0.00019712626171889</v>
+        <v>-0.0007677986530821543</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4561,7 +4561,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>-0.0001971837239673462</v>
+        <v>-0.0007763322652961761</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4569,7 +4569,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>-0.0001972274997426218</v>
+        <v>-0.0007850317100541757</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4577,7 +4577,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>-2.020525011611042E-05</v>
+        <v>-0.0007939810953675111</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4585,7 +4585,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>0.0001479128989622771</v>
+        <v>-0.0008024822603513902</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4593,7 +4593,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>0.0001561296707646643</v>
+        <v>-0.0007635595492763407</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4601,7 +4601,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>0.00015582864720962</v>
+        <v>-0.0006167422191932187</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4609,7 +4609,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>0.0001555353715158279</v>
+        <v>-0.0006076046301896556</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4617,7 +4617,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>0.0001553275055735956</v>
+        <v>-0.0006136212036904305</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4625,7 +4625,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>0.0001550458226341301</v>
+        <v>-0.0006200625772982318</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4633,7 +4633,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>0.0001696373822203321</v>
+        <v>-0.0006252361196724872</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>0.0001880617559694325</v>
+        <v>-0.0006313943340442918</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>0.000188040045863663</v>
+        <v>-0.0005215196723625592</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>0.000187487623366864</v>
+        <v>-8.439541711732126E-06</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>0.000186966157734322</v>
+        <v>0.00026734949344644</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>0.0001863214938436334</v>
+        <v>0.0002683720115420299</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>0.0001856626824402363</v>
+        <v>0.0002692793705764427</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>0.0001850473486181141</v>
+        <v>0.0002700091829964049</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>3.320954174704446E-05</v>
+        <v>0.0002710724912350374</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>-0.0001992208365231317</v>
+        <v>0.0002721175363396022</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>-0.0002114446257626666</v>
+        <v>0.0003217872242615548</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>-0.000211389042763663</v>
+        <v>0.0002835286571757301</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>-0.000211582347760421</v>
+        <v>0.0002829738249198845</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>-0.0002119315753331059</v>
+        <v>0.0002837673957341614</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>-0.0002117444427097085</v>
+        <v>0.0002837695880415641</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>-0.0003222626402214524</v>
+        <v>0.0002841853984524625</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4761,7 +4761,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>-0.0004852532218074829</v>
+        <v>0.000285380121551923</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>-0.0004969541702170904</v>
+        <v>0.0001521747767276701</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>-0.0004969759351892766</v>
+        <v>-5.58307270732979E-05</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>-0.000497398826644751</v>
+        <v>-0.000134230756857407</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>-0.0004975378986898559</v>
+        <v>-0.000135331040840243</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4801,7 +4801,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>-0.0004975266434566045</v>
+        <v>-0.0001360416991683617</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4809,7 +4809,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>-0.0004978380054448996</v>
+        <v>-0.0001371507039564345</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4817,7 +4817,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>-0.0004182905781311195</v>
+        <v>-0.0001384093304909745</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>-0.000281620000995673</v>
+        <v>-0.0001442304516705585</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>-0.000276508080428878</v>
+        <v>-0.0003273699217513836</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>-0.0002765733047931654</v>
+        <v>-0.000518630169185038</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>-0.000276706843983086</v>
+        <v>-0.000520173454111645</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>-0.0002770022677126515</v>
+        <v>-0.0005214179800724473</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>-0.0002770982405226643</v>
+        <v>-0.0005224070862687987</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>-0.0001928839190594499</v>
+        <v>-0.000524211820910084</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>9.047348252831095E-05</v>
+        <v>-0.0005253334493709301</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4889,7 +4889,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>0.0002587095397753904</v>
+        <v>-0.0006161700580385527</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>0.0002590815916416924</v>
+        <v>-0.0007880403261011797</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>0.0002595279242047783</v>
+        <v>-0.0008436922513076445</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4913,7 +4913,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>0.0002601048814215825</v>
+        <v>-0.0008448509937292681</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>0.0002608051080185621</v>
+        <v>-0.0008453040967554786</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>0.0002611946305365788</v>
+        <v>-0.0008451713729629962</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4937,7 +4937,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>0.0004903948764978415</v>
+        <v>-0.0008450947598934518</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>0.0005450716608797698</v>
+        <v>-0.0008549835688240342</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4953,7 +4953,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>0.0005443379757599857</v>
+        <v>-0.0009689068981450593</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4961,7 +4961,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>0.0005440682464258451</v>
+        <v>-0.0008732478374878792</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4969,7 +4969,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>0.0005439002113883239</v>
+        <v>-0.0008740590869393485</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4977,7 +4977,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>0.0005437305307275188</v>
+        <v>-0.0008743427838652396</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4985,7 +4985,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>0.0005434530004167601</v>
+        <v>0.000499527113353268</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4993,7 +4993,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>0.0005262528041814974</v>
+        <v>0.0004985480250749767</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5001,7 +5001,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>0.0003975171565152468</v>
+        <v>0.0004971419485712283</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5009,7 +5009,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>0.0003161616497667898</v>
+        <v>0.000553654521489642</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>0.0003173981043935144</v>
+        <v>0.0006224095235796897</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5025,7 +5025,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>0.0003188276151851169</v>
+        <v>0.0006369412764057015</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>0.0003203808973119457</v>
+        <v>0.0006367330320634481</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>0.0003218593774715555</v>
+        <v>0.0006356465110335965</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>0.0003232345722266706</v>
+        <v>0.0006342135857130123</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>0.0001114499123041924</v>
+        <v>0.0006332483639773859</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>-7.240636103292847E-05</v>
+        <v>0.0006078275656665386</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>-6.961912501455411E-05</v>
+        <v>0.0004022412859988194</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>-6.670388705976005E-05</v>
+        <v>0.0001640004431020978</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>-6.378458041983014E-05</v>
+        <v>0.0001643227590272167</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>-6.073497259107871E-05</v>
+        <v>0.0001647321218372726</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>-5.7673713601406E-05</v>
+        <v>0.000164465445481696</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>-0.0001714371359500091</v>
+        <v>0.0001643695195649746</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>-0.0003237488175111504</v>
+        <v>0.0001643999715127275</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>-0.0003703063225268424</v>
+        <v>-9.592824920135928E-05</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>-0.0003707779705449839</v>
+        <v>-0.0006149364260342407</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>-0.0003713004687623318</v>
+        <v>-0.0007649222737839392</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5153,7 +5153,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>-0.0003718866575059389</v>
+        <v>-0.000764142878112274</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5161,7 +5161,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>-0.000372377808765595</v>
+        <v>-0.0007633094517709478</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5169,7 +5169,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>-0.0003753306091992151</v>
+        <v>-0.0007633191314661586</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5177,7 +5177,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>-0.0004802283906147174</v>
+        <v>-0.000763427268073165</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5185,7 +5185,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>-0.000539937132845939</v>
+        <v>-0.0007812771535135911</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5193,7 +5193,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>-0.0005425049644801478</v>
+        <v>-0.0007432190613195165</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5201,7 +5201,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>-0.0005450264315506693</v>
+        <v>-0.0006171212135271226</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5209,7 +5209,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>-0.0005476131630022046</v>
+        <v>-0.0006159513176590621</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5217,7 +5217,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>-0.0005500797557210575</v>
+        <v>-0.0006135863551900005</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5225,7 +5225,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>-0.0005524702836063604</v>
+        <v>-0.0006114613013229896</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5233,7 +5233,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>-0.0005613438049900344</v>
+        <v>-0.0006094028165053594</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5241,7 +5241,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>-0.0005677025386101705</v>
+        <v>-0.0006069474190116275</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5249,7 +5249,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>-0.0005695455275062307</v>
+        <v>-0.0003665454607122488</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5257,7 +5257,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>-0.0005717678301595756</v>
+        <v>1.240066476555537E-05</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5265,7 +5265,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>-0.0005739763705531427</v>
+        <v>0.0001098663131766929</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5273,7 +5273,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>-0.0005761255444539717</v>
+        <v>0.0001080032376754141</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5281,7 +5281,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>-0.0005783138994978538</v>
+        <v>0.0001060367294199456</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5289,7 +5289,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>-0.0005784301526233836</v>
+        <v>0.0001036188803351349</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5297,7 +5297,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>-0.0005211962581957119</v>
+        <v>0.0001015527480270835</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5305,7 +5305,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>-0.0004639956683104091</v>
+        <v>0.000169737907470873</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5313,7 +5313,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>-0.0004628444712879358</v>
+        <v>0.0004559417190612095</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5321,7 +5321,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>-0.0004616510679437601</v>
+        <v>0.0006248450508722855</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5329,7 +5329,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>-0.0004604236920240481</v>
+        <v>0.0006191063858435529</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5337,7 +5337,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>-0.0004592616672776226</v>
+        <v>0.0006124203023687724</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5345,7 +5345,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>-0.0004580185841682798</v>
+        <v>0.0006068733973437989</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5353,7 +5353,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>-0.0004105840327137242</v>
+        <v>0.0006020177516183375</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5361,7 +5361,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>-0.0003185946859230356</v>
+        <v>0.0005961248154968377</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5369,7 +5369,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>-0.000272385656226291</v>
+        <v>0.000645692669685684</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5377,7 +5377,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>-0.0002675714407500161</v>
+        <v>0.0006694994912017896</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5385,7 +5385,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>-0.0002627479303713823</v>
+        <v>0.0006643186990532</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5393,7 +5393,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>-0.000257923077921464</v>
+        <v>0.0006632613424950835</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5401,7 +5401,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>-0.0002530264568169065</v>
+        <v>0.00066152102207599</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5409,7 +5409,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>-0.0002462588968430111</v>
+        <v>0.0006593133505333806</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5417,7 +5417,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>-0.0002038973917690384</v>
+        <v>0.0006578582400952108</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5425,7 +5425,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>-0.0001557774438813561</v>
+        <v>0.0006643710485649303</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5433,7 +5433,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>-0.0001525981052207734</v>
+        <v>0.0006202283202003179</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5441,7 +5441,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>-0.0001493035075176062</v>
+        <v>0.0005323445100688922</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5449,7 +5449,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>-0.0001460719907596685</v>
+        <v>0.0005323951331202551</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5457,7 +5457,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>-0.0001427805438346243</v>
+        <v>0.000532504962262977</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5465,7 +5465,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>-0.00013949142392443</v>
+        <v>0.0005329447867212253</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5473,7 +5473,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>-0.000167978782327044</v>
+        <v>0.0005324530252402467</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5481,7 +5481,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>-0.0002334222917166986</v>
+        <v>0.0005325869196287843</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5489,7 +5489,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>-0.0002664650790895644</v>
+        <v>0.0005300761554044317</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5497,7 +5497,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>-0.0002671925199154698</v>
+        <v>0.0004912855442641226</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5505,7 +5505,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>-0.0002680676001671413</v>
+        <v>0.0004803696823091971</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5513,7 +5513,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>-0.0002689688687736187</v>
+        <v>0.000479833230149733</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5521,7 +5521,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>-0.0002696687675136792</v>
+        <v>0.0004790164049999593</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5529,7 +5529,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>-0.0002775160277186431</v>
+        <v>0.0004790224776805819</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5537,7 +5537,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>-0.000383588023220024</v>
+        <v>0.0004787215277934777</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5545,7 +5545,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>-0.0004860668526249948</v>
+        <v>0.0004418246746521522</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5553,7 +5553,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>-0.0004874209530168862</v>
+        <v>0.0002815212023498874</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5561,7 +5561,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>-0.0004887594876464714</v>
+        <v>0.0001510291566320593</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5569,7 +5569,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>-0.0004899989216111771</v>
+        <v>0.0001506782793632468</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5577,7 +5577,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>-0.000491311709155162</v>
+        <v>0.0001505228630005443</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5585,7 +5585,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>-0.0004925474446765205</v>
+        <v>0.0001516710398885862</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5593,7 +5593,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>-0.0005034618400356717</v>
+        <v>0.0001512164898690972</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5601,7 +5601,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>-0.0005128409464257267</v>
+        <v>0.0001504235606867902</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5609,7 +5609,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>-0.000511271799643107</v>
+        <v>-0.0001406687234393245</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5617,7 +5617,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>-0.0005117784303118985</v>
+        <v>-0.0005405235604208442</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5625,7 +5625,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>-0.000512496565354392</v>
+        <v>-0.0005917805484599003</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5633,7 +5633,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>-0.0005131916724786335</v>
+        <v>-0.0005901911369904464</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5641,7 +5641,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>-0.0005138861632320985</v>
+        <v>-0.0005893569072539264</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5649,7 +5649,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>-0.0005046651589431487</v>
+        <v>-0.0005893856355580576</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5657,7 +5657,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>-0.0003531836379569922</v>
+        <v>-0.0005889968158385962</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5665,7 +5665,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>-0.0001628712397228069</v>
+        <v>-0.0007252933270845563</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5673,7 +5673,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>-0.000162028566885843</v>
+        <v>-0.00104115509389015</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5681,7 +5681,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>-0.0001612666663382003</v>
+        <v>-0.001038600474247706</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5689,7 +5689,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>-0.0001602894472040905</v>
+        <v>-0.00103615624905433</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5697,7 +5697,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>-0.0001594825248586916</v>
+        <v>-0.001033944907166364</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5705,7 +5705,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>-0.0001584423517826968</v>
+        <v>-0.001031808655328052</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5713,7 +5713,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>-9.13939985006016E-05</v>
+        <v>-0.001029027671596615</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5721,7 +5721,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>3.405548786071152E-05</v>
+        <v>-0.001026585928377268</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5729,7 +5729,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>8.775453742599849E-05</v>
+        <v>-0.0006961660116235355</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5737,7 +5737,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>8.864648612641506E-05</v>
+        <v>-0.0003434265920757815</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5745,7 +5745,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>8.95755460223478E-05</v>
+        <v>-0.0003165063345835324</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5753,7 +5753,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>9.062113147880556E-05</v>
+        <v>-0.0003156305241760516</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5761,7 +5761,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>9.157454107078605E-05</v>
+        <v>-0.0003149366841068904</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5769,7 +5769,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>8.71702439969605E-05</v>
+        <v>-0.0003150457095993336</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5777,7 +5777,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>2.020382607136577E-05</v>
+        <v>-0.0003144408618538671</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5785,7 +5785,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>-6.562714787110784E-05</v>
+        <v>-0.0002595089611553919</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5793,7 +5793,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>-6.452949594683081E-05</v>
+        <v>-0.0001153365821514962</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5801,7 +5801,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>-6.352316972641964E-05</v>
+        <v>-3.246840859277352E-05</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5809,7 +5809,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>-6.228594946681442E-05</v>
+        <v>-3.394457773791895E-05</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5817,7 +5817,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>-6.111990870050352E-05</v>
+        <v>-3.627440086021893E-05</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5825,7 +5825,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>-5.973570217379655E-05</v>
+        <v>-3.738750262596432E-05</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5833,7 +5833,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>-0.0001768957830753717</v>
+        <v>-3.93217159042516E-05</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5841,7 +5841,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>-0.0003544439609352145</v>
+        <v>-4.139547443530738E-05</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5849,7 +5849,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>-0.000401501462657957</v>
+        <v>-0.000226182152066323</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5857,7 +5857,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>-0.0004017486141918462</v>
+        <v>-0.0006255666969712389</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5865,7 +5865,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>-0.0004019348013355457</v>
+        <v>-0.0006194966189325873</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5873,7 +5873,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>-0.0004024069347322618</v>
+        <v>-0.0006134373767070399</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5881,7 +5881,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>-0.0004026637633791433</v>
+        <v>-0.0006053033141212172</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5889,7 +5889,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>-0.0004051230087164347</v>
+        <v>-0.0005984719256379376</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5897,7 +5897,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>-0.0004086171723482822</v>
+        <v>-0.0005915579251686218</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5905,7 +5905,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>-0.0003820130304698857</v>
+        <v>-0.0003844161762478038</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5913,7 +5913,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>-0.0003820832689668422</v>
+        <v>3.719956977406907E-05</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5921,7 +5921,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>-0.0003818037585861509</v>
+        <v>0.0001963589668908497</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5929,7 +5929,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>-0.0003818868801631503</v>
+        <v>0.0001917358504848759</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5937,7 +5937,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>-0.0003821836191789317</v>
+        <v>0.0001859138471633747</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5945,7 +5945,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>-0.0003822629091381015</v>
+        <v>0.0001800435707279226</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5953,7 +5953,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>-0.0002640665924151584</v>
+        <v>0.0001741962406583397</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5961,7 +5961,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>9.017247391100314E-05</v>
+        <v>0.0001644288582899755</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5969,7 +5969,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>0.0002436462433251156</v>
+        <v>5.07316490185148E-05</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5977,7 +5977,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>0.0002436336984378731</v>
+        <v>-4.709477629248811E-05</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5985,7 +5985,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>0.0002438523404960338</v>
+        <v>-5.227782727768659E-05</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5993,7 +5993,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>0.0002444888194998082</v>
+        <v>-5.805693822182296E-05</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6001,7 +6001,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>0.000244714460069335</v>
+        <v>-6.450160163545911E-05</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6009,7 +6009,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>0.0002963810465188381</v>
+        <v>-7.086933710328894E-05</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6017,7 +6017,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>0.0005868810214964676</v>
+        <v>-7.595543463758791E-05</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6025,7 +6025,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>0.0006346933899591689</v>
+        <v>-0.000303701041400394</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6033,7 +6033,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>0.0006342688623706602</v>
+        <v>-0.0008309891050057396</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6041,7 +6041,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>0.0006339045480130812</v>
+        <v>-0.001115916702700743</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6049,7 +6049,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>0.0006338215711513546</v>
+        <v>-0.001113135548039361</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6057,7 +6057,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>0.0006334791065404216</v>
+        <v>-0.001110288827679725</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6065,7 +6065,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>0.0006330579026368072</v>
+        <v>-0.001107333500741628</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6073,7 +6073,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>0.0005772258813703842</v>
+        <v>-0.001103923898277502</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6081,7 +6081,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>0.0004322515116508615</v>
+        <v>-0.001155312047119918</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6089,7 +6089,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>0.000374536991434433</v>
+        <v>-0.001895839356018635</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6097,7 +6097,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>0.0003745266662219176</v>
+        <v>-0.0020729972258836</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6105,7 +6105,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>0.0003742111094966671</v>
+        <v>-0.002060730838193414</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6113,7 +6113,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>0.0003739085992559521</v>
+        <v>-0.00204904851996541</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6121,7 +6121,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>0.0003736067392036354</v>
+        <v>-0.002038789984916626</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6129,7 +6129,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>0.0003452955748818612</v>
+        <v>-0.002027535655050325</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6137,7 +6137,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>7.991694194883421E-05</v>
+        <v>-0.002017683009894555</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6145,7 +6145,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>-0.0002257577936018082</v>
+        <v>-0.00174358198176884</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6153,7 +6153,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>-0.0002260775048440157</v>
+        <v>-0.000991336794745913</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6161,7 +6161,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>-0.0002258398973599927</v>
+        <v>-0.0006784077405384301</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6169,7 +6169,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>-0.0002263726911138611</v>
+        <v>-0.0006763496886760959</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6177,7 +6177,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>-0.0002265966590918024</v>
+        <v>-0.000675014705780842</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6185,7 +6185,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>-0.0002264922279301201</v>
+        <v>-0.000673361685173987</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6193,7 +6193,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>-0.0003793348879473537</v>
+        <v>-0.000671149150947085</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6201,7 +6201,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>-0.0004744941100038924</v>
+        <v>-0.0005718287236739831</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6209,7 +6209,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>-0.0004694783027315426</v>
+        <v>0.0003890648420765606</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6217,7 +6217,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>-0.0004697172226092968</v>
+        <v>0.001143491688601286</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6225,7 +6225,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>-0.0004696257677274784</v>
+        <v>0.001138128456338148</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6233,7 +6233,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>-0.0004695164896107446</v>
+        <v>0.00113193135014199</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6241,7 +6241,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>-0.0004696501196847657</v>
+        <v>0.001126176644222142</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6249,7 +6249,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>-0.0004491634854016333</v>
+        <v>0.001121333413763303</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6257,7 +6257,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>-0.0002788424257287015</v>
+        <v>0.001114344200741386</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6265,7 +6265,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>-0.0001381567037736663</v>
+        <v>0.001402634310973518</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6273,7 +6273,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>-0.000137824001370184</v>
+        <v>0.001766276959820628</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6281,7 +6281,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>-0.0001372238784830285</v>
+        <v>0.001860061819243864</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6289,7 +6289,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>-0.0001368460486117999</v>
+        <v>0.001860718373377956</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6297,7 +6297,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>-0.000136658477894614</v>
+        <v>0.001861923555489898</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6305,7 +6305,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>-0.0001357844922753186</v>
+        <v>0.001862644933586165</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6313,7 +6313,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>-6.105206883505117E-06</v>
+        <v>0.001863509969074389</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6321,7 +6321,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>0.0001672029174828407</v>
+        <v>0.001900403177876931</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6329,7 +6329,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>0.0002096707862680114</v>
+        <v>0.0003182343960262318</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6337,7 +6337,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>0.0002104922702968284</v>
+        <v>-7.406732476681017E-05</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6345,7 +6345,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>0.000211318393439676</v>
+        <v>-7.623755764880369E-05</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6353,7 +6353,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>0.0002119026330311344</v>
+        <v>-7.826736897565751E-05</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6361,7 +6361,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>0.0002125587714363066</v>
+        <v>-8.133500415408257E-05</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6369,7 +6369,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>0.0002379024451613809</v>
+        <v>-8.183905657482817E-05</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6377,7 +6377,7 @@
         <v>748</v>
       </c>
       <c r="B750">
-        <v>0.0003643880729020775</v>
+        <v>-8.443216207459659E-05</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6385,7 +6385,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>0.0004432533178869164</v>
+        <v>0.0002989453506200825</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6393,7 +6393,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>0.0004428729355529715</v>
+        <v>0.0006847054377836276</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6401,7 +6401,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>0.0004426015901759054</v>
+        <v>0.0007439791894690833</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6409,7 +6409,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>0.0004422025527353117</v>
+        <v>0.0007495594502717347</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6417,7 +6417,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>0.0004416294845386453</v>
+        <v>0.0007560362527678757</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6425,7 +6425,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>0.0004414194571056933</v>
+        <v>0.0007602148345081212</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6433,7 +6433,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>0.0005303910853423868</v>
+        <v>0.0007655307367310797</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6441,7 +6441,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>0.0005977218505176215</v>
+        <v>0.001747455765823112</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6449,7 +6449,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>0.0005853131229606795</v>
+        <v>0.001801040495784115</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6457,7 +6457,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>0.0005851547198137305</v>
+        <v>0.001490076814485191</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6465,7 +6465,7 @@
         <v>759</v>
       </c>
       <c r="B761">
-        <v>0.0005849919744876269</v>
+        <v>0.001491662533164638</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6473,7 +6473,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>0.0005846174812417449</v>
+        <v>0.001493502564751397</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6481,7 +6481,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>0.0005842506661146302</v>
+        <v>0.0014946748043603</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6489,7 +6489,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>0.0005903808596131802</v>
+        <v>0.001495505752989109</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6497,7 +6497,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>0.0005392640515788832</v>
+        <v>0.001496044525820073</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6505,7 +6505,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>0.0004155919611627024</v>
+        <v>0.001109008861096047</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6513,7 +6513,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>0.0004153225258399604</v>
+        <v>0.0002393971615359025</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6521,7 +6521,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>0.0004152293046015187</v>
+        <v>0.000115004960535382</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6529,7 +6529,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>0.0004153837134584709</v>
+        <v>0.0001072632207229093</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6537,7 +6537,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>0.0004149293019091254</v>
+        <v>9.966245510188814E-05</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6545,7 +6545,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>0.0004147211436313062</v>
+        <v>9.053931365883424E-05</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6553,7 +6553,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>0.0003745733768669791</v>
+        <v>8.233203595770587E-05</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6561,7 +6561,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>0.0002397517544396372</v>
+        <v>5.903583256315553E-06</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6569,7 +6569,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>0.0001903407014594608</v>
+        <v>-0.0001952631966742053</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6577,7 +6577,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>0.000190376178872725</v>
+        <v>-0.0002816056064140151</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6585,7 +6585,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>0.0001900354225793585</v>
+        <v>-0.0002841281848790038</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6593,7 +6593,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>0.0001898657558487867</v>
+        <v>-0.0002846392679565374</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6601,7 +6601,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>0.0001895704355271349</v>
+        <v>-0.0002867576356863059</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6609,7 +6609,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>0.0001659173494532709</v>
+        <v>-0.0002888348496970014</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6617,7 +6617,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>6.625638361319069E-06</v>
+        <v>-0.0002884893087075007</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6625,7 +6625,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>-0.0001039450841243164</v>
+        <v>0.0001355585595222452</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6633,7 +6633,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>-0.0001037426242036428</v>
+        <v>0.0005540763161531219</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6641,7 +6641,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>-0.0001044826045722032</v>
+        <v>0.0005846219201711174</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6649,7 +6649,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>-0.0001045921472100027</v>
+        <v>0.0005757754011579219</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6657,7 +6657,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>-0.0001042563614172951</v>
+        <v>0.0005661721590242557</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6665,7 +6665,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>-0.0001042088965564399</v>
+        <v>0.0005573137190462615</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6673,7 +6673,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>-0.0001303007395852566</v>
+        <v>0.000546882716642641</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6681,7 +6681,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>-0.000140249203195917</v>
+        <v>0.0008288030732107643</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6689,7 +6689,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>-0.0001395680049236302</v>
+        <v>0.001402196224308828</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6697,7 +6697,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>-0.0001397503779451548</v>
+        <v>0.001588862388307617</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6705,7 +6705,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>-0.0001394769040942114</v>
+        <v>0.001555141784612616</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6713,7 +6713,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>-0.0001392844618988718</v>
+        <v>0.001520234632226776</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6721,7 +6721,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>-0.0001394135164452675</v>
+        <v>0.001485659553490968</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6729,7 +6729,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>-0.0001287320256835129</v>
+        <v>0.001450007246183715</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6737,7 +6737,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>-6.868320671934414E-05</v>
+        <v>0.001415237417724273</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6745,7 +6745,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>-1.796629813791261E-05</v>
+        <v>0.00195260692071828</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6753,7 +6753,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>-1.811564913314516E-05</v>
+        <v>0.002358159534754999</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6761,7 +6761,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>-1.771419533686472E-05</v>
+        <v>0.002372252702589095</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6769,7 +6769,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>-1.740550518924845E-05</v>
+        <v>0.002365614316487521</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6777,7 +6777,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>-1.693790999941667E-05</v>
+        <v>0.002361425609441742</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6785,7 +6785,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>-1.669827859934732E-05</v>
+        <v>0.002354630313167586</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6793,7 +6793,7 @@
         <v>800</v>
       </c>
       <c r="B802">
-        <v>2.198712064721469E-05</v>
+        <v>0.002348097866909187</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6801,7 +6801,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>7.106555815586643E-05</v>
+        <v>0.002680256122165194</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6809,7 +6809,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>8.027458007151645E-05</v>
+        <v>0.002855874868235108</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6817,7 +6817,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>8.078860497718117E-05</v>
+        <v>0.002671499827558107</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6825,7 +6825,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>8.155301479568689E-05</v>
+        <v>0.002689485040496509</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6833,7 +6833,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>8.150537142939892E-05</v>
+        <v>0.002706988614529771</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6841,7 +6841,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>8.150925814519902E-05</v>
+        <v>0.002725270067607967</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6849,7 +6849,7 @@
         <v>807</v>
       </c>
       <c r="B809">
-        <v>8.30107788423792E-05</v>
+        <v>0.002742401798326893</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6857,7 +6857,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>7.954533510497999E-05</v>
+        <v>0.002759157439537764</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6865,7 +6865,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>6.88822895186984E-05</v>
+        <v>0.002392140258575448</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6873,7 +6873,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>6.890703317591165E-05</v>
+        <v>0.001916789761648601</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6881,7 +6881,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>6.854370835222212E-05</v>
+        <v>0.001923282211646505</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6889,7 +6889,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>6.862719763693035E-05</v>
+        <v>0.001940351149804823</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6897,7 +6897,7 @@
         <v>813</v>
       </c>
       <c r="B815">
-        <v>6.863783685015589E-05</v>
+        <v>0.001957733484881188</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6905,7 +6905,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>6.85736658295598E-05</v>
+        <v>0.001975360373245511</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6913,7 +6913,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>9.166243951783543E-05</v>
+        <v>0.001991579222456292</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6921,7 +6921,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>0.0001020648297608483</v>
+        <v>0.001886044816967665</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6929,7 +6929,7 @@
         <v>817</v>
       </c>
       <c r="B819">
-        <v>0.0001008142579797252</v>
+        <v>0.001536444557653011</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6937,7 +6937,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>0.0001005508780876857</v>
+        <v>0.001325729781016616</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6945,7 +6945,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>0.00010053852214363</v>
+        <v>0.001326476763748534</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6953,7 +6953,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>0.0001000047233633384</v>
+        <v>0.001326047604344815</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6961,7 +6961,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>9.90514878490917E-05</v>
+        <v>0.00132521459620327</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6969,7 +6969,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>0.0001315891950491978</v>
+        <v>0.001325955008300454</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6977,7 +6977,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>0.000231412304583809</v>
+        <v>0.001321336199248126</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6985,7 +6985,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>0.0002805064273713087</v>
+        <v>0.0009880763154008897</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6993,7 +6993,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>0.0002798195716758247</v>
+        <v>0.0005402575394631058</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7001,7 +7001,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>0.0002792409904881487</v>
+        <v>0.0005180299101447211</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7009,7 +7009,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>0.0002790221854642705</v>
+        <v>0.0004947994179108209</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7017,7 +7017,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>0.0002784177183410747</v>
+        <v>0.0004725431109003931</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7025,7 +7025,7 @@
         <v>829</v>
       </c>
       <c r="B831">
-        <v>0.0002775106190203553</v>
+        <v>0.0004495720509817001</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7033,7 +7033,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>0.0003753327264632517</v>
+        <v>0.0004255328387494942</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7041,7 +7041,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>0.0004761093495044396</v>
+        <v>0.0003239505712846139</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7049,7 +7049,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>0.0004897653864556592</v>
+        <v>0.0001136300912967685</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7057,7 +7057,7 @@
         <v>833</v>
       </c>
       <c r="B835">
-        <v>0.0004897665786542847</v>
+        <v>5.474639213663263E-06</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7065,7 +7065,7 @@
         <v>834</v>
       </c>
       <c r="B836">
-        <v>0.0004900106633201305</v>
+        <v>-9.70930219362053E-06</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7073,7 +7073,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>0.0004900890460985267</v>
+        <v>-2.373392611384981E-05</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7081,7 +7081,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>0.0004899533704518669</v>
+        <v>-4.032763896993757E-05</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7089,7 +7089,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>0.000487397164150525</v>
+        <v>-5.55250444935288E-05</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7097,7 +7097,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>0.0004293819271049041</v>
+        <v>-6.367972115846524E-05</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7105,1366 +7105,14 @@
         <v>839</v>
       </c>
       <c r="B841">
-        <v>0.0003615484239551105</v>
+        <v>5.603107511317091E-05</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" s="1">
         <v>840</v>
       </c>
-      <c r="B842">
-        <v>0.0003635336122947619</v>
-      </c>
-    </row>
-    <row r="843" spans="1:2">
-      <c r="A843" s="1">
-        <v>841</v>
-      </c>
-      <c r="B843">
-        <v>0.0003657925206806783</v>
-      </c>
-    </row>
-    <row r="844" spans="1:2">
-      <c r="A844" s="1">
-        <v>842</v>
-      </c>
-      <c r="B844">
-        <v>0.000367953317729077</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2">
-      <c r="A845" s="1">
-        <v>843</v>
-      </c>
-      <c r="B845">
-        <v>0.000369956671152343</v>
-      </c>
-    </row>
-    <row r="846" spans="1:2">
-      <c r="A846" s="1">
-        <v>844</v>
-      </c>
-      <c r="B846">
-        <v>0.0003721606473159076</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2">
-      <c r="A847" s="1">
-        <v>845</v>
-      </c>
-      <c r="B847">
-        <v>0.0002936820603628478</v>
-      </c>
-    </row>
-    <row r="848" spans="1:2">
-      <c r="A848" s="1">
-        <v>846</v>
-      </c>
-      <c r="B848">
-        <v>0.0001797075533559184</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2">
-      <c r="A849" s="1">
-        <v>847</v>
-      </c>
-      <c r="B849">
-        <v>0.0001596506295960472</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2">
-      <c r="A850" s="1">
-        <v>848</v>
-      </c>
-      <c r="B850">
-        <v>0.0001615206968471902</v>
-      </c>
-    </row>
-    <row r="851" spans="1:2">
-      <c r="A851" s="1">
-        <v>849</v>
-      </c>
-      <c r="B851">
-        <v>0.0001634087145227268</v>
-      </c>
-    </row>
-    <row r="852" spans="1:2">
-      <c r="A852" s="1">
-        <v>850</v>
-      </c>
-      <c r="B852">
-        <v>0.0001654066765702198</v>
-      </c>
-    </row>
-    <row r="853" spans="1:2">
-      <c r="A853" s="1">
-        <v>851</v>
-      </c>
-      <c r="B853">
-        <v>0.0001674391626952</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2">
-      <c r="A854" s="1">
-        <v>852</v>
-      </c>
-      <c r="B854">
-        <v>0.0001665028947494872</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2">
-      <c r="A855" s="1">
-        <v>853</v>
-      </c>
-      <c r="B855">
-        <v>0.0001444295859487375</v>
-      </c>
-    </row>
-    <row r="856" spans="1:2">
-      <c r="A856" s="1">
-        <v>854</v>
-      </c>
-      <c r="B856">
-        <v>0.0001159829555667653</v>
-      </c>
-    </row>
-    <row r="857" spans="1:2">
-      <c r="A857" s="1">
-        <v>855</v>
-      </c>
-      <c r="B857">
-        <v>0.0001163963118376718</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2">
-      <c r="A858" s="1">
-        <v>856</v>
-      </c>
-      <c r="B858">
-        <v>0.0001169482346007903</v>
-      </c>
-    </row>
-    <row r="859" spans="1:2">
-      <c r="A859" s="1">
-        <v>857</v>
-      </c>
-      <c r="B859">
-        <v>0.0001177977139698214</v>
-      </c>
-    </row>
-    <row r="860" spans="1:2">
-      <c r="A860" s="1">
-        <v>858</v>
-      </c>
-      <c r="B860">
-        <v>0.0001186751907394532</v>
-      </c>
-    </row>
-    <row r="861" spans="1:2">
-      <c r="A861" s="1">
-        <v>859</v>
-      </c>
-      <c r="B861">
-        <v>0.0001191970336921363</v>
-      </c>
-    </row>
-    <row r="862" spans="1:2">
-      <c r="A862" s="1">
-        <v>860</v>
-      </c>
-      <c r="B862">
-        <v>0.0001730931212029215</v>
-      </c>
-    </row>
-    <row r="863" spans="1:2">
-      <c r="A863" s="1">
-        <v>861</v>
-      </c>
-      <c r="B863">
-        <v>0.00021902194857846</v>
-      </c>
-    </row>
-    <row r="864" spans="1:2">
-      <c r="A864" s="1">
-        <v>862</v>
-      </c>
-      <c r="B864">
-        <v>0.0002229197554490542</v>
-      </c>
-    </row>
-    <row r="865" spans="1:2">
-      <c r="A865" s="1">
-        <v>863</v>
-      </c>
-      <c r="B865">
-        <v>0.0002218697967690388</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2">
-      <c r="A866" s="1">
-        <v>864</v>
-      </c>
-      <c r="B866">
-        <v>0.000220903857432958</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2">
-      <c r="A867" s="1">
-        <v>865</v>
-      </c>
-      <c r="B867">
-        <v>0.0002198310422251583</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2">
-      <c r="A868" s="1">
-        <v>866</v>
-      </c>
-      <c r="B868">
-        <v>0.0002186185910532804</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2">
-      <c r="A869" s="1">
-        <v>867</v>
-      </c>
-      <c r="B869">
-        <v>0.0002329933053771422</v>
-      </c>
-    </row>
-    <row r="870" spans="1:2">
-      <c r="A870" s="1">
-        <v>868</v>
-      </c>
-      <c r="B870">
-        <v>0.0002708374764517434</v>
-      </c>
-    </row>
-    <row r="871" spans="1:2">
-      <c r="A871" s="1">
-        <v>869</v>
-      </c>
-      <c r="B871">
-        <v>0.0002822034987671284</v>
-      </c>
-    </row>
-    <row r="872" spans="1:2">
-      <c r="A872" s="1">
-        <v>870</v>
-      </c>
-      <c r="B872">
-        <v>0.0002811595766906141</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2">
-      <c r="A873" s="1">
-        <v>871</v>
-      </c>
-      <c r="B873">
-        <v>0.0002798116595196096</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2">
-      <c r="A874" s="1">
-        <v>872</v>
-      </c>
-      <c r="B874">
-        <v>0.0002785272161339768</v>
-      </c>
-    </row>
-    <row r="875" spans="1:2">
-      <c r="A875" s="1">
-        <v>873</v>
-      </c>
-      <c r="B875">
-        <v>0.0002775592727168611</v>
-      </c>
-    </row>
-    <row r="876" spans="1:2">
-      <c r="A876" s="1">
-        <v>874</v>
-      </c>
-      <c r="B876">
-        <v>0.0002764312886214482</v>
-      </c>
-    </row>
-    <row r="877" spans="1:2">
-      <c r="A877" s="1">
-        <v>875</v>
-      </c>
-      <c r="B877">
-        <v>0.0002207174026036308</v>
-      </c>
-    </row>
-    <row r="878" spans="1:2">
-      <c r="A878" s="1">
-        <v>876</v>
-      </c>
-      <c r="B878">
-        <v>0.0001254032665138422</v>
-      </c>
-    </row>
-    <row r="879" spans="1:2">
-      <c r="A879" s="1">
-        <v>877</v>
-      </c>
-      <c r="B879">
-        <v>0.000113220309224422</v>
-      </c>
-    </row>
-    <row r="880" spans="1:2">
-      <c r="A880" s="1">
-        <v>878</v>
-      </c>
-      <c r="B880">
-        <v>0.0001152590047786763</v>
-      </c>
-    </row>
-    <row r="881" spans="1:2">
-      <c r="A881" s="1">
-        <v>879</v>
-      </c>
-      <c r="B881">
-        <v>0.00011733620726102</v>
-      </c>
-    </row>
-    <row r="882" spans="1:2">
-      <c r="A882" s="1">
-        <v>880</v>
-      </c>
-      <c r="B882">
-        <v>0.0001192815000001491</v>
-      </c>
-    </row>
-    <row r="883" spans="1:2">
-      <c r="A883" s="1">
-        <v>881</v>
-      </c>
-      <c r="B883">
-        <v>0.0001210721724193327</v>
-      </c>
-    </row>
-    <row r="884" spans="1:2">
-      <c r="A884" s="1">
-        <v>882</v>
-      </c>
-      <c r="B884">
-        <v>0.0001092626363137268</v>
-      </c>
-    </row>
-    <row r="885" spans="1:2">
-      <c r="A885" s="1">
-        <v>883</v>
-      </c>
-      <c r="B885">
-        <v>6.83412440598434E-05</v>
-      </c>
-    </row>
-    <row r="886" spans="1:2">
-      <c r="A886" s="1">
-        <v>884</v>
-      </c>
-      <c r="B886">
-        <v>4.195213293469923E-05</v>
-      </c>
-    </row>
-    <row r="887" spans="1:2">
-      <c r="A887" s="1">
-        <v>885</v>
-      </c>
-      <c r="B887">
-        <v>4.399417908808797E-05</v>
-      </c>
-    </row>
-    <row r="888" spans="1:2">
-      <c r="A888" s="1">
-        <v>886</v>
-      </c>
-      <c r="B888">
-        <v>4.574753518088763E-05</v>
-      </c>
-    </row>
-    <row r="889" spans="1:2">
-      <c r="A889" s="1">
-        <v>887</v>
-      </c>
-      <c r="B889">
-        <v>4.767732269915602E-05</v>
-      </c>
-    </row>
-    <row r="890" spans="1:2">
-      <c r="A890" s="1">
-        <v>888</v>
-      </c>
-      <c r="B890">
-        <v>4.979640220864907E-05</v>
-      </c>
-    </row>
-    <row r="891" spans="1:2">
-      <c r="A891" s="1">
-        <v>889</v>
-      </c>
-      <c r="B891">
-        <v>5.164564129000137E-05</v>
-      </c>
-    </row>
-    <row r="892" spans="1:2">
-      <c r="A892" s="1">
-        <v>890</v>
-      </c>
-      <c r="B892">
-        <v>0.0001203740709728717</v>
-      </c>
-    </row>
-    <row r="893" spans="1:2">
-      <c r="A893" s="1">
-        <v>891</v>
-      </c>
-      <c r="B893">
-        <v>0.0002235889451340289</v>
-      </c>
-    </row>
-    <row r="894" spans="1:2">
-      <c r="A894" s="1">
-        <v>892</v>
-      </c>
-      <c r="B894">
-        <v>0.0002382723363999906</v>
-      </c>
-    </row>
-    <row r="895" spans="1:2">
-      <c r="A895" s="1">
-        <v>893</v>
-      </c>
-      <c r="B895">
-        <v>0.0002397318246474986</v>
-      </c>
-    </row>
-    <row r="896" spans="1:2">
-      <c r="A896" s="1">
-        <v>894</v>
-      </c>
-      <c r="B896">
-        <v>0.0002409517269668313</v>
-      </c>
-    </row>
-    <row r="897" spans="1:2">
-      <c r="A897" s="1">
-        <v>895</v>
-      </c>
-      <c r="B897">
-        <v>0.0002425868924940885</v>
-      </c>
-    </row>
-    <row r="898" spans="1:2">
-      <c r="A898" s="1">
-        <v>896</v>
-      </c>
-      <c r="B898">
-        <v>0.0002440315280964168</v>
-      </c>
-    </row>
-    <row r="899" spans="1:2">
-      <c r="A899" s="1">
-        <v>897</v>
-      </c>
-      <c r="B899">
-        <v>0.0003121999727582022</v>
-      </c>
-    </row>
-    <row r="900" spans="1:2">
-      <c r="A900" s="1">
-        <v>898</v>
-      </c>
-      <c r="B900">
-        <v>0.0004493434869943112</v>
-      </c>
-    </row>
-    <row r="901" spans="1:2">
-      <c r="A901" s="1">
-        <v>899</v>
-      </c>
-      <c r="B901">
-        <v>0.0004626247197392602</v>
-      </c>
-    </row>
-    <row r="902" spans="1:2">
-      <c r="A902" s="1">
-        <v>900</v>
-      </c>
-      <c r="B902">
-        <v>0.0004623131246039592</v>
-      </c>
-    </row>
-    <row r="903" spans="1:2">
-      <c r="A903" s="1">
-        <v>901</v>
-      </c>
-      <c r="B903">
-        <v>0.0004617202533572734</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2">
-      <c r="A904" s="1">
-        <v>902</v>
-      </c>
-      <c r="B904">
-        <v>0.0004611407136969397</v>
-      </c>
-    </row>
-    <row r="905" spans="1:2">
-      <c r="A905" s="1">
-        <v>903</v>
-      </c>
-      <c r="B905">
-        <v>0.0004608501496345553</v>
-      </c>
-    </row>
-    <row r="906" spans="1:2">
-      <c r="A906" s="1">
-        <v>904</v>
-      </c>
-      <c r="B906">
-        <v>0.0004601369985065812</v>
-      </c>
-    </row>
-    <row r="907" spans="1:2">
-      <c r="A907" s="1">
-        <v>905</v>
-      </c>
-      <c r="B907">
-        <v>0.0004399521681649963</v>
-      </c>
-    </row>
-    <row r="908" spans="1:2">
-      <c r="A908" s="1">
-        <v>906</v>
-      </c>
-      <c r="B908">
-        <v>0.0003690769693116525</v>
-      </c>
-    </row>
-    <row r="909" spans="1:2">
-      <c r="A909" s="1">
-        <v>907</v>
-      </c>
-      <c r="B909">
-        <v>0.0003592047100095612</v>
-      </c>
-    </row>
-    <row r="910" spans="1:2">
-      <c r="A910" s="1">
-        <v>908</v>
-      </c>
-      <c r="B910">
-        <v>0.0003586342552693049</v>
-      </c>
-    </row>
-    <row r="911" spans="1:2">
-      <c r="A911" s="1">
-        <v>909</v>
-      </c>
-      <c r="B911">
-        <v>0.0003580965697958685</v>
-      </c>
-    </row>
-    <row r="912" spans="1:2">
-      <c r="A912" s="1">
-        <v>910</v>
-      </c>
-      <c r="B912">
-        <v>0.0003576597034292452</v>
-      </c>
-    </row>
-    <row r="913" spans="1:2">
-      <c r="A913" s="1">
-        <v>911</v>
-      </c>
-      <c r="B913">
-        <v>0.0003570664614049446</v>
-      </c>
-    </row>
-    <row r="914" spans="1:2">
-      <c r="A914" s="1">
-        <v>912</v>
-      </c>
-      <c r="B914">
-        <v>0.0003304559361829089</v>
-      </c>
-    </row>
-    <row r="915" spans="1:2">
-      <c r="A915" s="1">
-        <v>913</v>
-      </c>
-      <c r="B915">
-        <v>0.0001962763545845464</v>
-      </c>
-    </row>
-    <row r="916" spans="1:2">
-      <c r="A916" s="1">
-        <v>914</v>
-      </c>
-      <c r="B916">
-        <v>0.0001029033352990184</v>
-      </c>
-    </row>
-    <row r="917" spans="1:2">
-      <c r="A917" s="1">
-        <v>915</v>
-      </c>
-      <c r="B917">
-        <v>0.0001035534617097473</v>
-      </c>
-    </row>
-    <row r="918" spans="1:2">
-      <c r="A918" s="1">
-        <v>916</v>
-      </c>
-      <c r="B918">
-        <v>0.0001039924943093997</v>
-      </c>
-    </row>
-    <row r="919" spans="1:2">
-      <c r="A919" s="1">
-        <v>917</v>
-      </c>
-      <c r="B919">
-        <v>0.0001045551490449189</v>
-      </c>
-    </row>
-    <row r="920" spans="1:2">
-      <c r="A920" s="1">
-        <v>918</v>
-      </c>
-      <c r="B920">
-        <v>0.000105042050978927</v>
-      </c>
-    </row>
-    <row r="921" spans="1:2">
-      <c r="A921" s="1">
-        <v>919</v>
-      </c>
-      <c r="B921">
-        <v>0.000105572895891616</v>
-      </c>
-    </row>
-    <row r="922" spans="1:2">
-      <c r="A922" s="1">
-        <v>920</v>
-      </c>
-      <c r="B922">
-        <v>6.371448516096002E-05</v>
-      </c>
-    </row>
-    <row r="923" spans="1:2">
-      <c r="A923" s="1">
-        <v>921</v>
-      </c>
-      <c r="B923">
-        <v>1.101222013087014E-05</v>
-      </c>
-    </row>
-    <row r="924" spans="1:2">
-      <c r="A924" s="1">
-        <v>922</v>
-      </c>
-      <c r="B924">
-        <v>6.297740267981767E-06</v>
-      </c>
-    </row>
-    <row r="925" spans="1:2">
-      <c r="A925" s="1">
-        <v>923</v>
-      </c>
-      <c r="B925">
-        <v>6.367661902215833E-06</v>
-      </c>
-    </row>
-    <row r="926" spans="1:2">
-      <c r="A926" s="1">
-        <v>924</v>
-      </c>
-      <c r="B926">
-        <v>6.361404839329894E-06</v>
-      </c>
-    </row>
-    <row r="927" spans="1:2">
-      <c r="A927" s="1">
-        <v>925</v>
-      </c>
-      <c r="B927">
-        <v>6.133933493681779E-06</v>
-      </c>
-    </row>
-    <row r="928" spans="1:2">
-      <c r="A928" s="1">
-        <v>926</v>
-      </c>
-      <c r="B928">
-        <v>6.198480970430646E-06</v>
-      </c>
-    </row>
-    <row r="929" spans="1:2">
-      <c r="A929" s="1">
-        <v>927</v>
-      </c>
-      <c r="B929">
-        <v>1.532550357396048E-05</v>
-      </c>
-    </row>
-    <row r="930" spans="1:2">
-      <c r="A930" s="1">
-        <v>928</v>
-      </c>
-      <c r="B930">
-        <v>4.109910838928065E-05</v>
-      </c>
-    </row>
-    <row r="931" spans="1:2">
-      <c r="A931" s="1">
-        <v>929</v>
-      </c>
-      <c r="B931">
-        <v>5.21116898152522E-05</v>
-      </c>
-    </row>
-    <row r="932" spans="1:2">
-      <c r="A932" s="1">
-        <v>930</v>
-      </c>
-      <c r="B932">
-        <v>5.139765198806886E-05</v>
-      </c>
-    </row>
-    <row r="933" spans="1:2">
-      <c r="A933" s="1">
-        <v>931</v>
-      </c>
-      <c r="B933">
-        <v>5.089769991463085E-05</v>
-      </c>
-    </row>
-    <row r="934" spans="1:2">
-      <c r="A934" s="1">
-        <v>932</v>
-      </c>
-      <c r="B934">
-        <v>5.018170148272632E-05</v>
-      </c>
-    </row>
-    <row r="935" spans="1:2">
-      <c r="A935" s="1">
-        <v>933</v>
-      </c>
-      <c r="B935">
-        <v>4.971448784424369E-05</v>
-      </c>
-    </row>
-    <row r="936" spans="1:2">
-      <c r="A936" s="1">
-        <v>934</v>
-      </c>
-      <c r="B936">
-        <v>4.944573308357834E-05</v>
-      </c>
-    </row>
-    <row r="937" spans="1:2">
-      <c r="A937" s="1">
-        <v>935</v>
-      </c>
-      <c r="B937">
-        <v>4.992086795942729E-05</v>
-      </c>
-    </row>
-    <row r="938" spans="1:2">
-      <c r="A938" s="1">
-        <v>936</v>
-      </c>
-      <c r="B938">
-        <v>3.713267546867552E-05</v>
-      </c>
-    </row>
-    <row r="939" spans="1:2">
-      <c r="A939" s="1">
-        <v>937</v>
-      </c>
-      <c r="B939">
-        <v>3.630105961764262E-05</v>
-      </c>
-    </row>
-    <row r="940" spans="1:2">
-      <c r="A940" s="1">
-        <v>938</v>
-      </c>
-      <c r="B940">
-        <v>-0.0001590581034652522</v>
-      </c>
-    </row>
-    <row r="941" spans="1:2">
-      <c r="A941" s="1">
-        <v>939</v>
-      </c>
-      <c r="B941">
-        <v>-0.0001579263109761401</v>
-      </c>
-    </row>
-    <row r="942" spans="1:2">
-      <c r="A942" s="1">
-        <v>940</v>
-      </c>
-      <c r="B942">
-        <v>-0.0001568137088328881</v>
-      </c>
-    </row>
-    <row r="943" spans="1:2">
-      <c r="A943" s="1">
-        <v>941</v>
-      </c>
-      <c r="B943">
-        <v>-0.0001554231679249991</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2">
-      <c r="A944" s="1">
-        <v>942</v>
-      </c>
-      <c r="B944">
-        <v>-0.0001947366797358137</v>
-      </c>
-    </row>
-    <row r="945" spans="1:2">
-      <c r="A945" s="1">
-        <v>943</v>
-      </c>
-      <c r="B945">
-        <v>-0.0002704076615692836</v>
-      </c>
-    </row>
-    <row r="946" spans="1:2">
-      <c r="A946" s="1">
-        <v>944</v>
-      </c>
-      <c r="B946">
-        <v>-0.0002952295217184438</v>
-      </c>
-    </row>
-    <row r="947" spans="1:2">
-      <c r="A947" s="1">
-        <v>945</v>
-      </c>
-      <c r="B947">
-        <v>-0.0002948578177491457</v>
-      </c>
-    </row>
-    <row r="948" spans="1:2">
-      <c r="A948" s="1">
-        <v>946</v>
-      </c>
-      <c r="B948">
-        <v>-0.0002946312025732963</v>
-      </c>
-    </row>
-    <row r="949" spans="1:2">
-      <c r="A949" s="1">
-        <v>947</v>
-      </c>
-      <c r="B949">
-        <v>-0.0002947142751247959</v>
-      </c>
-    </row>
-    <row r="950" spans="1:2">
-      <c r="A950" s="1">
-        <v>948</v>
-      </c>
-      <c r="B950">
-        <v>-0.0002944364754994822</v>
-      </c>
-    </row>
-    <row r="951" spans="1:2">
-      <c r="A951" s="1">
-        <v>949</v>
-      </c>
-      <c r="B951">
-        <v>-0.0002940056439457765</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2">
-      <c r="A952" s="1">
-        <v>950</v>
-      </c>
-      <c r="B952">
-        <v>-0.0004073601937479518</v>
-      </c>
-    </row>
-    <row r="953" spans="1:2">
-      <c r="A953" s="1">
-        <v>951</v>
-      </c>
-      <c r="B953">
-        <v>-0.0004121796442070103</v>
-      </c>
-    </row>
-    <row r="954" spans="1:2">
-      <c r="A954" s="1">
-        <v>952</v>
-      </c>
-      <c r="B954">
-        <v>-0.0004126677792314004</v>
-      </c>
-    </row>
-    <row r="955" spans="1:2">
-      <c r="A955" s="1">
-        <v>953</v>
-      </c>
-      <c r="B955">
-        <v>-0.0004145522233448299</v>
-      </c>
-    </row>
-    <row r="956" spans="1:2">
-      <c r="A956" s="1">
-        <v>954</v>
-      </c>
-      <c r="B956">
-        <v>-0.0004163312199215612</v>
-      </c>
-    </row>
-    <row r="957" spans="1:2">
-      <c r="A957" s="1">
-        <v>955</v>
-      </c>
-      <c r="B957">
-        <v>-0.0004181296933395742</v>
-      </c>
-    </row>
-    <row r="958" spans="1:2">
-      <c r="A958" s="1">
-        <v>956</v>
-      </c>
-      <c r="B958">
-        <v>-0.0004198686407918272</v>
-      </c>
-    </row>
-    <row r="959" spans="1:2">
-      <c r="A959" s="1">
-        <v>957</v>
-      </c>
-      <c r="B959">
-        <v>-0.000418266062468644</v>
-      </c>
-    </row>
-    <row r="960" spans="1:2">
-      <c r="A960" s="1">
-        <v>958</v>
-      </c>
-      <c r="B960">
-        <v>-0.0003874077228364382</v>
-      </c>
-    </row>
-    <row r="961" spans="1:2">
-      <c r="A961" s="1">
-        <v>959</v>
-      </c>
-      <c r="B961">
-        <v>-0.0003681664154038642</v>
-      </c>
-    </row>
-    <row r="962" spans="1:2">
-      <c r="A962" s="1">
-        <v>960</v>
-      </c>
-      <c r="B962">
-        <v>-0.0003705792706425628</v>
-      </c>
-    </row>
-    <row r="963" spans="1:2">
-      <c r="A963" s="1">
-        <v>961</v>
-      </c>
-      <c r="B963">
-        <v>-0.000372974187121838</v>
-      </c>
-    </row>
-    <row r="964" spans="1:2">
-      <c r="A964" s="1">
-        <v>962</v>
-      </c>
-      <c r="B964">
-        <v>-0.0003752951733299227</v>
-      </c>
-    </row>
-    <row r="965" spans="1:2">
-      <c r="A965" s="1">
-        <v>963</v>
-      </c>
-      <c r="B965">
-        <v>-0.0003777492970773597</v>
-      </c>
-    </row>
-    <row r="966" spans="1:2">
-      <c r="A966" s="1">
-        <v>964</v>
-      </c>
-      <c r="B966">
-        <v>-0.0003800691831402166</v>
-      </c>
-    </row>
-    <row r="967" spans="1:2">
-      <c r="A967" s="1">
-        <v>965</v>
-      </c>
-      <c r="B967">
-        <v>-0.0003562646930155275</v>
-      </c>
-    </row>
-    <row r="968" spans="1:2">
-      <c r="A968" s="1">
-        <v>966</v>
-      </c>
-      <c r="B968">
-        <v>-0.0003166670635303475</v>
-      </c>
-    </row>
-    <row r="969" spans="1:2">
-      <c r="A969" s="1">
-        <v>967</v>
-      </c>
-      <c r="B969">
-        <v>-0.0003161391288193094</v>
-      </c>
-    </row>
-    <row r="970" spans="1:2">
-      <c r="A970" s="1">
-        <v>968</v>
-      </c>
-      <c r="B970">
-        <v>-0.0003166634363921998</v>
-      </c>
-    </row>
-    <row r="971" spans="1:2">
-      <c r="A971" s="1">
-        <v>969</v>
-      </c>
-      <c r="B971">
-        <v>-0.0003171529574554779</v>
-      </c>
-    </row>
-    <row r="972" spans="1:2">
-      <c r="A972" s="1">
-        <v>970</v>
-      </c>
-      <c r="B972">
-        <v>-0.0003175827964419832</v>
-      </c>
-    </row>
-    <row r="973" spans="1:2">
-      <c r="A973" s="1">
-        <v>971</v>
-      </c>
-      <c r="B973">
-        <v>-0.0003180138692816559</v>
-      </c>
-    </row>
-    <row r="974" spans="1:2">
-      <c r="A974" s="1">
-        <v>972</v>
-      </c>
-      <c r="B974">
-        <v>-0.0002886418799224984</v>
-      </c>
-    </row>
-    <row r="975" spans="1:2">
-      <c r="A975" s="1">
-        <v>973</v>
-      </c>
-      <c r="B975">
-        <v>-0.0002055169622181563</v>
-      </c>
-    </row>
-    <row r="976" spans="1:2">
-      <c r="A976" s="1">
-        <v>974</v>
-      </c>
-      <c r="B976">
-        <v>-0.0001533863620894775</v>
-      </c>
-    </row>
-    <row r="977" spans="1:2">
-      <c r="A977" s="1">
-        <v>975</v>
-      </c>
-      <c r="B977">
-        <v>-0.0001507091827783137</v>
-      </c>
-    </row>
-    <row r="978" spans="1:2">
-      <c r="A978" s="1">
-        <v>976</v>
-      </c>
-      <c r="B978">
-        <v>-0.0001481682548501812</v>
-      </c>
-    </row>
-    <row r="979" spans="1:2">
-      <c r="A979" s="1">
-        <v>977</v>
-      </c>
-      <c r="B979">
-        <v>-0.0001454945128366641</v>
-      </c>
-    </row>
-    <row r="980" spans="1:2">
-      <c r="A980" s="1">
-        <v>978</v>
-      </c>
-      <c r="B980">
-        <v>-0.0001428948556720224</v>
-      </c>
-    </row>
-    <row r="981" spans="1:2">
-      <c r="A981" s="1">
-        <v>979</v>
-      </c>
-      <c r="B981">
-        <v>-0.0001404337521455172</v>
-      </c>
-    </row>
-    <row r="982" spans="1:2">
-      <c r="A982" s="1">
-        <v>980</v>
-      </c>
-      <c r="B982">
-        <v>-7.483940106435716E-05</v>
-      </c>
-    </row>
-    <row r="983" spans="1:2">
-      <c r="A983" s="1">
-        <v>981</v>
-      </c>
-      <c r="B983">
-        <v>-4.712439272165049E-06</v>
-      </c>
-    </row>
-    <row r="984" spans="1:2">
-      <c r="A984" s="1">
-        <v>982</v>
-      </c>
-      <c r="B984">
-        <v>-1.906260684238016E-06</v>
-      </c>
-    </row>
-    <row r="985" spans="1:2">
-      <c r="A985" s="1">
-        <v>983</v>
-      </c>
-      <c r="B985">
-        <v>6.731455893274938E-07</v>
-      </c>
-    </row>
-    <row r="986" spans="1:2">
-      <c r="A986" s="1">
-        <v>984</v>
-      </c>
-      <c r="B986">
-        <v>3.301661273789068E-06</v>
-      </c>
-    </row>
-    <row r="987" spans="1:2">
-      <c r="A987" s="1">
-        <v>985</v>
-      </c>
-      <c r="B987">
-        <v>5.879837722776435E-06</v>
-      </c>
-    </row>
-    <row r="988" spans="1:2">
-      <c r="A988" s="1">
-        <v>986</v>
-      </c>
-      <c r="B988">
-        <v>8.460878326280792E-06</v>
-      </c>
-    </row>
-    <row r="989" spans="1:2">
-      <c r="A989" s="1">
-        <v>987</v>
-      </c>
-      <c r="B989">
-        <v>-7.259128065199928E-06</v>
-      </c>
-    </row>
-    <row r="990" spans="1:2">
-      <c r="A990" s="1">
-        <v>988</v>
-      </c>
-      <c r="B990">
-        <v>-4.551561060525143E-05</v>
-      </c>
-    </row>
-    <row r="991" spans="1:2">
-      <c r="A991" s="1">
-        <v>989</v>
-      </c>
-      <c r="B991">
-        <v>-6.433989155048504E-05</v>
-      </c>
-    </row>
-    <row r="992" spans="1:2">
-      <c r="A992" s="1">
-        <v>990</v>
-      </c>
-      <c r="B992">
-        <v>-6.293530605483246E-05</v>
-      </c>
-    </row>
-    <row r="993" spans="1:2">
-      <c r="A993" s="1">
-        <v>991</v>
-      </c>
-      <c r="B993">
-        <v>-6.160989672756792E-05</v>
-      </c>
-    </row>
-    <row r="994" spans="1:2">
-      <c r="A994" s="1">
-        <v>992</v>
-      </c>
-      <c r="B994">
-        <v>-6.013148777393101E-05</v>
-      </c>
-    </row>
-    <row r="995" spans="1:2">
-      <c r="A995" s="1">
-        <v>993</v>
-      </c>
-      <c r="B995">
-        <v>-5.872963699996904E-05</v>
-      </c>
-    </row>
-    <row r="996" spans="1:2">
-      <c r="A996" s="1">
-        <v>994</v>
-      </c>
-      <c r="B996">
-        <v>-5.911864598411944E-05</v>
-      </c>
-    </row>
-    <row r="997" spans="1:2">
-      <c r="A997" s="1">
-        <v>995</v>
-      </c>
-      <c r="B997">
-        <v>-0.0001862932059024855</v>
-      </c>
-    </row>
-    <row r="998" spans="1:2">
-      <c r="A998" s="1">
-        <v>996</v>
-      </c>
-      <c r="B998">
-        <v>-0.0002889540490734279</v>
-      </c>
-    </row>
-    <row r="999" spans="1:2">
-      <c r="A999" s="1">
-        <v>997</v>
-      </c>
-      <c r="B999">
-        <v>-0.0002907579464123556</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:2">
-      <c r="A1000" s="1">
-        <v>998</v>
-      </c>
-      <c r="B1000">
-        <v>-0.000292479288161013</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:2">
-      <c r="A1001" s="1">
-        <v>999</v>
-      </c>
-      <c r="B1001">
-        <v>-0.0002943135870315871</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:2">
-      <c r="A1002" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B1002">
-        <v>-0.0002960022835675317</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:2">
-      <c r="A1003" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B1003">
-        <v>-0.0002977638876274594</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:2">
-      <c r="A1004" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B1004">
-        <v>-0.0003412785351854736</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:2">
-      <c r="A1005" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B1005">
-        <v>-0.000413569135706644</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:2">
-      <c r="A1006" s="1">
-        <v>1004</v>
-      </c>
-      <c r="B1006">
-        <v>-0.0004424836822329166</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:2">
-      <c r="A1007" s="1">
-        <v>1005</v>
-      </c>
-      <c r="B1007">
-        <v>-0.0004434880799372261</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:2">
-      <c r="A1008" s="1">
-        <v>1006</v>
-      </c>
-      <c r="B1008">
-        <v>-0.0004443854526606621</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:2">
-      <c r="A1009" s="1">
-        <v>1007</v>
-      </c>
-      <c r="B1009">
-        <v>-0.0004449999850952678</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:2">
-      <c r="A1010" s="1">
-        <v>1008</v>
-      </c>
-      <c r="B1010">
-        <v>-0.0004449999850952755</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:2">
-      <c r="A1011" s="1">
-        <v>1009</v>
-      </c>
-      <c r="B1011" t="s">
+      <c r="B842" t="s">
         <v>1</v>
       </c>
     </row>

--- a/coefs_model_oil.xlsx
+++ b/coefs_model_oil.xlsx
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.001907753391423733</v>
+        <v>-0.001170020339448354</v>
       </c>
     </row>
     <row r="3">
@@ -454,144 +454,172 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.74005827 0.74005827 0.73999713 0.739923   0.73992304 0.73992327
-  0.73992337 0.73992376 0.73992396 0.73991053 0.73988457 0.73987485
-  0.73987481 0.73987552 0.73987582 0.73987579 0.73987862 0.73997524
-  0.74011486 0.74011523 0.74011508 0.74011524 0.74011551 0.74011569
-  0.74019354 0.74020076 0.74017548 0.74017549 0.74017541 0.74017528
-  0.74017535 0.74016919 0.74006253 0.73994297 0.73994285 0.73994295
-  0.73994305 0.73994299 0.73994281 0.73986647 0.73974583 0.7397167
-  0.73971708 0.73971717 0.73971749 0.73971788 0.73972234 0.73977743
-  0.73985186 0.73985251 0.73985278 0.73985286 0.73985349 0.73985405
-  0.73996915 0.74016018 0.74020151 0.74020204 0.7402025  0.74020267
-  0.74020308 0.74020818 0.74019375 0.74014184 0.74014222 0.74014252
-  0.74014255 0.74014286 0.74014301 0.74003253 0.73985758 0.73981762
-  0.73981774 0.73981795 0.73981773 0.73981783 0.73979482 0.73969873
-  0.73965535 0.73965551 0.73965545 0.73965551 0.73965544 0.7396555
-  0.73961494 0.73961814 0.73963302 0.73963277 0.73963291 0.7396332
-  0.73963296 0.73961101 0.7395798  0.73961436 0.73961407 0.73961422
-  0.73961449 0.73961395 0.73961396 0.73953444 0.73950423 0.73950788
-  0.73950774 0.73950776 0.73950775 0.73950775 0.73949563 0.73952611
-  0.73959675 0.73959674 0.73959668 0.73959674 0.73959688 0.73959691
-  0.73970652 0.7398595  0.73988191 0.73988193 0.73988177 0.73988187
-  0.7398818  0.73990564 0.73999009 0.7400477  0.74004763 0.74004761
-  0.74004759 0.74004765 0.74004758 0.74001151 0.73991985 0.73990952
-  0.7399094  0.7399094  0.7399088  0.73990887 0.73985554 0.73973932
-  0.73970738 0.73970727 0.73970705 0.73970674 0.73970695 0.73970712
-  0.73966654 0.73970015 0.7397047  0.73970471 0.73970483 0.73970458
-  0.73970461 0.73971062 0.73978084 0.73983847 0.73983857 0.73983874
-  0.73983878 0.73983853 0.73983843 0.73992795 0.73999301 0.73999427
-  0.73999426 0.739994   0.73999393 0.73999392 0.7400368  0.7401061
-  0.74013013 0.74013019 0.74013021 0.74013024 0.74013017 0.74013168
-  0.74026178 0.74036411 0.74036419 0.74036412 0.74036415 0.74036409
-  0.74036399 0.74038164 0.74031577 0.74025683 0.7402568  0.74025674
-  0.74025676 0.74025658 0.74025357 0.74015668 0.74000776 0.74000829
-  0.74000835 0.74000878 0.74000949 0.7400213  0.74000786 0.73999974
-  0.73999969 0.73999949 0.73999932 0.73999923 0.73998831 0.73989814
-  0.7398187  0.73981859 0.73981858 0.73981861 0.73981854 0.73981878
-  0.73996243 0.7399624  0.73996234 0.73996247 0.7399625  0.73989866
-  0.73965604 0.73961541 0.73961529 0.7396152  0.73961512 0.73961507
-  0.739615   0.73965328 0.73971942 0.7397319  0.73973175 0.73973168
-  0.73973165 0.73973151 0.73974859 0.73981899 0.73988163 0.7398816
-  0.73988161 0.73988172 0.73988156 0.7398815  0.73963591 0.73964211
-  0.73964215 0.7396422  0.73964214 0.73964208 0.73968095 0.7397886
-  0.73985202 0.73985206 0.73985217 0.73985216 0.73985199 0.73985218
-  0.7399252  0.74006226 0.74006954 0.7400695  0.74006968 0.74006972
-  0.74006962 0.74004488 0.73995455 0.73991897 0.73991898 0.73991886
-  0.73991866 0.7399189  0.73991883 0.73977269 0.73963682 0.73963581
-  0.73963578 0.7396358  0.73963569 0.73963596 0.73960696 0.73965805
-  0.73969876 0.73969898 0.73969904 0.73969896 0.73969883 0.73970191
-  0.73980791 0.73992456 0.73992459 0.73992482 0.73992456 0.73992455
-  0.7399247  0.74000615 0.74026695 0.74037218 0.74037167 0.74037192
-  0.74037218 0.74037192 0.74037714 0.74036131 0.74025686 0.7402566
-  0.7402567  0.74025684 0.74025677 0.74025684 0.74020853 0.74004164
-  0.73995623 0.73995615 0.73995652 0.73995627 0.73995633 0.73993703
-  0.73977047 0.7396945  0.73969445 0.73969472 0.73969484 0.73969469
-  0.73969447 0.73963873 0.73961401 0.73963096 0.73963078 0.73963046
-  0.7396306  0.73963086 0.73962371 0.73967644 0.73976174 0.73976169
-  0.73976194 0.73976177 0.73976167 0.73976188 0.73975222 0.73976393
-  0.73977303 0.73977314 0.73977349 0.73977376 0.73977408 0.73976209
-  0.73973683 0.73978378 0.73978404 0.74029291 0.74029284 0.74029799
-  0.74020869 0.74018884 0.7401888  0.74018858 0.74018833 0.74018829
-  0.74015223 0.74000052 0.73975796 0.73975797 0.73975818 0.73975807
-  0.73975795 0.73987778 0.7400701  0.74008432 0.74008466 0.74008435
-  0.74008433 0.74008458 0.74016077 0.7402307  0.74019774 0.74019807
-  0.74019801 0.74019791 0.740198   0.74019778 0.74014253 0.74006395
-  0.74006118 0.74006098 0.74006079 0.74006084 0.74006101 0.7400625
-  0.74003562 0.73996573 0.73996598 0.73996602 0.73996561 0.73996229
-  0.73988298 0.73982855 0.73982853 0.73982859 0.73982864 0.73982865
-  0.73982872 0.7398076  0.7397871  0.73979699 0.73979717 0.73979715
-  0.73979713 0.73979711 0.73980277 0.73991283 0.73998751 0.7399876
-  0.73998737 0.73998728 0.73998741 0.73998738 0.74002375 0.74006462
-  0.74006925 0.74006926 0.74006903 0.74006898 0.74006894 0.74007141
-  0.74004338 0.73998751 0.73998751 0.7399877  0.73998776 0.73998787
-  0.73998792 0.73999777 0.73999496 0.73998979 0.73998968 0.73993996
-  0.73994008 0.73990064 0.73978579 0.73977277 0.739773   0.73977312
-  0.73977347 0.73977368 0.73977377 0.73976673 0.73976503 0.73976541
-  0.73976535 0.73976536 0.73976529 0.73976525 0.73976253 0.73977135
-  0.73980802 0.73980775 0.73980738 0.73980706 0.73980677 0.73980633
-  0.73984831 0.73988663 0.73989201 0.739892   0.73989206 0.73989212
-  0.73989214 0.73988583 0.73986712 0.73985732 0.73985757 0.7398577
-  0.73985788 0.73985814 0.73985829 0.73983241 0.73982777 0.73982892
-  0.73982829 0.73982773 0.73982722 0.73982663 0.73983513 0.73987184
-  0.73989508 0.73989462 0.73989414 0.73989367 0.73989318 0.73989272
-  0.73994379 0.73998256 0.73998578 0.73998624 0.73998669 0.7399871
-  0.73998757 0.73999429 0.74000723 0.74001338 0.74001401 0.74001457
-  0.74001515 0.74001576 0.74001634 0.74000885 0.73998776 0.73998617
-  0.73998658 0.73998701 0.73998735 0.73998777 0.73997124 0.73990603
-  0.7398751  0.73987504 0.73987495 0.73987488 0.73987482 0.73987475
-  0.73987417 0.73988494 0.73988509 0.73988504 0.73988504 0.73988501
-  0.73988493 0.73990073 0.73992557 0.73997803 0.73997807 0.73997804
-  0.73997803 0.73997862 0.73998494 0.73997799 0.73997805 0.73997809
-  0.73997802 0.739978   0.73997807 0.73997497 0.73994941 0.73994092
-  0.73994093 0.73994091 0.73994093 0.73994094 0.73993887 0.73992461
-  0.73991569 0.73991576 0.73991581 0.73991587 0.73991596 0.73991605
-  0.73991285 0.73990799 0.73990653 0.73990653 0.73990661 0.73990673
-  0.73990679 0.73990848 0.73992108 0.739934   0.73993399 0.73993398
-  0.73993398 0.73993398 0.73993398 0.73995374 0.73998905 0.73999788
-  0.73999783 0.73999777 0.73999777 0.73999779 0.73999918 0.73999405
-  0.73998134 0.73998124 0.73998108 0.73998096 0.73998082 0.73998063
-  0.73996235 0.73993266 0.73992484 0.73992496 0.7399251  0.73992527
-  0.73992542 0.73991972 0.73989512 0.73987964 0.73988003 0.73988051
-  0.73988088 0.73988118 0.73988157 0.73987436 0.73986757 0.73986686
-  0.73986691 0.73986704 0.73986719 0.73986726 0.73986542 0.73986486
-  0.73987016 0.73987015 0.73987012 0.73987009 0.73987012 0.73987011
-  0.73987007 0.73987369 0.7398747  0.73987471 0.73987479 0.73987479
-  0.73987481 0.73987783 0.73989206 0.73990431 0.73990433 0.73990437
-  0.73990425 0.73990427 0.73990435 0.73992464 0.73995359 0.73995739
-  0.73995729 0.73995723 0.73995725 0.73995721 0.73996379 0.7399783
-  0.73997697 0.73997678 0.73997664 0.73997652 0.73997632 0.73997612
-  0.73995295 0.73993053 0.73992888 0.73992885 0.73992878 0.73992878
-  0.73992875 0.73992854 0.73992806 0.73992772 0.73992782 0.739928
-  0.73992807 0.73992819 0.73992833 0.73995695 0.73998857 0.73998985
-  0.73998979 0.73998967 0.73998965 0.73998955 0.74000951 0.74006553
-  0.74009515 0.74009451 0.74009397 0.7400934  0.74009266 0.74009212
-  0.74008398 0.74001656 0.74001615 0.74001574 0.74001514 0.74001468
-  0.74001416 0.7399859  0.73992617 0.73990299 0.73990327 0.73990364
-  0.73990408 0.73990451 0.73990439 0.73989596 0.73989141 0.73989178
-  0.73989218 0.73989261 0.73989306 0.73989341 0.73990278 0.73995941
-  0.73995928 0.73995917 0.73995904 0.73995893 0.73995649 0.73993072
-  0.73990661 0.73990692 0.73990737 0.7399078  0.73990811 0.73990856
-  0.73990188 0.73989267 0.73989017 0.7398901  0.73989004 0.73989001
-  0.7398899  0.73988896 0.73988358 0.73988227 0.73988216 0.73988197
-  0.73988195 0.7398819  0.73988163 0.73986987 0.73986028 0.73986103
-  0.7398612  0.73986117 0.73986109 0.73986117 0.73985096 0.73980779
-  0.73980432 0.73980457 0.73980469 0.73980491 0.73980487 0.739805
-  0.73977952 0.73978286 0.73978733 0.73978694 0.73978646 0.73978624
-  0.73978591 0.73978498 0.73980006 0.73981814 0.73990259 0.73990262
-  0.73990262 0.73990248 0.73992997 0.73996199 0.73996545 0.73996614
-  0.73996666 0.73996736 0.73996791 0.73997184 0.73997428 0.73997062
-  0.73997062 0.73997064 0.73997094 0.7399711  0.7399709  0.73991959
-  0.73986757 0.7398633  0.7398639  0.73986449 0.73986516 0.73986586
-  0.739831   0.73975978 0.73973497 0.73973716 0.73973966 0.73974217
-  0.73974452 0.73974698 0.7396971  0.73966412 0.7396631  0.73966356
-  0.73966379 0.73966415 0.73966462 0.73964842 0.73967131 0.73970539
-  0.73970447 0.73970355 0.7397025  0.73970156 0.73970069 0.73975136
-  0.73980317 0.73980302 0.73980176 0.73980053 0.73979927 0.73979811
-  0.73980237 0.73982008 0.73983154 0.73983152 0.73983162 0.73983165
-  0.73983159 0.73983163 0.73984107 0.73985989 0.73986146 0.73986304
-  0.73986452 0.73986609 0.73986776 0.73987848 0.73990276 0.73991522
-  0.73991628 0.73991721 0.73991831]]</t>
+          <t>[[0.27856866 0.27856866 0.27856865 0.27856862 0.27856864 0.27856865
+  0.27857337 0.27856369 0.27856096 0.278561   0.27856102 0.27856104
+  0.27856107 0.27856205 0.27855943 0.27855421 0.27855418 0.27855414
+  0.2785541  0.27855406 0.27855402 0.27855642 0.27854992 0.27854815
+  0.27854809 0.27854804 0.27854799 0.27854793 0.27854699 0.27854115
+  0.27853621 0.27853619 0.27853615 0.27853614 0.27853611 0.27853607
+  0.27853864 0.2785397  0.27853958 0.27853956 0.27853954 0.27853952
+  0.27853951 0.27854184 0.27854406 0.27853982 0.27853982 0.27853985
+  0.27853989 0.2785399  0.2785399  0.27853207 0.27852061 0.27851899
+  0.27851901 0.27851903 0.27851903 0.27851906 0.27851697 0.27850859
+  0.27850177 0.27850174 0.27850172 0.27850172 0.27850172 0.27850171
+  0.27850541 0.27850773 0.27850787 0.27850784 0.27850783 0.27850782
+  0.27850778 0.27851297 0.27852506 0.2785311  0.27853108 0.27853105
+  0.278531   0.27853096 0.27853092 0.27854523 0.27856255 0.27856412
+  0.2785641  0.27856406 0.27856402 0.278564   0.27856794 0.27856812
+  0.27856011 0.27856012 0.27856012 0.27856013 0.27856013 0.27856015
+  0.27854522 0.27852795 0.27852657 0.27852658 0.27852659 0.2785266
+  0.2785266  0.27852291 0.27851219 0.27850556 0.27850551 0.27850548
+  0.27850545 0.2785054  0.27850534 0.27849487 0.27848385 0.27848318
+  0.27848315 0.27848309 0.27848308 0.27848305 0.27847783 0.27846719
+  0.27846317 0.27846322 0.27846327 0.27846331 0.27846335 0.2784634
+  0.27846139 0.27846447 0.27846483 0.27846486 0.27846485 0.27846486
+  0.27846491 0.27847202 0.27849389 0.27850471 0.27850469 0.27850468
+  0.27850468 0.27850467 0.27850466 0.27851364 0.27851986 0.27852
+  0.27852002 0.27852003 0.27852003 0.27852005 0.27851683 0.27850777
+  0.27850217 0.27850219 0.27850219 0.27850217 0.27850217 0.27850217
+  0.27848562 0.27846935 0.27846922 0.27846927 0.2784693  0.27846932
+  0.27846937 0.27847228 0.27848146 0.27849922 0.2784992  0.27849918
+  0.27849917 0.27849865 0.27847766 0.2784655  0.27846548 0.27846547
+  0.27846546 0.27846545 0.27846545 0.27845701 0.27844519 0.27844253
+  0.27844258 0.27844262 0.27844265 0.27844269 0.27844261 0.27844351
+  0.27845072 0.27845075 0.27845077 0.27845077 0.27845078 0.27845081
+  0.2784532  0.27845964 0.27846313 0.27846315 0.27846316 0.27846317
+  0.27846319 0.27846283 0.27845667 0.27845305 0.27845305 0.27845306
+  0.27845306 0.27845306 0.27845308 0.27844072 0.27842643 0.27843017
+  0.27843017 0.27843015 0.27843016 0.27843016 0.27843091 0.2784551
+  0.27847244 0.2784724  0.27847237 0.27847233 0.2784723  0.27847227
+  0.27847519 0.27848016 0.27848211 0.27848211 0.27848211 0.27848211
+  0.27848212 0.27848201 0.27848078 0.27848055 0.27848078 0.278481
+  0.27848125 0.27848148 0.2784817  0.27848    0.27848242 0.27848701
+  0.27848736 0.27848767 0.278488   0.27848834 0.27848827 0.27848708
+  0.2784879  0.27848792 0.27848794 0.27848796 0.27848798 0.27848802
+  0.2784858  0.27848282 0.27848202 0.27848204 0.27848205 0.27848207
+  0.27848209 0.27848164 0.27847819 0.27847654 0.27847655 0.27847657
+  0.27847657 0.27847657 0.27847658 0.27847419 0.27847263 0.27847306
+  0.27847306 0.27847305 0.27847304 0.27847301 0.27847205 0.27846806
+  0.27846907 0.27846912 0.27846916 0.2784692  0.27846926 0.27846931
+  0.27846678 0.27846619 0.27846673 0.27846676 0.27846679 0.27846681
+  0.27846686 0.27846595 0.27846016 0.27845725 0.27845728 0.2784573
+  0.2784573  0.27845732 0.27845735 0.27845373 0.27846062 0.27846641
+  0.2784664  0.27846638 0.27846636 0.27846632 0.27846888 0.27848521
+  0.27849716 0.27849714 0.27849712 0.2784971  0.27849704 0.27849704
+  0.27850575 0.27851909 0.27852258 0.27852256 0.27852256 0.27852255
+  0.27852254 0.27852466 0.27853269 0.27853402 0.27853401 0.278534
+  0.27853399 0.27853398 0.27853403 0.27853044 0.27852301 0.27852074
+  0.27852073 0.27852074 0.27852074 0.27852073 0.27851813 0.27850482
+  0.27849465 0.27849465 0.27849466 0.27849467 0.27849466 0.27849463
+  0.27848564 0.2784734  0.27847051 0.27847056 0.27847058 0.27847058
+  0.27847058 0.27846922 0.2784638  0.27846218 0.27846218 0.27846218
+  0.2784622  0.2784622  0.27846221 0.27846867 0.27848746 0.27849269
+  0.27849267 0.27849263 0.27849261 0.27849261 0.27849617 0.27851217
+  0.27852146 0.27852147 0.27852144 0.27852143 0.27852142 0.27852139
+  0.27852056 0.27851447 0.27851281 0.27851282 0.27851284 0.27851285
+  0.27851283 0.27850896 0.27849451 0.27848628 0.27848624 0.27848624
+  0.27848623 0.2784862  0.27848617 0.27847731 0.27846833 0.27846703
+  0.27846702 0.27846701 0.27846698 0.27846697 0.27846556 0.2784644
+  0.27846731 0.27846731 0.27846731 0.27846729 0.27846732 0.27846734
+  0.27846995 0.27847774 0.27847966 0.27847968 0.27847972 0.27847972
+  0.27847972 0.27848219 0.27849434 0.27850378 0.27850377 0.27850379
+  0.27850382 0.27850383 0.27850382 0.27851441 0.27852397 0.27852508
+  0.27852508 0.27852512 0.27852512 0.2785251  0.27852651 0.27852878
+  0.27852844 0.27852848 0.27852848 0.27852849 0.27852854 0.27852856
+  0.27852235 0.2785107  0.27850857 0.27850861 0.27850861 0.27850863
+  0.27850867 0.2785034  0.27848368 0.27847267 0.27847267 0.27847268
+  0.27847269 0.27847269 0.27847267 0.27847158 0.27847564 0.2784764
+  0.27847644 0.27847643 0.27847643 0.27847645 0.27848006 0.27849237
+  0.27850042 0.27850042 0.27850043 0.27850046 0.27850047 0.27850049
+  0.27850354 0.27850698 0.27850728 0.27850726 0.2785073  0.27850731
+  0.27850727 0.2785007  0.27848222 0.27847472 0.27847473 0.2784747
+  0.27847469 0.27847467 0.27847465 0.27846231 0.27845361 0.27845311
+  0.27845311 0.27845311 0.2784531  0.27845306 0.2784548  0.27846792
+  0.27848126 0.27848128 0.27848129 0.27848128 0.27848127 0.27848126
+  0.2785085  0.27853537 0.27853712 0.27853711 0.27853711 0.27853711
+  0.27853712 0.27853901 0.27853807 0.27853364 0.27853362 0.27853362
+  0.27853362 0.27853361 0.2785336  0.27850569 0.27847842 0.278477
+  0.27847702 0.27847705 0.27847707 0.2784771  0.27847091 0.2784583
+  0.27845366 0.27845368 0.27845372 0.27845376 0.2784538  0.27845383
+  0.27846486 0.27849256 0.2784942  0.2785317  0.2785317  0.27853169
+  0.27852426 0.27849823 0.27848081 0.27848083 0.27848083 0.2784808
+  0.27848078 0.2784808  0.27845401 0.27844621 0.27844629 0.27844632
+  0.27844633 0.27844636 0.27844638 0.27844692 0.27845374 0.27845837
+  0.27845828 0.27845818 0.27845808 0.27845797 0.27845787 0.27845608
+  0.27846004 0.27845978 0.27845951 0.27845923 0.27845896 0.27845869
+  0.27845963 0.27847124 0.2784796  0.27847959 0.27847958 0.27847955
+  0.27847951 0.27847991 0.27850537 0.27852347 0.27852358 0.27852368
+  0.27852374 0.27852378 0.27852381 0.27853094 0.27854065 0.2785433
+  0.27854339 0.27854341 0.27854344 0.27854344 0.27854304 0.27852919
+  0.2785124  0.27851191 0.27851143 0.27851094 0.27851047 0.27851001
+  0.27849382 0.27846861 0.27846019 0.27846041 0.27846061 0.2784608
+  0.27846102 0.27846054 0.27844717 0.27843393 0.27843446 0.27843497
+  0.27843543 0.2784359  0.27843639 0.27843478 0.27843722 0.2784479
+  0.27844773 0.27844761 0.27844753 0.2784474  0.27845005 0.27850644
+  0.2785482  0.27854778 0.27854738 0.27854692 0.27854651 0.27854611
+  0.27856018 0.27858699 0.27859481 0.27859478 0.27859465 0.27859458
+  0.27859455 0.27859532 0.27857441 0.27852825 0.27852835 0.27852847
+  0.27852859 0.27852875 0.2785288  0.27851397 0.27849017 0.27848214
+  0.27848229 0.27848245 0.27848266 0.27848273 0.27848198 0.27847172
+  0.27846336 0.27846322 0.27846314 0.2784632  0.278463   0.27846283
+  0.27846443 0.27848103 0.27848722 0.27848715 0.27848699 0.27848692
+  0.27848684 0.27848692 0.27848848 0.27849088 0.27849092 0.27849093
+  0.27849095 0.27849107 0.27849109 0.27848699 0.27848082 0.27847983
+  0.27847971 0.27847967 0.2784797  0.27847966 0.27848    0.2784873
+  0.27849553 0.27849557 0.27849552 0.27849538 0.27849534 0.27849537
+  0.2785078  0.27852493 0.27852943 0.27852938 0.27852939 0.27852934
+  0.27852933 0.27853277 0.27855486 0.27856735 0.27856731 0.27856712
+  0.2785672  0.27856714 0.27856701 0.27857292 0.2785608  0.27855423
+  0.27855426 0.2785542  0.27855412 0.27855414 0.27855143 0.27853155
+  0.27851449 0.27851432 0.27851414 0.27851401 0.27851387 0.27851357
+  0.27850401 0.27848703 0.27848186 0.27848168 0.27848151 0.27848135
+  0.27848123 0.2784803  0.27847776 0.27847982 0.27847993 0.2784801
+  0.27848013 0.27848017 0.27848037 0.27849343 0.27851443 0.27851891
+  0.27851878 0.27851865 0.27851868 0.27851861 0.27852227 0.27853633
+  0.27854183 0.27854187 0.27854186 0.27854178 0.27854182 0.27854181
+  0.27854635 0.278549   0.27854837 0.27854832 0.27854835 0.2785484
+  0.27854842 0.27854803 0.27853349 0.27851217 0.27851214 0.27851231
+  0.2785123  0.2785122  0.27851224 0.27849948 0.27848551 0.27848304
+  0.27848314 0.27848311 0.27848302 0.27848301 0.27848325 0.27848581
+  0.27848929 0.27848929 0.27848919 0.2784891  0.27848902 0.27848898
+  0.2785031  0.27852079 0.27852398 0.27852384 0.2785237  0.27852365
+  0.27852356 0.27852848 0.2785463  0.27855518 0.27855504 0.27855493
+  0.27855481 0.2785548  0.2785547  0.27856289 0.27856012 0.27855709
+  0.27855692 0.27855664 0.27855653 0.27855642 0.27855244 0.27853111
+  0.27851468 0.27851444 0.27851415 0.27851383 0.27851357 0.27851334
+  0.27850248 0.27848643 0.27848316 0.27848287 0.27848257 0.27848236
+  0.27848208 0.27848139 0.27848321 0.27848715 0.27848715 0.27848706
+  0.278487   0.278487   0.27848691 0.27849923 0.27851464 0.27851704
+  0.27851721 0.27851748 0.27851766 0.27851774 0.27852248 0.27853484
+  0.2785374  0.27853717 0.27853698 0.27853676 0.27853647 0.27853624
+  0.27853347 0.27852509 0.27852318 0.2785226  0.27852199 0.27852141
+  0.2785208  0.27851934 0.27851347 0.27850736 0.27850638 0.27850538
+  0.27850444 0.27850341 0.2785024  0.27849664 0.27849124 0.27849046
+  0.27848996 0.27848951 0.27848903 0.27848849 0.27848764 0.27848754
+  0.27848848 0.27848865 0.27848889 0.27848912 0.27848934 0.27848961
+  0.27848931 0.27849121 0.27849197 0.27849222 0.27849246 0.27849279
+  0.27849306 0.27849401 0.27849755 0.27849943 0.27849924 0.27849903
+  0.27849887 0.27849865 0.27849843 0.27850096 0.27850335 0.2785031
+  0.27850262 0.27850214 0.27850166 0.2785012  0.27849905 0.27849383
+  0.27849148 0.27849108 0.27849066 0.27849022 0.27848981 0.27848939
+  0.27848154 0.27847777 0.2784777  0.27847775 0.27847781 0.27847786
+  0.27847792 0.27847741 0.27847841 0.27848061 0.27848038 0.27848012
+  0.27847991 0.27847966 0.27847939 0.27849247 0.27851223 0.27851333
+  0.27851309 0.27851282 0.27851259 0.27851236 0.27852476 0.2785474
+  0.27855173 0.2785518  0.27855186 0.27855193 0.278552   0.27855208
+  0.27855998 0.27855667 0.278556   0.27855575 0.2785555  0.27855523
+  0.27855498 0.27855519 0.2785497  0.2785436  0.2785437  0.27854381
+  0.27854392 0.27854403 0.27854411 0.27854231 0.27852998 0.27852945
+  0.27852953 0.27852961 0.27852972 0.27852979 0.27852751 0.27851893
+  0.27851385 0.27851339 0.27851288 0.27851238 0.27851193 0.27851141
+  0.27851126 0.27851029 0.27851013 0.27851004 0.27850989 0.27850975
+  0.27850962 0.27851286 0.27852023 0.27852355 0.27852415 0.27852478
+  0.27852543 0.27852608 0.27852673 0.27853198 0.27853312 0.27853388
+  0.27853462 0.27853541 0.27853614 0.27853682 0.27853728 0.2785333
+  0.27852945 0.27853019 0.27853091 0.27853162 0.27853237 0.27853294
+  0.27852377 0.27851197 0.27851204 0.2785122  0.27851226 0.27851225
+  0.27851235 0.27851272 0.2785126  0.27851212 0.27851188 0.27851168
+  0.27851139 0.27851139]]</t>
         </is>
       </c>
     </row>

--- a/coefs_model_oil.xlsx
+++ b/coefs_model_oil.xlsx
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.001170020339448354</v>
+        <v>-0.0009958858447361443</v>
       </c>
     </row>
     <row r="3">
@@ -454,172 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.27856866 0.27856866 0.27856865 0.27856862 0.27856864 0.27856865
-  0.27857337 0.27856369 0.27856096 0.278561   0.27856102 0.27856104
-  0.27856107 0.27856205 0.27855943 0.27855421 0.27855418 0.27855414
-  0.2785541  0.27855406 0.27855402 0.27855642 0.27854992 0.27854815
-  0.27854809 0.27854804 0.27854799 0.27854793 0.27854699 0.27854115
-  0.27853621 0.27853619 0.27853615 0.27853614 0.27853611 0.27853607
-  0.27853864 0.2785397  0.27853958 0.27853956 0.27853954 0.27853952
-  0.27853951 0.27854184 0.27854406 0.27853982 0.27853982 0.27853985
-  0.27853989 0.2785399  0.2785399  0.27853207 0.27852061 0.27851899
-  0.27851901 0.27851903 0.27851903 0.27851906 0.27851697 0.27850859
-  0.27850177 0.27850174 0.27850172 0.27850172 0.27850172 0.27850171
-  0.27850541 0.27850773 0.27850787 0.27850784 0.27850783 0.27850782
-  0.27850778 0.27851297 0.27852506 0.2785311  0.27853108 0.27853105
-  0.278531   0.27853096 0.27853092 0.27854523 0.27856255 0.27856412
-  0.2785641  0.27856406 0.27856402 0.278564   0.27856794 0.27856812
-  0.27856011 0.27856012 0.27856012 0.27856013 0.27856013 0.27856015
-  0.27854522 0.27852795 0.27852657 0.27852658 0.27852659 0.2785266
-  0.2785266  0.27852291 0.27851219 0.27850556 0.27850551 0.27850548
-  0.27850545 0.2785054  0.27850534 0.27849487 0.27848385 0.27848318
-  0.27848315 0.27848309 0.27848308 0.27848305 0.27847783 0.27846719
-  0.27846317 0.27846322 0.27846327 0.27846331 0.27846335 0.2784634
-  0.27846139 0.27846447 0.27846483 0.27846486 0.27846485 0.27846486
-  0.27846491 0.27847202 0.27849389 0.27850471 0.27850469 0.27850468
-  0.27850468 0.27850467 0.27850466 0.27851364 0.27851986 0.27852
-  0.27852002 0.27852003 0.27852003 0.27852005 0.27851683 0.27850777
-  0.27850217 0.27850219 0.27850219 0.27850217 0.27850217 0.27850217
-  0.27848562 0.27846935 0.27846922 0.27846927 0.2784693  0.27846932
-  0.27846937 0.27847228 0.27848146 0.27849922 0.2784992  0.27849918
-  0.27849917 0.27849865 0.27847766 0.2784655  0.27846548 0.27846547
-  0.27846546 0.27846545 0.27846545 0.27845701 0.27844519 0.27844253
-  0.27844258 0.27844262 0.27844265 0.27844269 0.27844261 0.27844351
-  0.27845072 0.27845075 0.27845077 0.27845077 0.27845078 0.27845081
-  0.2784532  0.27845964 0.27846313 0.27846315 0.27846316 0.27846317
-  0.27846319 0.27846283 0.27845667 0.27845305 0.27845305 0.27845306
-  0.27845306 0.27845306 0.27845308 0.27844072 0.27842643 0.27843017
-  0.27843017 0.27843015 0.27843016 0.27843016 0.27843091 0.2784551
-  0.27847244 0.2784724  0.27847237 0.27847233 0.2784723  0.27847227
-  0.27847519 0.27848016 0.27848211 0.27848211 0.27848211 0.27848211
-  0.27848212 0.27848201 0.27848078 0.27848055 0.27848078 0.278481
-  0.27848125 0.27848148 0.2784817  0.27848    0.27848242 0.27848701
-  0.27848736 0.27848767 0.278488   0.27848834 0.27848827 0.27848708
-  0.2784879  0.27848792 0.27848794 0.27848796 0.27848798 0.27848802
-  0.2784858  0.27848282 0.27848202 0.27848204 0.27848205 0.27848207
-  0.27848209 0.27848164 0.27847819 0.27847654 0.27847655 0.27847657
-  0.27847657 0.27847657 0.27847658 0.27847419 0.27847263 0.27847306
-  0.27847306 0.27847305 0.27847304 0.27847301 0.27847205 0.27846806
-  0.27846907 0.27846912 0.27846916 0.2784692  0.27846926 0.27846931
-  0.27846678 0.27846619 0.27846673 0.27846676 0.27846679 0.27846681
-  0.27846686 0.27846595 0.27846016 0.27845725 0.27845728 0.2784573
-  0.2784573  0.27845732 0.27845735 0.27845373 0.27846062 0.27846641
-  0.2784664  0.27846638 0.27846636 0.27846632 0.27846888 0.27848521
-  0.27849716 0.27849714 0.27849712 0.2784971  0.27849704 0.27849704
-  0.27850575 0.27851909 0.27852258 0.27852256 0.27852256 0.27852255
-  0.27852254 0.27852466 0.27853269 0.27853402 0.27853401 0.278534
-  0.27853399 0.27853398 0.27853403 0.27853044 0.27852301 0.27852074
-  0.27852073 0.27852074 0.27852074 0.27852073 0.27851813 0.27850482
-  0.27849465 0.27849465 0.27849466 0.27849467 0.27849466 0.27849463
-  0.27848564 0.2784734  0.27847051 0.27847056 0.27847058 0.27847058
-  0.27847058 0.27846922 0.2784638  0.27846218 0.27846218 0.27846218
-  0.2784622  0.2784622  0.27846221 0.27846867 0.27848746 0.27849269
-  0.27849267 0.27849263 0.27849261 0.27849261 0.27849617 0.27851217
-  0.27852146 0.27852147 0.27852144 0.27852143 0.27852142 0.27852139
-  0.27852056 0.27851447 0.27851281 0.27851282 0.27851284 0.27851285
-  0.27851283 0.27850896 0.27849451 0.27848628 0.27848624 0.27848624
-  0.27848623 0.2784862  0.27848617 0.27847731 0.27846833 0.27846703
-  0.27846702 0.27846701 0.27846698 0.27846697 0.27846556 0.2784644
-  0.27846731 0.27846731 0.27846731 0.27846729 0.27846732 0.27846734
-  0.27846995 0.27847774 0.27847966 0.27847968 0.27847972 0.27847972
-  0.27847972 0.27848219 0.27849434 0.27850378 0.27850377 0.27850379
-  0.27850382 0.27850383 0.27850382 0.27851441 0.27852397 0.27852508
-  0.27852508 0.27852512 0.27852512 0.2785251  0.27852651 0.27852878
-  0.27852844 0.27852848 0.27852848 0.27852849 0.27852854 0.27852856
-  0.27852235 0.2785107  0.27850857 0.27850861 0.27850861 0.27850863
-  0.27850867 0.2785034  0.27848368 0.27847267 0.27847267 0.27847268
-  0.27847269 0.27847269 0.27847267 0.27847158 0.27847564 0.2784764
-  0.27847644 0.27847643 0.27847643 0.27847645 0.27848006 0.27849237
-  0.27850042 0.27850042 0.27850043 0.27850046 0.27850047 0.27850049
-  0.27850354 0.27850698 0.27850728 0.27850726 0.2785073  0.27850731
-  0.27850727 0.2785007  0.27848222 0.27847472 0.27847473 0.2784747
-  0.27847469 0.27847467 0.27847465 0.27846231 0.27845361 0.27845311
-  0.27845311 0.27845311 0.2784531  0.27845306 0.2784548  0.27846792
-  0.27848126 0.27848128 0.27848129 0.27848128 0.27848127 0.27848126
-  0.2785085  0.27853537 0.27853712 0.27853711 0.27853711 0.27853711
-  0.27853712 0.27853901 0.27853807 0.27853364 0.27853362 0.27853362
-  0.27853362 0.27853361 0.2785336  0.27850569 0.27847842 0.278477
-  0.27847702 0.27847705 0.27847707 0.2784771  0.27847091 0.2784583
-  0.27845366 0.27845368 0.27845372 0.27845376 0.2784538  0.27845383
-  0.27846486 0.27849256 0.2784942  0.2785317  0.2785317  0.27853169
-  0.27852426 0.27849823 0.27848081 0.27848083 0.27848083 0.2784808
-  0.27848078 0.2784808  0.27845401 0.27844621 0.27844629 0.27844632
-  0.27844633 0.27844636 0.27844638 0.27844692 0.27845374 0.27845837
-  0.27845828 0.27845818 0.27845808 0.27845797 0.27845787 0.27845608
-  0.27846004 0.27845978 0.27845951 0.27845923 0.27845896 0.27845869
-  0.27845963 0.27847124 0.2784796  0.27847959 0.27847958 0.27847955
-  0.27847951 0.27847991 0.27850537 0.27852347 0.27852358 0.27852368
-  0.27852374 0.27852378 0.27852381 0.27853094 0.27854065 0.2785433
-  0.27854339 0.27854341 0.27854344 0.27854344 0.27854304 0.27852919
-  0.2785124  0.27851191 0.27851143 0.27851094 0.27851047 0.27851001
-  0.27849382 0.27846861 0.27846019 0.27846041 0.27846061 0.2784608
-  0.27846102 0.27846054 0.27844717 0.27843393 0.27843446 0.27843497
-  0.27843543 0.2784359  0.27843639 0.27843478 0.27843722 0.2784479
-  0.27844773 0.27844761 0.27844753 0.2784474  0.27845005 0.27850644
-  0.2785482  0.27854778 0.27854738 0.27854692 0.27854651 0.27854611
-  0.27856018 0.27858699 0.27859481 0.27859478 0.27859465 0.27859458
-  0.27859455 0.27859532 0.27857441 0.27852825 0.27852835 0.27852847
-  0.27852859 0.27852875 0.2785288  0.27851397 0.27849017 0.27848214
-  0.27848229 0.27848245 0.27848266 0.27848273 0.27848198 0.27847172
-  0.27846336 0.27846322 0.27846314 0.2784632  0.278463   0.27846283
-  0.27846443 0.27848103 0.27848722 0.27848715 0.27848699 0.27848692
-  0.27848684 0.27848692 0.27848848 0.27849088 0.27849092 0.27849093
-  0.27849095 0.27849107 0.27849109 0.27848699 0.27848082 0.27847983
-  0.27847971 0.27847967 0.2784797  0.27847966 0.27848    0.2784873
-  0.27849553 0.27849557 0.27849552 0.27849538 0.27849534 0.27849537
-  0.2785078  0.27852493 0.27852943 0.27852938 0.27852939 0.27852934
-  0.27852933 0.27853277 0.27855486 0.27856735 0.27856731 0.27856712
-  0.2785672  0.27856714 0.27856701 0.27857292 0.2785608  0.27855423
-  0.27855426 0.2785542  0.27855412 0.27855414 0.27855143 0.27853155
-  0.27851449 0.27851432 0.27851414 0.27851401 0.27851387 0.27851357
-  0.27850401 0.27848703 0.27848186 0.27848168 0.27848151 0.27848135
-  0.27848123 0.2784803  0.27847776 0.27847982 0.27847993 0.2784801
-  0.27848013 0.27848017 0.27848037 0.27849343 0.27851443 0.27851891
-  0.27851878 0.27851865 0.27851868 0.27851861 0.27852227 0.27853633
-  0.27854183 0.27854187 0.27854186 0.27854178 0.27854182 0.27854181
-  0.27854635 0.278549   0.27854837 0.27854832 0.27854835 0.2785484
-  0.27854842 0.27854803 0.27853349 0.27851217 0.27851214 0.27851231
-  0.2785123  0.2785122  0.27851224 0.27849948 0.27848551 0.27848304
-  0.27848314 0.27848311 0.27848302 0.27848301 0.27848325 0.27848581
-  0.27848929 0.27848929 0.27848919 0.2784891  0.27848902 0.27848898
-  0.2785031  0.27852079 0.27852398 0.27852384 0.2785237  0.27852365
-  0.27852356 0.27852848 0.2785463  0.27855518 0.27855504 0.27855493
-  0.27855481 0.2785548  0.2785547  0.27856289 0.27856012 0.27855709
-  0.27855692 0.27855664 0.27855653 0.27855642 0.27855244 0.27853111
-  0.27851468 0.27851444 0.27851415 0.27851383 0.27851357 0.27851334
-  0.27850248 0.27848643 0.27848316 0.27848287 0.27848257 0.27848236
-  0.27848208 0.27848139 0.27848321 0.27848715 0.27848715 0.27848706
-  0.278487   0.278487   0.27848691 0.27849923 0.27851464 0.27851704
-  0.27851721 0.27851748 0.27851766 0.27851774 0.27852248 0.27853484
-  0.2785374  0.27853717 0.27853698 0.27853676 0.27853647 0.27853624
-  0.27853347 0.27852509 0.27852318 0.2785226  0.27852199 0.27852141
-  0.2785208  0.27851934 0.27851347 0.27850736 0.27850638 0.27850538
-  0.27850444 0.27850341 0.2785024  0.27849664 0.27849124 0.27849046
-  0.27848996 0.27848951 0.27848903 0.27848849 0.27848764 0.27848754
-  0.27848848 0.27848865 0.27848889 0.27848912 0.27848934 0.27848961
-  0.27848931 0.27849121 0.27849197 0.27849222 0.27849246 0.27849279
-  0.27849306 0.27849401 0.27849755 0.27849943 0.27849924 0.27849903
-  0.27849887 0.27849865 0.27849843 0.27850096 0.27850335 0.2785031
-  0.27850262 0.27850214 0.27850166 0.2785012  0.27849905 0.27849383
-  0.27849148 0.27849108 0.27849066 0.27849022 0.27848981 0.27848939
-  0.27848154 0.27847777 0.2784777  0.27847775 0.27847781 0.27847786
-  0.27847792 0.27847741 0.27847841 0.27848061 0.27848038 0.27848012
-  0.27847991 0.27847966 0.27847939 0.27849247 0.27851223 0.27851333
-  0.27851309 0.27851282 0.27851259 0.27851236 0.27852476 0.2785474
-  0.27855173 0.2785518  0.27855186 0.27855193 0.278552   0.27855208
-  0.27855998 0.27855667 0.278556   0.27855575 0.2785555  0.27855523
-  0.27855498 0.27855519 0.2785497  0.2785436  0.2785437  0.27854381
-  0.27854392 0.27854403 0.27854411 0.27854231 0.27852998 0.27852945
-  0.27852953 0.27852961 0.27852972 0.27852979 0.27852751 0.27851893
-  0.27851385 0.27851339 0.27851288 0.27851238 0.27851193 0.27851141
-  0.27851126 0.27851029 0.27851013 0.27851004 0.27850989 0.27850975
-  0.27850962 0.27851286 0.27852023 0.27852355 0.27852415 0.27852478
-  0.27852543 0.27852608 0.27852673 0.27853198 0.27853312 0.27853388
-  0.27853462 0.27853541 0.27853614 0.27853682 0.27853728 0.2785333
-  0.27852945 0.27853019 0.27853091 0.27853162 0.27853237 0.27853294
-  0.27852377 0.27851197 0.27851204 0.2785122  0.27851226 0.27851225
-  0.27851235 0.27851272 0.2785126  0.27851212 0.27851188 0.27851168
-  0.27851139 0.27851139]]</t>
+          <t>[[0.27258999 0.27258999 0.27258997 ... 0.2716503  0.27164796 0.27164796]]</t>
         </is>
       </c>
     </row>

--- a/coefs_model_oil.xlsx
+++ b/coefs_model_oil.xlsx
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0009958858447361443</v>
+        <v>-0.002483701997476889</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +454,149 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.27258999 0.27258999 0.27258997 ... 0.2716503  0.27164796 0.27164796]]</t>
+          <t>[[0.71367106 0.71367106 0.71362878 0.71355056 0.71355094 0.71355144
+  0.71355164 0.71355241 0.71355273 0.71353609 0.71349497 0.71347493
+  0.71347477 0.71347638 0.71347703 0.71347674 0.71348185 0.71363916
+  0.71383318 0.71383404 0.71383353 0.71383391 0.71383451 0.71383488
+  0.71394948 0.71392686 0.71387576 0.71387586 0.71387576 0.71387533
+  0.71303882 0.71313447 0.71327619 0.71327738 0.71327782 0.71327796
+  0.71327941 0.71328043 0.71352126 0.71393557 0.71402896 0.71403011
+  0.71403122 0.71403152 0.71403231 0.71405309 0.7140852  0.71401399
+  0.71401489 0.71401558 0.71401551 0.71401641 0.71401668 0.71379124
+  0.71341261 0.71332285 0.71332299 0.71332362 0.71332304 0.71332319
+  0.71325793 0.71296943 0.71282037 0.71282082 0.71282062 0.71282053
+  0.71282044 0.71282064 0.71266275 0.71258712 0.71260829 0.71260763
+  0.71260793 0.71260841 0.71260779 0.71255851 0.71252799 0.71265895
+  0.71265817 0.71265866 0.71265935 0.71265787 0.71265787 0.71254975
+  0.71257974 0.71260509 0.7126049  0.71260505 0.712605   0.71260504
+  0.7125879  0.71267908 0.7128393  0.71283933 0.71283906 0.71283917
+  0.71283963 0.71283964 0.71304385 0.71333302 0.71337577 0.71337599
+  0.71337544 0.71337554 0.71337547 0.71341716 0.7135671  0.71367138
+  0.71367112 0.71367115 0.7136709  0.71367125 0.71367128 0.71357694
+  0.71339437 0.71337624 0.71337625 0.71337627 0.71337476 0.7133749
+  0.71325445 0.71300827 0.71294984 0.71294954 0.71294921 0.71294866
+  0.71294904 0.71294945 0.71281849 0.71287397 0.71288402 0.7128841
+  0.71288431 0.71288365 0.71288384 0.7128713  0.71299098 0.71312475
+  0.71312491 0.71312531 0.71312546 0.7131249  0.71312436 0.71333414
+  0.71353491 0.71353907 0.71353915 0.71353852 0.71353829 0.71353823
+  0.71364585 0.71382865 0.71389592 0.7138961  0.71389612 0.71389609
+  0.71389595 0.71389944 0.7141961  0.71443991 0.71444027 0.71444012
+  0.71444016 0.71443998 0.71443973 0.71448884 0.7143627  0.71423868
+  0.71423859 0.71423847 0.71423866 0.7142382  0.71423319 0.71404813
+  0.71373595 0.71373714 0.71373713 0.71373793 0.7137395  0.71373937
+  0.71367664 0.71354904 0.71350418 0.71350493 0.71350632 0.71350671
+  0.71350724 0.71351819 0.71362322 0.71370749 0.71370785 0.7137078
+  0.71370734 0.71370754 0.71370771 0.71311883 0.713166   0.71316532
+  0.71316484 0.7131647  0.71316412 0.7132565  0.71359322 0.71372158
+  0.71372105 0.71372041 0.71371954 0.71371901 0.71371864 0.71385168
+  0.71398199 0.7140091  0.71400901 0.7140089  0.71400893 0.71400884
+  0.71401547 0.71403679 0.71404024 0.71404015 0.71404014 0.71404031
+  0.71404029 0.71404021 0.71395423 0.71362803 0.71349142 0.71349141
+  0.71349119 0.71349152 0.71349162 0.71336598 0.7129202  0.71286472
+  0.71286439 0.71286429 0.71286411 0.71286404 0.7128639  0.71298307
+  0.71315471 0.71318514 0.71318473 0.71318454 0.71318449 0.71318415
+  0.71322821 0.71340141 0.71354636 0.71354628 0.71354639 0.71354655
+  0.71354622 0.71354605 0.71350307 0.71275701 0.71275711 0.71275714
+  0.71275703 0.71275685 0.71284336 0.71308857 0.71323596 0.71323607
+  0.71323631 0.71323625 0.71323576 0.7132363  0.7133738  0.71293969
+  0.7129395  0.71293957 0.71293938 0.7129399  0.71291625 0.71305367
+  0.71313691 0.7131375  0.71313768 0.71313747 0.71313721 0.71314382
+  0.71336916 0.71360672 0.71360675 0.71360735 0.7136067  0.71360662
+  0.71360701 0.71377919 0.71429957 0.71448074 0.71447975 0.7144801
+  0.71448091 0.71448026 0.71448912 0.71442083 0.71417059 0.71416997
+  0.7141701  0.71417052 0.71417013 0.71417033 0.71410695 0.7138364
+  0.7136824  0.71368201 0.71368297 0.71368223 0.71368234 0.7136501
+  0.7133326  0.71315094 0.71315073 0.71315144 0.71315177 0.71315128
+  0.7131507  0.71298113 0.71280287 0.71279843 0.71279783 0.71279717
+  0.71279757 0.71279811 0.7127558  0.71274025 0.71289741 0.7128972
+  0.71289794 0.71289747 0.71289712 0.71289769 0.71287309 0.71292796
+  0.71296314 0.71296339 0.71296417 0.71296472 0.7129655  0.71295123
+  0.71302392 0.71323742 0.7132381  0.71323793 0.713238   0.71323815
+  0.7132384  0.71335252 0.7134888  0.71351542 0.7135155  0.71351597
+  0.71351565 0.71351595 0.71353419 0.71361836 0.71368622 0.71365028
+  0.71365004 0.71364991 0.71331706 0.71291457 0.71288614 0.71288584
+  0.7128852  0.71288561 0.71288572 0.71285706 0.71292555 0.71302446
+  0.71302443 0.71302442 0.71302485 0.71302438 0.71302421 0.71327591
+  0.71370831 0.7137418  0.71374289 0.71374205 0.71374188 0.7137425
+  0.71392796 0.7141617  0.71411821 0.71411894 0.7141189  0.71411835
+  0.71411861 0.71411832 0.71401955 0.71385955 0.71385387 0.71385329
+  0.71385263 0.7138528  0.71385324 0.71386867 0.71382874 0.71373941
+  0.7137398  0.7137401  0.71373979 0.71373937 0.71374079 0.71377816
+  0.71372475 0.71372473 0.71372494 0.71372495 0.71372493 0.71372442
+  0.71372321 0.71366804 0.71362268 0.71362243 0.71362304 0.71362332
+  0.71362222 0.71361366 0.71339951 0.71324272 0.71324249 0.71324258
+  0.71324296 0.71324284 0.71324303 0.71318325 0.71311412 0.71313316
+  0.7131337  0.71313364 0.71313357 0.71313369 0.71314799 0.71343537
+  0.71363457 0.71363479 0.71363426 0.71363399 0.71363437 0.71363424
+  0.71372165 0.71381871 0.71382891 0.71382905 0.71382855 0.71382821
+  0.71382833 0.71382605 0.71369521 0.71353932 0.7135393  0.71353982
+  0.71353984 0.71354012 0.71354031 0.7135199  0.7134768  0.71346447
+  0.71346408 0.71346364 0.71346366 0.71346374 0.71349055 0.71365811
+  0.7137079  0.71370704 0.71370705 0.71370689 0.71370632 0.71370624
+  0.71374385 0.71371361 0.71368883 0.71368918 0.71368881 0.71368828
+  0.71368867 0.71362581 0.71334205 0.71326931 0.71326982 0.71327004
+  0.71327085 0.71327134 0.71327147 0.71321946 0.71317291 0.71316465
+  0.71316455 0.71316456 0.71316439 0.71316432 0.71315186 0.71313549
+  0.71318571 0.7131852  0.71318449 0.71318388 0.71318327 0.71318244
+  0.71328257 0.7133753  0.71338837 0.71338835 0.71338844 0.71338856
+  0.71338864 0.7133785  0.71335042 0.71333777 0.71333828 0.71333854
+  0.7133389  0.71333945 0.71333972 0.71328371 0.71327209 0.71327434
+  0.71327302 0.71327188 0.71327083 0.71326962 0.71328266 0.7133482
+  0.71339264 0.71339169 0.71339068 0.71338975 0.71338873 0.71338777
+  0.71349075 0.71357287 0.7135798  0.71358071 0.71358162 0.71358247
+  0.71358341 0.71359863 0.71362883 0.71364354 0.71364481 0.71364591
+  0.71364707 0.71364827 0.71364943 0.71364325 0.71361538 0.71361324
+  0.71361408 0.71361496 0.71361565 0.71361649 0.71360547 0.71352859
+  0.71347737 0.71347729 0.71347708 0.71347691 0.71347679 0.71347668
+  0.71350884 0.71352331 0.71352339 0.71352328 0.71352326 0.71352322
+  0.71352306 0.7135433  0.71357155 0.71358121 0.71358137 0.71358148
+  0.71358162 0.71358174 0.71358184 0.71357768 0.71357154 0.71357174
+  0.71357192 0.71357204 0.71357228 0.71357244 0.71355336 0.71349972
+  0.71346831 0.7134685  0.71346858 0.71346854 0.7134685  0.71346564
+  0.71340937 0.71334699 0.71334712 0.71334719 0.71334704 0.71334697
+  0.71334713 0.71334854 0.71340503 0.71342541 0.71342546 0.71342539
+  0.71342543 0.71342547 0.71342843 0.71345163 0.7134669  0.71346705
+  0.71346716 0.7134673  0.71346748 0.71346768 0.71346728 0.71346708
+  0.71346733 0.71346734 0.71346751 0.71346774 0.71346785 0.71347111
+  0.71349406 0.71351577 0.71351575 0.71351572 0.71351572 0.7135157
+  0.71351569 0.71355947 0.71363435 0.71365184 0.71365176 0.71365163
+  0.71365163 0.71365169 0.71365481 0.71364169 0.71361102 0.71361079
+  0.71361045 0.71361024 0.71360993 0.7136095  0.71355924 0.71347958
+  0.71345884 0.71345909 0.71345937 0.71345972 0.71346004 0.71344252
+  0.71336907 0.71332459 0.71332535 0.71332629 0.71332698 0.71332756
+  0.71332829 0.71331259 0.71330254 0.71330281 0.71330286 0.71330314
+  0.71330342 0.71330349 0.71330643 0.71333502 0.71336776 0.71336773
+  0.71336765 0.71336757 0.71336764 0.71352655 0.71352383 0.71352375
+  0.71352362 0.71352361 0.71352357 0.71352396 0.71352253 0.71352016
+  0.71352037 0.71352075 0.71352089 0.71352111 0.71352139 0.71357265
+  0.71362688 0.71362905 0.71362892 0.71362867 0.71362864 0.71362845
+  0.71366806 0.71377745 0.71383312 0.71383181 0.71383071 0.71382952
+  0.71382803 0.71382698 0.71380692 0.7136644  0.71366355 0.71366267
+  0.71366148 0.71366049 0.71365939 0.71359572 0.71346421 0.71341403
+  0.71341455 0.71341528 0.71341621 0.71341713 0.71341622 0.71338637
+  0.71336929 0.71337006 0.71337083 0.71337165 0.71337257 0.71337331
+  0.71338395 0.71341075 0.71342658 0.71342625 0.71342585 0.71352722
+  0.71352898 0.71353851 0.71353258 0.71353317 0.71353415 0.71353497
+  0.71353556 0.71353652 0.71354635 0.71355661 0.71355894 0.71355878
+  0.71355868 0.7135586  0.71355839 0.71355833 0.71355139 0.71353404
+  0.71353384 0.71353342 0.7135335  0.71353346 0.71353273 0.71346487
+  0.71334464 0.71331522 0.71331556 0.71331556 0.71331531 0.71331552
+  0.71328268 0.71313411 0.71310562 0.71310613 0.71310638 0.71310696
+  0.71310677 0.71310687 0.71309553 0.71316973 0.71319241 0.71319161
+  0.7131907  0.7131902  0.71318956 0.71319814 0.71326223 0.71331446
+  0.71331503 0.71331618 0.71331731 0.71331814 0.71331898 0.71331975
+  0.7133298  0.71333429 0.71333604 0.71333787 0.71333939 0.713341
+  0.71332676 0.71327205 0.71364558 0.71364562 0.71364625 0.71364662
+  0.71364613 0.71355539 0.71345365 0.71344477 0.71344595 0.71344704
+  0.71344851 0.71344987 0.71334889 0.71312741 0.71303946 0.71304391
+  0.71304902 0.71305424 0.71305901 0.71306407 0.71290754 0.71279158
+  0.71278672 0.71278767 0.71278804 0.71278858 0.71278949 0.71275685
+  0.71283897 0.71293674 0.71293562 0.71293441 0.71293301 0.71293186
+  0.71293082 0.71309041 0.71323952 0.71324004 0.71323748 0.71323492
+  0.71323236 0.71323004 0.71324397 0.71328958 0.71331666 0.71331664
+  0.71331695 0.71331695 0.7133168  0.71331655 0.71331584 0.7133332
+  0.71333644 0.71333968 0.71334266 0.71334591 0.71334937 0.71335867
+  0.71338615 0.7134038  0.71340586]]</t>
         </is>
       </c>
     </row>

--- a/coefs_model_oil.xlsx
+++ b/coefs_model_oil.xlsx
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.002483701997476889</v>
+        <v>0.07521330654115554</v>
       </c>
     </row>
     <row r="3">
@@ -454,149 +454,161 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.71367106 0.71367106 0.71362878 0.71355056 0.71355094 0.71355144
-  0.71355164 0.71355241 0.71355273 0.71353609 0.71349497 0.71347493
-  0.71347477 0.71347638 0.71347703 0.71347674 0.71348185 0.71363916
-  0.71383318 0.71383404 0.71383353 0.71383391 0.71383451 0.71383488
-  0.71394948 0.71392686 0.71387576 0.71387586 0.71387576 0.71387533
-  0.71303882 0.71313447 0.71327619 0.71327738 0.71327782 0.71327796
-  0.71327941 0.71328043 0.71352126 0.71393557 0.71402896 0.71403011
-  0.71403122 0.71403152 0.71403231 0.71405309 0.7140852  0.71401399
-  0.71401489 0.71401558 0.71401551 0.71401641 0.71401668 0.71379124
-  0.71341261 0.71332285 0.71332299 0.71332362 0.71332304 0.71332319
-  0.71325793 0.71296943 0.71282037 0.71282082 0.71282062 0.71282053
-  0.71282044 0.71282064 0.71266275 0.71258712 0.71260829 0.71260763
-  0.71260793 0.71260841 0.71260779 0.71255851 0.71252799 0.71265895
-  0.71265817 0.71265866 0.71265935 0.71265787 0.71265787 0.71254975
-  0.71257974 0.71260509 0.7126049  0.71260505 0.712605   0.71260504
-  0.7125879  0.71267908 0.7128393  0.71283933 0.71283906 0.71283917
-  0.71283963 0.71283964 0.71304385 0.71333302 0.71337577 0.71337599
-  0.71337544 0.71337554 0.71337547 0.71341716 0.7135671  0.71367138
-  0.71367112 0.71367115 0.7136709  0.71367125 0.71367128 0.71357694
-  0.71339437 0.71337624 0.71337625 0.71337627 0.71337476 0.7133749
-  0.71325445 0.71300827 0.71294984 0.71294954 0.71294921 0.71294866
-  0.71294904 0.71294945 0.71281849 0.71287397 0.71288402 0.7128841
-  0.71288431 0.71288365 0.71288384 0.7128713  0.71299098 0.71312475
-  0.71312491 0.71312531 0.71312546 0.7131249  0.71312436 0.71333414
-  0.71353491 0.71353907 0.71353915 0.71353852 0.71353829 0.71353823
-  0.71364585 0.71382865 0.71389592 0.7138961  0.71389612 0.71389609
-  0.71389595 0.71389944 0.7141961  0.71443991 0.71444027 0.71444012
-  0.71444016 0.71443998 0.71443973 0.71448884 0.7143627  0.71423868
-  0.71423859 0.71423847 0.71423866 0.7142382  0.71423319 0.71404813
-  0.71373595 0.71373714 0.71373713 0.71373793 0.7137395  0.71373937
-  0.71367664 0.71354904 0.71350418 0.71350493 0.71350632 0.71350671
-  0.71350724 0.71351819 0.71362322 0.71370749 0.71370785 0.7137078
-  0.71370734 0.71370754 0.71370771 0.71311883 0.713166   0.71316532
-  0.71316484 0.7131647  0.71316412 0.7132565  0.71359322 0.71372158
-  0.71372105 0.71372041 0.71371954 0.71371901 0.71371864 0.71385168
-  0.71398199 0.7140091  0.71400901 0.7140089  0.71400893 0.71400884
-  0.71401547 0.71403679 0.71404024 0.71404015 0.71404014 0.71404031
-  0.71404029 0.71404021 0.71395423 0.71362803 0.71349142 0.71349141
-  0.71349119 0.71349152 0.71349162 0.71336598 0.7129202  0.71286472
-  0.71286439 0.71286429 0.71286411 0.71286404 0.7128639  0.71298307
-  0.71315471 0.71318514 0.71318473 0.71318454 0.71318449 0.71318415
-  0.71322821 0.71340141 0.71354636 0.71354628 0.71354639 0.71354655
-  0.71354622 0.71354605 0.71350307 0.71275701 0.71275711 0.71275714
-  0.71275703 0.71275685 0.71284336 0.71308857 0.71323596 0.71323607
-  0.71323631 0.71323625 0.71323576 0.7132363  0.7133738  0.71293969
-  0.7129395  0.71293957 0.71293938 0.7129399  0.71291625 0.71305367
-  0.71313691 0.7131375  0.71313768 0.71313747 0.71313721 0.71314382
-  0.71336916 0.71360672 0.71360675 0.71360735 0.7136067  0.71360662
-  0.71360701 0.71377919 0.71429957 0.71448074 0.71447975 0.7144801
-  0.71448091 0.71448026 0.71448912 0.71442083 0.71417059 0.71416997
-  0.7141701  0.71417052 0.71417013 0.71417033 0.71410695 0.7138364
-  0.7136824  0.71368201 0.71368297 0.71368223 0.71368234 0.7136501
-  0.7133326  0.71315094 0.71315073 0.71315144 0.71315177 0.71315128
-  0.7131507  0.71298113 0.71280287 0.71279843 0.71279783 0.71279717
-  0.71279757 0.71279811 0.7127558  0.71274025 0.71289741 0.7128972
-  0.71289794 0.71289747 0.71289712 0.71289769 0.71287309 0.71292796
-  0.71296314 0.71296339 0.71296417 0.71296472 0.7129655  0.71295123
-  0.71302392 0.71323742 0.7132381  0.71323793 0.713238   0.71323815
-  0.7132384  0.71335252 0.7134888  0.71351542 0.7135155  0.71351597
-  0.71351565 0.71351595 0.71353419 0.71361836 0.71368622 0.71365028
-  0.71365004 0.71364991 0.71331706 0.71291457 0.71288614 0.71288584
-  0.7128852  0.71288561 0.71288572 0.71285706 0.71292555 0.71302446
-  0.71302443 0.71302442 0.71302485 0.71302438 0.71302421 0.71327591
-  0.71370831 0.7137418  0.71374289 0.71374205 0.71374188 0.7137425
-  0.71392796 0.7141617  0.71411821 0.71411894 0.7141189  0.71411835
-  0.71411861 0.71411832 0.71401955 0.71385955 0.71385387 0.71385329
-  0.71385263 0.7138528  0.71385324 0.71386867 0.71382874 0.71373941
-  0.7137398  0.7137401  0.71373979 0.71373937 0.71374079 0.71377816
-  0.71372475 0.71372473 0.71372494 0.71372495 0.71372493 0.71372442
-  0.71372321 0.71366804 0.71362268 0.71362243 0.71362304 0.71362332
-  0.71362222 0.71361366 0.71339951 0.71324272 0.71324249 0.71324258
-  0.71324296 0.71324284 0.71324303 0.71318325 0.71311412 0.71313316
-  0.7131337  0.71313364 0.71313357 0.71313369 0.71314799 0.71343537
-  0.71363457 0.71363479 0.71363426 0.71363399 0.71363437 0.71363424
-  0.71372165 0.71381871 0.71382891 0.71382905 0.71382855 0.71382821
-  0.71382833 0.71382605 0.71369521 0.71353932 0.7135393  0.71353982
-  0.71353984 0.71354012 0.71354031 0.7135199  0.7134768  0.71346447
-  0.71346408 0.71346364 0.71346366 0.71346374 0.71349055 0.71365811
-  0.7137079  0.71370704 0.71370705 0.71370689 0.71370632 0.71370624
-  0.71374385 0.71371361 0.71368883 0.71368918 0.71368881 0.71368828
-  0.71368867 0.71362581 0.71334205 0.71326931 0.71326982 0.71327004
-  0.71327085 0.71327134 0.71327147 0.71321946 0.71317291 0.71316465
-  0.71316455 0.71316456 0.71316439 0.71316432 0.71315186 0.71313549
-  0.71318571 0.7131852  0.71318449 0.71318388 0.71318327 0.71318244
-  0.71328257 0.7133753  0.71338837 0.71338835 0.71338844 0.71338856
-  0.71338864 0.7133785  0.71335042 0.71333777 0.71333828 0.71333854
-  0.7133389  0.71333945 0.71333972 0.71328371 0.71327209 0.71327434
-  0.71327302 0.71327188 0.71327083 0.71326962 0.71328266 0.7133482
-  0.71339264 0.71339169 0.71339068 0.71338975 0.71338873 0.71338777
-  0.71349075 0.71357287 0.7135798  0.71358071 0.71358162 0.71358247
-  0.71358341 0.71359863 0.71362883 0.71364354 0.71364481 0.71364591
-  0.71364707 0.71364827 0.71364943 0.71364325 0.71361538 0.71361324
-  0.71361408 0.71361496 0.71361565 0.71361649 0.71360547 0.71352859
-  0.71347737 0.71347729 0.71347708 0.71347691 0.71347679 0.71347668
-  0.71350884 0.71352331 0.71352339 0.71352328 0.71352326 0.71352322
-  0.71352306 0.7135433  0.71357155 0.71358121 0.71358137 0.71358148
-  0.71358162 0.71358174 0.71358184 0.71357768 0.71357154 0.71357174
-  0.71357192 0.71357204 0.71357228 0.71357244 0.71355336 0.71349972
-  0.71346831 0.7134685  0.71346858 0.71346854 0.7134685  0.71346564
-  0.71340937 0.71334699 0.71334712 0.71334719 0.71334704 0.71334697
-  0.71334713 0.71334854 0.71340503 0.71342541 0.71342546 0.71342539
-  0.71342543 0.71342547 0.71342843 0.71345163 0.7134669  0.71346705
-  0.71346716 0.7134673  0.71346748 0.71346768 0.71346728 0.71346708
-  0.71346733 0.71346734 0.71346751 0.71346774 0.71346785 0.71347111
-  0.71349406 0.71351577 0.71351575 0.71351572 0.71351572 0.7135157
-  0.71351569 0.71355947 0.71363435 0.71365184 0.71365176 0.71365163
-  0.71365163 0.71365169 0.71365481 0.71364169 0.71361102 0.71361079
-  0.71361045 0.71361024 0.71360993 0.7136095  0.71355924 0.71347958
-  0.71345884 0.71345909 0.71345937 0.71345972 0.71346004 0.71344252
-  0.71336907 0.71332459 0.71332535 0.71332629 0.71332698 0.71332756
-  0.71332829 0.71331259 0.71330254 0.71330281 0.71330286 0.71330314
-  0.71330342 0.71330349 0.71330643 0.71333502 0.71336776 0.71336773
-  0.71336765 0.71336757 0.71336764 0.71352655 0.71352383 0.71352375
-  0.71352362 0.71352361 0.71352357 0.71352396 0.71352253 0.71352016
-  0.71352037 0.71352075 0.71352089 0.71352111 0.71352139 0.71357265
-  0.71362688 0.71362905 0.71362892 0.71362867 0.71362864 0.71362845
-  0.71366806 0.71377745 0.71383312 0.71383181 0.71383071 0.71382952
-  0.71382803 0.71382698 0.71380692 0.7136644  0.71366355 0.71366267
-  0.71366148 0.71366049 0.71365939 0.71359572 0.71346421 0.71341403
-  0.71341455 0.71341528 0.71341621 0.71341713 0.71341622 0.71338637
-  0.71336929 0.71337006 0.71337083 0.71337165 0.71337257 0.71337331
-  0.71338395 0.71341075 0.71342658 0.71342625 0.71342585 0.71352722
-  0.71352898 0.71353851 0.71353258 0.71353317 0.71353415 0.71353497
-  0.71353556 0.71353652 0.71354635 0.71355661 0.71355894 0.71355878
-  0.71355868 0.7135586  0.71355839 0.71355833 0.71355139 0.71353404
-  0.71353384 0.71353342 0.7135335  0.71353346 0.71353273 0.71346487
-  0.71334464 0.71331522 0.71331556 0.71331556 0.71331531 0.71331552
-  0.71328268 0.71313411 0.71310562 0.71310613 0.71310638 0.71310696
-  0.71310677 0.71310687 0.71309553 0.71316973 0.71319241 0.71319161
-  0.7131907  0.7131902  0.71318956 0.71319814 0.71326223 0.71331446
-  0.71331503 0.71331618 0.71331731 0.71331814 0.71331898 0.71331975
-  0.7133298  0.71333429 0.71333604 0.71333787 0.71333939 0.713341
-  0.71332676 0.71327205 0.71364558 0.71364562 0.71364625 0.71364662
-  0.71364613 0.71355539 0.71345365 0.71344477 0.71344595 0.71344704
-  0.71344851 0.71344987 0.71334889 0.71312741 0.71303946 0.71304391
-  0.71304902 0.71305424 0.71305901 0.71306407 0.71290754 0.71279158
-  0.71278672 0.71278767 0.71278804 0.71278858 0.71278949 0.71275685
-  0.71283897 0.71293674 0.71293562 0.71293441 0.71293301 0.71293186
-  0.71293082 0.71309041 0.71323952 0.71324004 0.71323748 0.71323492
-  0.71323236 0.71323004 0.71324397 0.71328958 0.71331666 0.71331664
-  0.71331695 0.71331695 0.7133168  0.71331655 0.71331584 0.7133332
-  0.71333644 0.71333968 0.71334266 0.71334591 0.71334937 0.71335867
-  0.71338615 0.7134038  0.71340586]]</t>
+          <t>[[ 0.92905726  0.95327699  0.97609012  0.99767584  1.01896787  1.03996327
+   1.06070404  1.08114454  1.10132565  1.12038426  1.13171144  1.14293527
+   1.15405843  1.16505331  1.1759426   1.18675232  1.19745197  1.19768723
+   1.19287323  1.18800834  1.18307865  1.17809214  1.17305082  1.16794574
+   1.15957789  1.14129617  1.12298491  1.10462519  1.08620495  1.06779112
+   1.04929993  1.03076332  1.01087208  0.99068711  0.97047136  0.95025856
+   0.93004989  0.9098206   0.88960394  0.87394325  0.86543609  0.85690534
+   0.84838473  0.83985807  0.83131444  0.8228049   0.81426318  0.82649375
+   0.83949101  0.85249705  0.86543867  0.87831125  0.89120826  0.90401991
+   0.92633932  0.95692427  0.98739631  1.01780785  1.04816006  1.07840597
+   1.10858564  1.13822153  1.1639639   1.1896378   1.21520558  1.24070207
+   1.26610699  1.29141286  1.31667309  1.32309085  1.32060958  1.31809186
+   1.31560623  1.31310937  1.31061799  1.30812178  1.2987285   1.26855398
+   1.2384351   1.20833251  1.17827267  1.14821604  1.11818006  1.08818849
+   1.05833511  1.02853181  0.99872154  0.96890093  0.93907407  0.90923972
+   0.87939802  0.86050117  0.85841733  0.85630484  0.85417424  0.85198941
+   0.84979654  0.84757168  0.84531761  0.86713071  0.88974398  0.91231419
+   0.93487712  0.9574099   0.97990232  1.00238066  1.02419852  1.04550563
+   1.0668506   1.08820929  1.10958321  1.13097171  1.15241271  1.17189252
+   1.17533024  1.17874744  1.18216024  1.18557684  1.18895409  1.19232121
+   1.19569254  1.19028402  1.18070547  1.17095133  1.16105756  1.15101618
+   1.14080206  1.13043873  1.11940358  1.10673815  1.0939342   1.08097141
+   1.06788404  1.05465432  1.04127902  1.02774779  1.01278331  0.99753434
+   0.98227349  0.96697339  0.95164741  0.9363046   0.92092134  0.90416273
+   0.88537532  0.86658901  0.84778599  0.82900727  0.81023736  0.79142975
+   0.77265697  0.76084486  0.74922638  0.73762848  0.72603689  0.71442313
+   0.70284778  0.69127602  0.69200841  0.70313363  0.71422958  0.72530103
+   0.73638545  0.74740154  0.75839682  0.77203149  0.80664703  0.84117728
+   0.87564474  0.91005063  0.94435391  0.97864014  1.0128231   1.0537967
+   1.09784447  1.14192033  1.18594236  1.22991472  1.27389831  1.31782784
+   1.70173454  1.68539023  1.66902726  1.65263748  1.63624411  1.61981538
+   1.60336508  1.55715041  1.5100163   1.46284737  1.41560633  1.36830033
+   1.32092267  1.27347493  1.21692937  1.1527264   1.08836427  1.02376771
+   0.95901789  0.89409178  0.82895894  0.76510753  0.71208263  0.65899001
+   0.60579038  0.55249735  0.49911837  0.44563604  0.39208011  0.36791815
+   0.35717924  0.34658637  0.33613706  0.32580059  0.31561838  0.30554241
+   0.30782164  0.3444932   0.38073312  0.41659824  0.45207254  0.48714405
+   0.52187646  0.55621914  0.61103676  0.66939938  0.72714755  0.78433649
+   0.84101998  0.89716757  0.95286925  1.01092162  1.07294845  1.13506929
+   1.19726958  1.25959842  1.32202577  1.38460503  1.44726573  1.49652371
+   1.54558983  1.59477951  1.64409228  1.69354651  1.74309426  1.79280786
+   1.82705171  1.84849512  1.86990485  1.89127811  1.91264978  1.93397656
+   1.95529205  1.97299511  1.9646425   1.9563492   1.94815701  1.94004919
+   1.93198882  1.92404189  1.91613967  1.8892617   1.85383849  1.81835133
+   1.78279903  1.74715446  1.71144764  1.67564189  1.63566537  1.58407759
+   1.53235596  1.48048854  1.42842879  1.37624596  1.32386832  1.27131765
+   1.22893823  1.18845681  1.14793113  1.10730274  1.06658345  1.02579932
+   0.98493326  0.95541045  0.94241653  0.92936676  0.91625043  0.90311259
+   0.88989115  0.87664388  0.86334882  0.86232074  0.86155523  0.86078584
+   0.86004768  0.85935433  0.8586308   0.85794877  0.8500519   0.83632297
+   0.82257948  0.80883944  0.79505909  0.78128859  0.76748231  0.7524792
+   0.72900888  0.70550967  0.68199121  0.65843669  0.63487622  0.61125794
+   0.58763222  0.57941108  0.57792298  0.5764916   0.5750609   0.57366877
+   0.57230658  0.57098298  0.57801885  0.60785053  0.63770185  0.66753158
+   0.69737484  0.72721268  0.75707384  0.78689745  0.81805685  0.84944616
+   0.8808366   0.91225766  0.94366588  0.97509976  1.0065327   1.02997561
+   1.04200204  1.05410592  1.0662643   1.07849271  1.09077566  1.10309502
+   1.11550135  1.12557757  1.13565417  1.14579385  1.15597834  1.16620703
+   1.17649352  1.18683821  1.20656328  1.2337463   1.26093638  1.2881008
+   1.31529361  1.34241505  1.3695761   1.39591596  1.41691354  1.43788032
+   1.45884016  1.47979422  1.50070181  1.52157066  1.54245421  1.53220844
+   1.50861911  1.48498375  1.46134435  1.43769907  1.413994    1.39029696
+   1.35641232  1.29522226  0.42985794  0.40378555  0.37767863  0.35148714
+   0.32523241  0.31055668  0.2959432   0.28123852  0.26644664  0.2515597
+   0.23658601  0.22152173  0.21112272  0.20435546  0.19737333  0.19016342
+   0.18278694  0.17519439  0.16738683  0.16361648  0.18793466  0.21210238
+   0.23613653  0.25999065  0.28372168  0.30726318  0.33062833  0.37595743
+   0.4307022   0.48560222  0.54065528  0.59586918  0.65122891  0.70673565
+   0.75669001  0.79183167  0.82714154  0.86261863  0.89826805  0.93405453
+   0.97004509  1.00617293  0.99163574  0.96791574  0.94410456  0.92023154
+   0.89627811  0.87225583  0.84811765  0.81563773  0.77150934  0.72721189
+   0.68271817  0.63804521  0.593178    0.54815127  0.50294258  0.50650536
+   0.51041501  0.51420454  0.51791583  0.52152092  0.52502126  0.52842227
+   0.56083833  0.61593621  0.67121219  0.72670533  0.78235785  0.83826179
+   0.8943231   0.94922496  0.99563312  1.04219745  1.0889615   1.13586694
+   1.18299311  1.2302913   1.27775403  1.29792071  1.30671496  1.3154692
+   1.32411687  1.33275751  1.34131894  1.3498041   1.35813816  1.36608746
+   1.37389798  1.38151779  1.38900294  1.39634028  1.40348571  1.4104752
+   1.43886441  1.47109173  1.5034401   1.5358087   1.56833121  1.60093386
+   1.63366786  1.65985338  1.67707032  1.69435119  1.71166122  1.72905397
+   1.7464802   1.76397248  1.78146098  1.74768065  1.71339264  1.67886278
+   1.64412178  1.60911342  1.57391903  1.5384293   1.49730439  1.45183898
+   1.40614458  1.3602971   1.31420634  1.26794928  1.22140494  1.18054669
+   1.17531185  1.17003798  1.16463092  1.15909923  1.15347807  1.14775449
+   1.14189849  1.15251063  1.16986721  1.18735837  1.20498039  1.22271309
+   1.24055927  1.25857957  1.26734724  1.25247007  1.23754305  1.22263486
+   1.20775914  1.19289158  1.17803773  1.16317961  1.12849395  1.09022871
+   1.05181267  1.01316533  0.97435191  0.93531325  0.89609272  0.87346992
+   0.87340044  0.87321843  0.87306868  0.87284091  0.87255528  0.87225122
+   0.87195475  0.91692481  0.96218814  1.00772588  1.05350797  1.09961605
+   1.14599725  1.1926263   1.21502341  1.21952047  1.22463982  1.23043791
+   1.23689804  1.24410897  1.25203693  1.24655886  1.16151392  1.08397557
+   1.01372132  0.95029938  0.8934723   0.84286936  0.79816643  0.73880497
+   0.68134164  0.63370426  0.59501429  0.56444705  0.54140992  0.52533484
+   0.51849033  0.52682316  0.54402662  0.56946335  0.60253099  0.64278709
+   0.68970952  0.74306198  0.78713783  0.83919539  0.90153296  0.97347451
+   1.05465878  1.14458229  1.24282808  1.31200654  1.34100684  1.37847157
+   1.4237881   1.47631209  1.5355838   1.60108841  1.67193854  1.62682298
+   1.5837419   1.54258291  1.50301179  1.46492925  1.42820114  1.39274577
+   1.33289488  1.25454635  1.17647364  1.09861642  1.02113906  0.94416181
+   0.86765315  0.79767543  0.7623727   0.72742223  0.69288374  0.65875434
+   0.62490226  0.59147185  0.5585055   0.54910139  0.54891284  0.54904243
+   0.54922335  0.54971278  0.5502587   0.55105683  0.55094537  0.54883513
+   0.54676875  0.54491296  0.54308034  0.54142635  0.53990654  0.53856203
+   0.54723283  0.55729457  0.56730457  0.57719679  1.15760883  0.82635323
+   0.82368838  0.82098184  0.81838356  0.81576293  0.81324778  0.81067967
+   0.8228587   0.87050016  0.91867788  0.9674002   1.0165501   1.06634371
+   1.11670814  1.16756853  1.21518702  1.26264043  1.31058921  1.35890954
+   1.40771908  1.45699631  1.5067544   1.54284883  1.56107404  1.5792998
+   1.59751868  1.61588531  1.634198    1.65265151  1.67109948  1.68986119
+   1.70877395  1.72780231  1.74692691  1.76605031  1.78528988  1.8046646
+   1.82542554  1.84741654  1.86970631  1.8923857   1.915322    1.93862675
+   1.9623089   1.97733182  1.94381172  1.91023997  1.87678408  1.84330113
+   1.80990149  1.77653443  1.74311404  1.65612735  1.54795566  1.43893986
+   1.3288915   1.21782349  1.10586582  0.9928181   0.88619092  0.79567242
+   0.7042191   0.61183557  0.51846445  0.42406926  0.32877778  0.2324452
+   0.23707997  0.25694695  0.27704696  0.29731816  0.31764463  0.33832247
+   0.35907801  0.40312295  0.47656015  0.55021077  0.62414538  0.69830225
+   0.77263535  0.84740126  0.92122727  0.91785825  0.9144813   0.91119377
+   0.90791704  0.90467188  0.90139733  0.89827389  0.85311384  0.77824353
+   0.70343049  0.62848479  0.55351194  0.47848592  0.40348863  0.33761887
+   0.32012607  0.30286487  0.28558099  0.26851695  0.25156714  0.2346728
+   0.2179662   0.28185618  0.37635494  0.47185173  0.5681454   0.66542674
+   0.76361648  0.86278422  0.96406803  1.06914322  1.17529174  1.28242565
+   1.39065685  1.49985768  1.61005811  1.72147796  1.73930189  1.74418302
+   1.74959998  1.75554653  1.76216157  1.76929695  1.77711518  1.74818347
+   1.67310351  1.59852137  1.52424991  1.45061013  1.37742661  1.30485375
+   1.23296643  1.1681872   1.10400872  1.04036699  0.9775397   0.91549042
+   0.85423654  0.79392975  0.75316787  0.72626147  0.70034662  0.67535288
+   0.65141977  0.62862471  0.60686788  0.5876481   0.57670872  0.56688093
+   0.55834825  0.55117421  0.54542403  0.54116756  0.53847333  0.55038074
+   0.56901894  0.58984325  0.61284713  0.63824101  0.66594718  0.69630018
+   1.91545025  1.92273573  1.93274952  1.94574598  1.96184216  1.98107446
+   2.00196997  1.94159108  1.88156752  1.82183664  1.76239269  1.70333084
+   1.64469754  1.58647982  1.51667517  1.43818085  1.35886083  1.27872158
+   1.1979017   1.11620546  1.03369229  0.95484339  0.89891749  0.84303232
+   0.78707123  0.73119672  0.67536881  0.61961397  0.56383421  0.53243106
+   0.51027701  0.48875189  0.46788667  0.4477252   0.42827149  0.4095257
+   0.40795084  0.44385827  0.48037592  0.51728152  0.5547051   0.59249393
+   0.63076989  0.66934181  0.74959476  0.83616968  0.92366506  1.01203157
+   1.101285    1.1915212   1.28269462  1.35501246  1.40479579  1.45593778
+   1.50849073  1.56232119  1.61769323  1.67437157  1.72903952  1.64696975
+   1.56439387  1.48092806  1.39686644  1.31198187  1.22638633  1.13996334
+   1.00252946  0.83119666  0.66023084  0.48965703  0.31946713  0.14964684
+  -0.01962668 -0.16446222 -0.18926351  1.02430002  1.08805628  1.15540561
+   1.22632866  1.30043417  1.27993908  1.25427618  1.23554446  1.22305782
+   1.21608736  1.21400169  1.21653354  1.21271449  1.19859672  1.1853516
+   1.17284425  1.16093208  1.14930449  1.13805039  1.12721683  1.12664352
+   1.12550172  1.12376944  1.12125671  1.11821459  1.11440827  1.11000884
+   1.09713646  1.07939168  1.06258927  1.04651878  1.03121833  1.01680632
+   1.00311152  0.98732796  0.9597677   0.93459523  0.91188581  0.89165427
+   0.87367901  0.85796203  0.84453586  0.85680355  0.87888771  0.90237307
+   0.92736184  0.95360119  0.98118698  1.00985801  1.03908118  1.06623503
+   1.091863    1.1160465   1.13874742  1.15989036  1.17959196  1.19785393
+   1.10879717  1.00426207  0.89745838  0.78860255]]</t>
         </is>
       </c>
     </row>

--- a/coefs_model_oil.xlsx
+++ b/coefs_model_oil.xlsx
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07521330654115554</v>
+        <v>0.01723183619815361</v>
       </c>
     </row>
     <row r="3">
@@ -454,161 +454,243 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[ 0.92905726  0.95327699  0.97609012  0.99767584  1.01896787  1.03996327
-   1.06070404  1.08114454  1.10132565  1.12038426  1.13171144  1.14293527
-   1.15405843  1.16505331  1.1759426   1.18675232  1.19745197  1.19768723
-   1.19287323  1.18800834  1.18307865  1.17809214  1.17305082  1.16794574
-   1.15957789  1.14129617  1.12298491  1.10462519  1.08620495  1.06779112
-   1.04929993  1.03076332  1.01087208  0.99068711  0.97047136  0.95025856
-   0.93004989  0.9098206   0.88960394  0.87394325  0.86543609  0.85690534
-   0.84838473  0.83985807  0.83131444  0.8228049   0.81426318  0.82649375
-   0.83949101  0.85249705  0.86543867  0.87831125  0.89120826  0.90401991
-   0.92633932  0.95692427  0.98739631  1.01780785  1.04816006  1.07840597
-   1.10858564  1.13822153  1.1639639   1.1896378   1.21520558  1.24070207
-   1.26610699  1.29141286  1.31667309  1.32309085  1.32060958  1.31809186
-   1.31560623  1.31310937  1.31061799  1.30812178  1.2987285   1.26855398
-   1.2384351   1.20833251  1.17827267  1.14821604  1.11818006  1.08818849
-   1.05833511  1.02853181  0.99872154  0.96890093  0.93907407  0.90923972
-   0.87939802  0.86050117  0.85841733  0.85630484  0.85417424  0.85198941
-   0.84979654  0.84757168  0.84531761  0.86713071  0.88974398  0.91231419
-   0.93487712  0.9574099   0.97990232  1.00238066  1.02419852  1.04550563
-   1.0668506   1.08820929  1.10958321  1.13097171  1.15241271  1.17189252
-   1.17533024  1.17874744  1.18216024  1.18557684  1.18895409  1.19232121
-   1.19569254  1.19028402  1.18070547  1.17095133  1.16105756  1.15101618
-   1.14080206  1.13043873  1.11940358  1.10673815  1.0939342   1.08097141
-   1.06788404  1.05465432  1.04127902  1.02774779  1.01278331  0.99753434
-   0.98227349  0.96697339  0.95164741  0.9363046   0.92092134  0.90416273
-   0.88537532  0.86658901  0.84778599  0.82900727  0.81023736  0.79142975
-   0.77265697  0.76084486  0.74922638  0.73762848  0.72603689  0.71442313
-   0.70284778  0.69127602  0.69200841  0.70313363  0.71422958  0.72530103
-   0.73638545  0.74740154  0.75839682  0.77203149  0.80664703  0.84117728
-   0.87564474  0.91005063  0.94435391  0.97864014  1.0128231   1.0537967
-   1.09784447  1.14192033  1.18594236  1.22991472  1.27389831  1.31782784
-   1.70173454  1.68539023  1.66902726  1.65263748  1.63624411  1.61981538
-   1.60336508  1.55715041  1.5100163   1.46284737  1.41560633  1.36830033
-   1.32092267  1.27347493  1.21692937  1.1527264   1.08836427  1.02376771
-   0.95901789  0.89409178  0.82895894  0.76510753  0.71208263  0.65899001
-   0.60579038  0.55249735  0.49911837  0.44563604  0.39208011  0.36791815
-   0.35717924  0.34658637  0.33613706  0.32580059  0.31561838  0.30554241
-   0.30782164  0.3444932   0.38073312  0.41659824  0.45207254  0.48714405
-   0.52187646  0.55621914  0.61103676  0.66939938  0.72714755  0.78433649
-   0.84101998  0.89716757  0.95286925  1.01092162  1.07294845  1.13506929
-   1.19726958  1.25959842  1.32202577  1.38460503  1.44726573  1.49652371
-   1.54558983  1.59477951  1.64409228  1.69354651  1.74309426  1.79280786
-   1.82705171  1.84849512  1.86990485  1.89127811  1.91264978  1.93397656
-   1.95529205  1.97299511  1.9646425   1.9563492   1.94815701  1.94004919
-   1.93198882  1.92404189  1.91613967  1.8892617   1.85383849  1.81835133
-   1.78279903  1.74715446  1.71144764  1.67564189  1.63566537  1.58407759
-   1.53235596  1.48048854  1.42842879  1.37624596  1.32386832  1.27131765
-   1.22893823  1.18845681  1.14793113  1.10730274  1.06658345  1.02579932
-   0.98493326  0.95541045  0.94241653  0.92936676  0.91625043  0.90311259
-   0.88989115  0.87664388  0.86334882  0.86232074  0.86155523  0.86078584
-   0.86004768  0.85935433  0.8586308   0.85794877  0.8500519   0.83632297
-   0.82257948  0.80883944  0.79505909  0.78128859  0.76748231  0.7524792
-   0.72900888  0.70550967  0.68199121  0.65843669  0.63487622  0.61125794
-   0.58763222  0.57941108  0.57792298  0.5764916   0.5750609   0.57366877
-   0.57230658  0.57098298  0.57801885  0.60785053  0.63770185  0.66753158
-   0.69737484  0.72721268  0.75707384  0.78689745  0.81805685  0.84944616
-   0.8808366   0.91225766  0.94366588  0.97509976  1.0065327   1.02997561
-   1.04200204  1.05410592  1.0662643   1.07849271  1.09077566  1.10309502
-   1.11550135  1.12557757  1.13565417  1.14579385  1.15597834  1.16620703
-   1.17649352  1.18683821  1.20656328  1.2337463   1.26093638  1.2881008
-   1.31529361  1.34241505  1.3695761   1.39591596  1.41691354  1.43788032
-   1.45884016  1.47979422  1.50070181  1.52157066  1.54245421  1.53220844
-   1.50861911  1.48498375  1.46134435  1.43769907  1.413994    1.39029696
-   1.35641232  1.29522226  0.42985794  0.40378555  0.37767863  0.35148714
-   0.32523241  0.31055668  0.2959432   0.28123852  0.26644664  0.2515597
-   0.23658601  0.22152173  0.21112272  0.20435546  0.19737333  0.19016342
-   0.18278694  0.17519439  0.16738683  0.16361648  0.18793466  0.21210238
-   0.23613653  0.25999065  0.28372168  0.30726318  0.33062833  0.37595743
-   0.4307022   0.48560222  0.54065528  0.59586918  0.65122891  0.70673565
-   0.75669001  0.79183167  0.82714154  0.86261863  0.89826805  0.93405453
-   0.97004509  1.00617293  0.99163574  0.96791574  0.94410456  0.92023154
-   0.89627811  0.87225583  0.84811765  0.81563773  0.77150934  0.72721189
-   0.68271817  0.63804521  0.593178    0.54815127  0.50294258  0.50650536
-   0.51041501  0.51420454  0.51791583  0.52152092  0.52502126  0.52842227
-   0.56083833  0.61593621  0.67121219  0.72670533  0.78235785  0.83826179
-   0.8943231   0.94922496  0.99563312  1.04219745  1.0889615   1.13586694
-   1.18299311  1.2302913   1.27775403  1.29792071  1.30671496  1.3154692
-   1.32411687  1.33275751  1.34131894  1.3498041   1.35813816  1.36608746
-   1.37389798  1.38151779  1.38900294  1.39634028  1.40348571  1.4104752
-   1.43886441  1.47109173  1.5034401   1.5358087   1.56833121  1.60093386
-   1.63366786  1.65985338  1.67707032  1.69435119  1.71166122  1.72905397
-   1.7464802   1.76397248  1.78146098  1.74768065  1.71339264  1.67886278
-   1.64412178  1.60911342  1.57391903  1.5384293   1.49730439  1.45183898
-   1.40614458  1.3602971   1.31420634  1.26794928  1.22140494  1.18054669
-   1.17531185  1.17003798  1.16463092  1.15909923  1.15347807  1.14775449
-   1.14189849  1.15251063  1.16986721  1.18735837  1.20498039  1.22271309
-   1.24055927  1.25857957  1.26734724  1.25247007  1.23754305  1.22263486
-   1.20775914  1.19289158  1.17803773  1.16317961  1.12849395  1.09022871
-   1.05181267  1.01316533  0.97435191  0.93531325  0.89609272  0.87346992
-   0.87340044  0.87321843  0.87306868  0.87284091  0.87255528  0.87225122
-   0.87195475  0.91692481  0.96218814  1.00772588  1.05350797  1.09961605
-   1.14599725  1.1926263   1.21502341  1.21952047  1.22463982  1.23043791
-   1.23689804  1.24410897  1.25203693  1.24655886  1.16151392  1.08397557
-   1.01372132  0.95029938  0.8934723   0.84286936  0.79816643  0.73880497
-   0.68134164  0.63370426  0.59501429  0.56444705  0.54140992  0.52533484
-   0.51849033  0.52682316  0.54402662  0.56946335  0.60253099  0.64278709
-   0.68970952  0.74306198  0.78713783  0.83919539  0.90153296  0.97347451
-   1.05465878  1.14458229  1.24282808  1.31200654  1.34100684  1.37847157
-   1.4237881   1.47631209  1.5355838   1.60108841  1.67193854  1.62682298
-   1.5837419   1.54258291  1.50301179  1.46492925  1.42820114  1.39274577
-   1.33289488  1.25454635  1.17647364  1.09861642  1.02113906  0.94416181
-   0.86765315  0.79767543  0.7623727   0.72742223  0.69288374  0.65875434
-   0.62490226  0.59147185  0.5585055   0.54910139  0.54891284  0.54904243
-   0.54922335  0.54971278  0.5502587   0.55105683  0.55094537  0.54883513
-   0.54676875  0.54491296  0.54308034  0.54142635  0.53990654  0.53856203
-   0.54723283  0.55729457  0.56730457  0.57719679  1.15760883  0.82635323
-   0.82368838  0.82098184  0.81838356  0.81576293  0.81324778  0.81067967
-   0.8228587   0.87050016  0.91867788  0.9674002   1.0165501   1.06634371
-   1.11670814  1.16756853  1.21518702  1.26264043  1.31058921  1.35890954
-   1.40771908  1.45699631  1.5067544   1.54284883  1.56107404  1.5792998
-   1.59751868  1.61588531  1.634198    1.65265151  1.67109948  1.68986119
-   1.70877395  1.72780231  1.74692691  1.76605031  1.78528988  1.8046646
-   1.82542554  1.84741654  1.86970631  1.8923857   1.915322    1.93862675
-   1.9623089   1.97733182  1.94381172  1.91023997  1.87678408  1.84330113
-   1.80990149  1.77653443  1.74311404  1.65612735  1.54795566  1.43893986
-   1.3288915   1.21782349  1.10586582  0.9928181   0.88619092  0.79567242
-   0.7042191   0.61183557  0.51846445  0.42406926  0.32877778  0.2324452
-   0.23707997  0.25694695  0.27704696  0.29731816  0.31764463  0.33832247
-   0.35907801  0.40312295  0.47656015  0.55021077  0.62414538  0.69830225
-   0.77263535  0.84740126  0.92122727  0.91785825  0.9144813   0.91119377
-   0.90791704  0.90467188  0.90139733  0.89827389  0.85311384  0.77824353
-   0.70343049  0.62848479  0.55351194  0.47848592  0.40348863  0.33761887
-   0.32012607  0.30286487  0.28558099  0.26851695  0.25156714  0.2346728
-   0.2179662   0.28185618  0.37635494  0.47185173  0.5681454   0.66542674
-   0.76361648  0.86278422  0.96406803  1.06914322  1.17529174  1.28242565
-   1.39065685  1.49985768  1.61005811  1.72147796  1.73930189  1.74418302
-   1.74959998  1.75554653  1.76216157  1.76929695  1.77711518  1.74818347
-   1.67310351  1.59852137  1.52424991  1.45061013  1.37742661  1.30485375
-   1.23296643  1.1681872   1.10400872  1.04036699  0.9775397   0.91549042
-   0.85423654  0.79392975  0.75316787  0.72626147  0.70034662  0.67535288
-   0.65141977  0.62862471  0.60686788  0.5876481   0.57670872  0.56688093
-   0.55834825  0.55117421  0.54542403  0.54116756  0.53847333  0.55038074
-   0.56901894  0.58984325  0.61284713  0.63824101  0.66594718  0.69630018
-   1.91545025  1.92273573  1.93274952  1.94574598  1.96184216  1.98107446
-   2.00196997  1.94159108  1.88156752  1.82183664  1.76239269  1.70333084
-   1.64469754  1.58647982  1.51667517  1.43818085  1.35886083  1.27872158
-   1.1979017   1.11620546  1.03369229  0.95484339  0.89891749  0.84303232
-   0.78707123  0.73119672  0.67536881  0.61961397  0.56383421  0.53243106
-   0.51027701  0.48875189  0.46788667  0.4477252   0.42827149  0.4095257
-   0.40795084  0.44385827  0.48037592  0.51728152  0.5547051   0.59249393
-   0.63076989  0.66934181  0.74959476  0.83616968  0.92366506  1.01203157
-   1.101285    1.1915212   1.28269462  1.35501246  1.40479579  1.45593778
-   1.50849073  1.56232119  1.61769323  1.67437157  1.72903952  1.64696975
-   1.56439387  1.48092806  1.39686644  1.31198187  1.22638633  1.13996334
-   1.00252946  0.83119666  0.66023084  0.48965703  0.31946713  0.14964684
-  -0.01962668 -0.16446222 -0.18926351  1.02430002  1.08805628  1.15540561
-   1.22632866  1.30043417  1.27993908  1.25427618  1.23554446  1.22305782
-   1.21608736  1.21400169  1.21653354  1.21271449  1.19859672  1.1853516
-   1.17284425  1.16093208  1.14930449  1.13805039  1.12721683  1.12664352
-   1.12550172  1.12376944  1.12125671  1.11821459  1.11440827  1.11000884
-   1.09713646  1.07939168  1.06258927  1.04651878  1.03121833  1.01680632
-   1.00311152  0.98732796  0.9597677   0.93459523  0.91188581  0.89165427
-   0.87367901  0.85796203  0.84453586  0.85680355  0.87888771  0.90237307
-   0.92736184  0.95360119  0.98118698  1.00985801  1.03908118  1.06623503
-   1.091863    1.1160465   1.13874742  1.15989036  1.17959196  1.19785393
-   1.10879717  1.00426207  0.89745838  0.78860255]]</t>
+          <t>[[ 4.95012343e-01  5.28892780e-01  5.70351733e-01  6.18191846e-01
+   6.65359404e-01  7.11801993e-01  7.57768150e-01  8.03035666e-01
+   8.47723896e-01  8.92316810e-01  9.40772877e-01  9.88922251e-01
+   1.03684340e+00  1.08447792e+00  1.13179928e+00  1.17895576e+00
+   1.22579243e+00  1.24642832e+00  1.25448075e+00  1.26250015e+00
+   1.27052828e+00  1.27850129e+00  1.28649327e+00  1.29442229e+00
+   1.29149921e+00  1.25524520e+00  1.21910527e+00  1.18302596e+00
+   1.14692573e+00  1.11106319e+00  1.07520191e+00  1.03935895e+00
+   9.90034452e-01  9.37751999e-01  8.85434405e-01  8.33123567e-01
+   7.80838109e-01  7.28492901e-01  6.76239658e-01  6.30162982e-01
+   5.93923579e-01  5.57641139e-01  5.21463106e-01  4.85386459e-01
+   4.49303691e-01  4.13354728e-01  3.77447297e-01  3.88571640e-01
+   4.01452638e-01  4.14401923e-01  4.27285343e-01  4.40018174e-01
+   4.52881181e-01  4.65541680e-01  5.11013911e-01  5.85029639e-01
+   6.58833469e-01  7.32477402e-01  8.06051607e-01  8.79428218e-01
+   9.52672737e-01  1.02708586e+00  1.11258640e+00  1.19797519e+00
+   1.28320255e+00  1.36832793e+00  1.45329226e+00  1.53807931e+00
+   1.62282838e+00  1.66124067e+00  1.67773883e+00  1.69410292e+00
+   1.71055063e+00  1.72691416e+00  1.74333314e+00  1.75966669e+00
+   1.75544363e+00  1.68937617e+00  1.62334809e+00  1.55729662e+00
+   1.49134125e+00  1.42527049e+00  1.35919021e+00  1.29315254e+00
+   1.22963286e+00  1.16665917e+00  1.10367213e+00  1.04064893e+00
+   9.77556424e-01  9.14443852e-01  1.60174853e+00  1.64320537e+00
+   1.68476789e+00  1.72641982e+00  1.76806556e+00  1.80976779e+00
+   1.85161261e+00  1.88419042e+00  1.84090613e+00  1.79740912e+00
+   1.75365183e+00  1.70980476e+00  1.66568017e+00  1.62134938e+00
+   1.57682600e+00  1.50362645e+00  1.41675774e+00  1.32947254e+00
+   1.24182294e+00  1.15380618e+00  1.06531537e+00  9.76393088e-01
+   8.92000930e-01  8.21660952e-01  7.51156314e-01  6.80261577e-01
+   6.09220561e-01  5.37832513e-01  4.66269206e-01  3.94363315e-01
+   3.49465994e-01  3.10291990e-01  2.71059365e-01  2.31727554e-01
+   1.92267898e-01  1.52751793e-01  1.13125677e-01  7.93348868e-02
+   5.43372044e-02  2.93806094e-02  4.32597534e-03 -2.06244520e-02
+  -4.55878986e-02 -7.06803160e-02 -9.56807276e-02 -1.08484813e-01
+  -1.20970578e-01 -1.33484496e-01 -1.46048918e-01 -1.58681733e-01
+  -1.71301740e-01 -1.83905950e-01 -1.74298861e-01 -1.45855705e-01
+  -1.17415905e-01 -8.90104688e-02 -6.05610055e-02 -3.22248272e-02
+  -3.87675329e-03  3.28250771e-02  1.35774059e-01  2.38887759e-01
+   3.42191436e-01  4.45634289e-01  5.49277674e-01  6.53157640e-01
+   7.57135173e-01  9.04171176e-01  1.07104784e+00  1.23828053e+00
+   1.40566804e+00  1.57319055e+00  1.74104452e+00  1.90903629e+00
+   2.07257860e+00  2.22263820e+00  2.37268596e+00  2.52263655e+00
+   2.67257930e+00  2.82243728e+00  2.97233279e+00  3.12204981e+00
+   3.17523096e+00  3.20826787e+00  3.24111722e+00  3.27363645e+00
+   3.30586567e+00  3.33793146e+00  3.36975661e+00  3.34612843e+00
+   3.24004791e+00  3.13373246e+00  3.02714297e+00  2.92030755e+00
+   2.81321861e+00  2.70586723e+00  2.59833791e+00  2.42232494e+00
+   2.24405138e+00  2.06553031e+00  1.88661905e+00  1.70743920e+00
+   1.52791083e+00  1.34813214e+00  1.16893143e+00  9.90236850e-01
+   8.11368007e-01  6.32000825e-01  4.52423045e-01  2.72569261e-01
+   9.23365884e-02 -8.40538934e-02 -2.29822679e-01 -3.75873529e-01
+  -5.22266349e-01 -6.69013493e-01 -8.16036103e-01 -9.63384564e-01
+  -1.11107483e+00 -1.20613284e+00 -1.27762524e+00 -1.34935611e+00
+  -1.42130019e+00 -1.49357583e+00 -1.56605452e+00 -1.63881716e+00
+  -1.67504390e+00 -1.60673854e+00 -1.53836650e+00 -1.46974611e+00
+  -1.40104197e+00 -1.33226274e+00 -1.26324871e+00 -1.19416312e+00
+  -1.00017999e+00 -7.80662089e-01 -5.60413991e-01 -3.39393222e-01
+  -1.17676097e-01  1.04621251e-01  3.27705902e-01  5.69944884e-01
+   8.40002060e-01  1.11103451e+00  1.38290700e+00  1.65573036e+00
+   1.92940031e+00  2.20413983e+00  2.47960083e+00  2.66631947e+00
+   2.85146022e+00  3.03713439e+00  3.22343511e+00  3.41029133e+00
+   3.59761843e+00  3.78561598e+00  3.90353388e+00  3.96361807e+00
+   4.02382832e+00  4.08426667e+00  4.14492704e+00  4.20573431e+00
+   4.26671563e+00  4.31695202e+00  4.28762839e+00  4.25814358e+00
+   4.22869161e+00  4.19919898e+00  4.16947027e+00  4.13981016e+00
+   4.10994785e+00  4.02341158e+00  3.91139709e+00  3.79909498e+00
+   3.68642506e+00  3.57336412e+00  3.46000058e+00  3.34625771e+00
+   3.21221132e+00  3.02166954e+00  2.83047221e+00  2.63873962e+00
+   2.44626332e+00  2.25320165e+00  2.05941717e+00  1.86490524e+00
+   1.68630347e+00  1.51020461e+00  1.33363675e+00  1.15632558e+00
+   9.78466752e-01  7.99899814e-01  6.20836093e-01  4.95117981e-01
+   4.47350855e-01  3.99581377e-01  3.51677602e-01  3.03821958e-01
+   2.55710435e-01  2.07630784e-01  1.59493088e-01  2.05227890e-01
+   2.53008345e-01  3.01138244e-01  3.49561663e-01  3.98379362e-01
+   4.47292987e-01  4.96622720e-01  5.09768190e-01  4.93596427e-01
+   4.77312739e-01  4.61042900e-01  4.44555579e-01  4.28139267e-01
+   4.11600424e-01  3.82210924e-01  2.61757405e-01  1.40818176e-01
+   1.94715725e-02 -1.02423288e-01 -2.24747464e-01 -3.47523378e-01
+  -4.70843937e-01 -5.44838144e-01 -5.97549172e-01 -6.50320598e-01
+  -7.03394756e-01 -7.56717030e-01 -8.10214103e-01 -8.63893177e-01
+  -8.64805234e-01 -7.20712640e-01 -5.75910677e-01 -4.30623227e-01
+  -2.84614613e-01 -1.38089955e-01  9.11832615e-03  1.56845983e-01
+   3.59283426e-01  5.72643655e-01  7.86819221e-01  1.00186840e+00
+   1.21765247e+00  1.43435723e+00  1.65176698e+00  1.80483778e+00
+   1.86509701e+00  1.92561367e+00  1.98617491e+00  2.04689990e+00
+   2.10773619e+00  2.16866425e+00  2.22980574e+00  2.12952600e+00
+   2.02613795e+00  1.92241902e+00  1.81823166e+00  1.71358655e+00
+   1.60848827e+00  1.50295917e+00  1.41269901e+00  1.33459831e+00
+   1.25629137e+00  1.17752507e+00  1.09869156e+00  1.01921812e+00
+   9.39726246e-01  8.75772628e-01  9.20934248e-01  9.66308928e-01
+   1.01190756e+00  1.05784767e+00  1.10381895e+00  1.14999939e+00
+   1.19637666e+00  1.24968488e+00  1.30606994e+00  1.36251033e+00
+   1.41935223e+00  1.47630287e+00  1.53348248e+00  1.59083087e+00
+   1.61572548e+00  1.55269521e+00  1.48961307e+00  1.42629885e+00
+   1.36302000e+00  1.29954096e+00  1.23583887e+00  1.17204059e+00
+   1.03835293e+00  8.91246675e-01  7.43884857e-01  5.96048728e-01
+   4.47874912e-01  2.99242975e-01  1.50196067e-01  2.06726085e-02
+  -8.14367778e-02 -1.83915467e-01 -2.86724543e-01 -3.89890149e-01
+  -4.93311839e-01 -5.97129604e-01 -7.01332951e-01 -6.96556808e-01
+  -6.90426598e-01 -6.84318425e-01 -6.78134314e-01 -6.71937475e-01
+  -6.65740513e-01 -6.59564790e-01 -6.11082095e-01 -5.28970206e-01
+  -4.46708235e-01 -3.64344758e-01 -2.81640305e-01 -1.98762151e-01
+  -1.15634467e-01 -3.07586619e-02  6.51878272e-02  1.61185192e-01
+   2.57388398e-01  3.53827666e-01  4.50581453e-01  5.47479037e-01
+   6.44553536e-01  7.10999726e-01  7.64639040e-01  8.18306583e-01
+   8.72177453e-01  9.26098586e-01  9.80191173e-01  1.03434754e+00
+   1.06425871e+00  1.02993619e+00  9.95337747e-01  9.60622057e-01
+   9.25661557e-01  8.90399349e-01  8.54978556e-01  8.19267840e-01
+   7.20146482e-01  6.09208786e-01  4.97720111e-01  3.85651574e-01
+   2.73046975e-01  1.59991860e-01  4.62357228e-02 -6.04705760e-02
+  -1.57192447e-01 -2.54434776e-01 -3.51984719e-01 -4.49920561e-01
+  -5.48382398e-01 -6.47181461e-01 -7.46394143e-01 -7.46781797e-01
+  -7.46342455e-01 -7.45806557e-01 -7.45370004e-01 -7.44838266e-01
+  -7.44375684e-01 -7.43867010e-01 -6.94210127e-01 -6.06185251e-01
+  -5.17794653e-01 -4.29018365e-01 -3.39939533e-01 -2.50401867e-01
+  -1.60500756e-01 -6.75570265e-02  4.28270152e-02  1.53517793e-01
+   2.64739378e-01  3.76383997e-01  4.88461557e-01  6.01018733e-01
+   7.14048015e-01  8.36679737e-01  9.63619156e-01  1.09124672e+00
+   1.21929191e+00  1.34794900e+00  1.47724008e+00  1.60706073e+00
+   1.75203192e+00  1.93562267e+00  2.12029308e+00  2.30552133e+00
+   2.49187173e+00  2.67911436e+00  2.86721601e+00  3.05634840e+00
+   3.23658987e+00  3.41607087e+00  3.59663839e+00  3.77772438e+00
+   3.96017525e+00  4.14332831e+00  4.32763373e+00  4.43355710e+00
+   4.43200373e+00  4.43054650e+00  4.42892928e+00  4.42760112e+00
+   4.42604019e+00  4.42471007e+00  4.42323863e+00  4.18472324e+00
+   3.94377550e+00  3.70173343e+00  3.45843579e+00  3.21394505e+00
+   2.96822110e+00  2.72114113e+00  2.45813999e+00  2.18220049e+00
+   1.90487304e+00  1.62636063e+00  1.34633491e+00  1.06507060e+00
+   7.82170360e-01  5.29338910e-01  4.68223120e-01  4.07096313e-01
+   3.45767874e-01  2.83903649e-01  2.21931965e-01  1.59768129e-01
+   9.72776042e-02  1.71141345e-01  3.00828304e-01  4.31170707e-01
+   5.62247926e-01  6.94001904e-01  8.26486045e-01  9.59715406e-01
+   1.06874110e+00  1.11546056e+00  1.16226238e+00  1.20945741e+00
+   1.25695913e+00  1.30471168e+00  1.35286099e+00  1.40128485e+00
+   1.28346681e+00  1.13661645e+00  9.89234352e-01  8.41106063e-01
+   6.92470979e-01  5.43091812e-01  3.92908141e-01  2.50834208e-01
+   1.20027194e-01 -1.18175656e-02 -1.44005131e-01 -2.77237263e-01
+  -4.11341070e-01 -5.45994310e-01 -6.81372752e-01 -5.88909426e-01
+  -4.95878815e-01 -4.02611231e-01 -3.09094085e-01 -2.15096975e-01
+  -1.20808460e-01 -2.65064385e-02  1.22884139e-01  3.13866376e-01
+   5.05609100e-01  6.97991914e-01  8.91098122e-01  1.08511176e+00
+   1.27989973e+00  1.44682488e+00  1.44365853e+00  1.44020041e+00
+   1.43692375e+00  1.43352030e+00  1.43021171e+00  1.42699083e+00
+   1.42358194e+00  1.32893719e+00  1.19813989e+00  1.06713671e+00
+   9.36095014e-01  8.04822951e-01  6.73740014e-01  5.42559363e-01
+   4.68324304e-01  5.36546323e-01  6.06337825e-01  6.77847946e-01
+   7.51154934e-01  8.26158912e-01  9.02588577e-01  9.81050851e-01
+   1.21439826e+00  1.47526419e+00  1.73884941e+00  2.00458546e+00
+   2.27306050e+00  2.54416597e+00  2.81792666e+00  2.99359576e+00
+   3.03697880e+00  3.07984635e+00  3.12170643e+00  3.16261877e+00
+   3.20261062e+00  3.24193403e+00  3.27902898e+00  2.94304753e+00
+   2.60217396e+00  2.25695190e+00  1.90688321e+00  1.55214657e+00
+   1.19254048e+00  8.28205781e-01  4.87265827e-01  1.63539026e-01
+  -1.63081695e-01 -4.93181471e-01 -8.26314427e-01 -1.16256443e+00
+  -1.50245190e+00 -1.78640709e+00 -1.72925183e+00 -1.67229313e+00
+  -1.61530000e+00 -1.55821404e+00 -1.50124910e+00 -1.44457520e+00
+  -1.38763917e+00 -1.19021718e+00 -9.37945378e-01 -6.85411294e-01
+  -4.32923579e-01 -1.80094691e-01  7.25519214e-02  3.25462202e-01
+   5.26598676e-01  6.02195864e-01  6.76093984e-01  7.48845255e-01
+   8.20015966e-01  8.89854597e-01  9.58207697e-01  1.02521140e+00
+   9.67367324e-01  8.87220767e-01  8.04804847e-01  7.19973504e-01
+   6.32754045e-01  5.42958178e-01  4.50406935e-01  4.13101201e-01
+   4.47911473e-01  4.80985210e-01  5.12490658e-01  5.42167781e-01
+   5.70140153e-01  5.96252835e-01  6.21313560e-01  7.81007931e-01
+   9.39544831e-01  1.09698948e+00  1.25353246e+00  1.40934585e+00
+   1.56380048e+00  1.71709622e+00  1.81562047e+00  1.87371748e+00
+   1.93117974e+00  1.98720577e+00  2.04216196e+00  2.09635568e+00
+   2.14952486e+00  2.18338643e+00  2.11251930e+00  2.04125592e+00
+   1.96961767e+00  1.89667775e+00  1.82352934e+00  1.74947926e+00
+   1.67485692e+00  1.64472130e+00  1.63215345e+00  1.61966843e+00
+   1.60750097e+00  1.59539102e+00  1.58337125e+00  1.57145278e+00
+   1.58011976e+00  1.63787023e+00  1.69653098e+00  1.75591111e+00
+   1.81599994e+00  1.87744454e+00  1.93961390e+00  2.00284576e+00
+   1.97070790e+00  1.92423977e+00  1.87858720e+00  1.83345636e+00
+   1.78896437e+00  1.74496514e+00  1.70156807e+00  1.62332473e+00
+   1.49947333e+00  1.37480127e+00  1.25013191e+00  1.12564574e+00
+   1.00066140e+00  8.75455963e-01  7.51938558e-01  8.05183718e-01
+   8.58919765e-01  9.13073818e-01  9.68104148e-01  1.02310158e+00
+   1.07891691e+00  1.13513658e+00  1.30193161e+00  1.54872377e+00
+   1.79732271e+00  2.04730321e+00  2.29896887e+00  2.55188486e+00
+   2.80659968e+00  3.03543018e+00  3.11806124e+00  3.20247050e+00
+   3.28924627e+00  3.37816639e+00  3.46928335e+00  3.56271930e+00
+   3.65827894e+00  3.48625582e+00  3.21400522e+00  2.94428665e+00
+   2.67660336e+00  2.41064300e+00  2.14699571e+00  1.88551009e+00
+   1.60353864e+00  1.26884064e+00  9.34779815e-01  6.01508513e-01
+   2.68586359e-01 -6.37445460e-02 -3.95192558e-01 -7.26007319e-01
+  -8.16380806e-01 -8.70757276e-01 -9.24942858e-01 -9.79293735e-01
+  -1.03335063e+00 -1.08696182e+00 -1.14071871e+00 -1.11413379e+00
+  -9.86193439e-01 -8.57703840e-01 -7.28863969e-01 -5.99516093e-01
+  -4.69432298e-01 -3.38631683e-01 -2.09605311e-01 -2.20034241e-01
+  -2.29906408e-01 -2.38582367e-01 -2.46302663e-01 -2.52858684e-01
+  -2.58904015e-01 -2.63396562e-01 -3.47503631e-01 -4.87174287e-01
+  -6.26103345e-01 -7.63909757e-01 -9.00950122e-01 -1.03717829e+00
+  -1.17227582e+00 -1.27867150e+00 -1.23857980e+00 -1.19677019e+00
+  -1.15368331e+00 -1.10867511e+00 -1.06240080e+00  3.48280839e+00
+   3.48743073e+00  3.45385460e+00  3.42437487e+00  3.39908835e+00
+   3.37791384e+00  3.36086435e+00  3.34873074e+00  3.23188362e+00
+   2.98384582e+00  2.74006905e+00  2.49988843e+00  2.26433303e+00
+   2.03300985e+00  1.80584004e+00  1.58355742e+00  1.39383201e+00
+   1.20815899e+00  1.02578283e+00  8.47839256e-01  6.73444777e-01
+   5.03301026e-01  3.37579997e-01  2.49370351e-01  2.16022753e-01
+   1.86287848e-01  1.60306481e-01  1.37940805e-01  1.19481060e-01
+   1.04490135e-01  9.60353677e-02  1.06327441e-01  1.19592492e-01
+   1.36549299e-01  1.56997098e-01  1.81384273e-01  2.09648527e-01
+   2.41641384e-01  2.34099981e-01  2.14534518e-01  1.99352270e-01
+   1.87779859e-01  1.80480497e-01  1.76841207e-01  1.78034545e-01
+   1.84903701e-01  2.02855520e-01  2.25320692e-01  2.53039595e-01
+   2.86053482e-01  3.24397028e-01  3.67832268e-01  4.16753336e-01
+   5.48680778e-01  6.97732574e-01  8.53731817e-01  1.01716542e+00
+   1.18795199e+00  1.36612871e+00  1.55178108e+00  1.75202829e+00
+   1.96889149e+00  2.19207059e+00  2.42233203e+00  2.65971619e+00
+   2.90441974e+00  3.15618969e+00  3.41124332e+00  3.45696622e+00
+   3.50587693e+00  3.55728763e+00  3.61140938e+00  3.66836826e+00
+   3.72835664e+00  3.79113873e+00  3.63643075e+00  3.32964815e+00
+   3.02082904e+00  2.71014819e+00  2.39805724e+00  2.08392889e+00
+   1.76788412e+00  1.44482640e+00  1.09522666e+00  7.44173946e-01
+   3.90994341e-01  3.66560490e-02 -3.19479113e-01 -6.77040411e-01
+  -1.03666599e+00 -1.04317157e+00 -9.20673847e-01 -7.94926394e-01
+  -6.66052576e-01 -5.33209881e-01 -3.96996049e-01 -2.57513838e-01
+   2.14155474e-02  6.10617663e-01  1.20709872e+00  1.81093421e+00
+   2.42225893e+00  3.04120554e+00  3.66836935e+00  4.30320587e+00
+  -3.38419382e+00 -2.95852891e+00 -2.52622154e+00 -2.08792025e+00
+  -1.64395114e+00 -1.12894434e+00 -5.87710681e-01 -4.20439083e-02
+   5.08510992e-01  1.06341358e+00  1.62342789e+00  2.18829076e+00
+   2.56356636e+00  2.51516406e+00  2.46692480e+00  2.41962468e+00
+   2.37330118e+00  2.32704565e+00  2.28202897e+00  2.23772769e+00
+   1.97908380e+00  1.69508650e+00  1.41353299e+00  1.13531139e+00
+   8.60412683e-01  5.88366323e-01  3.20820531e-01  1.88981529e-01
+   2.18114883e-01  2.49835093e-01  2.85043160e-01  3.23644790e-01
+   3.65294462e-01  4.10748067e-01  4.63620465e-01  6.26643786e-01
+   7.88405535e-01  9.48831979e-01  1.10693711e+00  1.26398863e+00
+   1.41897957e+00  1.57262788e+00  1.63412449e+00  1.63115810e+00
+   1.62497434e+00  1.61481924e+00  1.60087873e+00  1.58430034e+00
+   1.56330276e+00  1.52688624e+00  1.43491830e+00  1.34126145e+00
+   1.24730782e+00  1.15375986e+00  1.05923824e+00  9.64534949e-01
+   8.69545216e-01  7.42457427e-01  6.04865559e-01  4.68106688e-01
+   3.32401901e-01]]</t>
         </is>
       </c>
     </row>
